--- a/house_info.xlsx
+++ b/house_info.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="145">
   <si>
     <t xml:space="preserve">QUESTION</t>
   </si>
@@ -356,7 +356,112 @@
     <t xml:space="preserve">Interior layout</t>
   </si>
   <si>
-    <t xml:space="preserve">Basement</t>
+    <t xml:space="preserve">Basement  separate entrance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basement_rooms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">living/dining/kitchen/rec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,0,0,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">family/den/laundry/storage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,0,1,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bed/full bath/2-piece bath </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,1,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exterior brick=0/stone=1/vinyl=2/concrete=3/stucco=4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exterior_finish </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First Floor: living+dining+kitchen? (0 or 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">family room/den/office/laundry </t>
+  </si>
+  <si>
+    <t xml:space="preserve">storey_rooms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,0,0,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">master bed/ average bed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ensuite/full/partial bathroom </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,0,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flooring hardwood=0/broadloom=1/laminate=2/ceramic=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior1_floor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Second Floor living+dining+kitchen? (0 or 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">loft/den/office/laundry </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,0,0,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,1,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hardwood=0/broadloom=1/laminate=2/ceramic=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior2_floor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Third Floor loft/den/office/laundry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hardwood=0/broadloom=1/ceramic=2/laminate=3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interior upgrades potlight=0/crown mouldings=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior_finishes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,1</t>
   </si>
 </sst>
 </file>
@@ -367,7 +472,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -406,6 +511,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -450,7 +560,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -483,6 +593,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,10 +618,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -521,10 +639,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="22.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="21.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="14.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="31.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="31.69"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="11.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="13.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="15.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="15.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="22.09"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="19" style="1" width="11.54"/>
   </cols>
@@ -989,6 +1107,191 @@
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>109</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0"/>
+      <c r="B46" s="0"/>
+      <c r="C46" s="0"/>
+      <c r="D46" s="0"/>
+    </row>
+    <row r="47" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/house_info.xlsx
+++ b/house_info.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="149">
   <si>
     <t xml:space="preserve">QUESTION</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t xml:space="preserve">storey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
   </si>
   <si>
     <t xml:space="preserve">For Freehold: 
@@ -452,7 +455,16 @@
     <t xml:space="preserve">interior3</t>
   </si>
   <si>
-    <t xml:space="preserve">hardwood=0/broadloom=1/ceramic=2/laminate=3 </t>
+    <t xml:space="preserve">0,0,0,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,1,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,1,2</t>
   </si>
   <si>
     <t xml:space="preserve">Interior upgrades potlight=0/crown mouldings=1</t>
@@ -518,12 +530,66 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF5CE"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8000"/>
+        <bgColor rgb="FFFF6600"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF729FCF"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE8F2A1"/>
+        <bgColor rgb="FFFFF5CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBBE33D"/>
+        <bgColor rgb="FFE8F2A1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5EB91E"/>
+        <bgColor rgb="FF468A1A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF468A1A"/>
+        <bgColor rgb="FF5EB91E"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -560,7 +626,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -569,8 +635,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -581,6 +655,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -589,7 +667,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -597,7 +695,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -610,6 +732,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF5EB91E"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFCCCCCC"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF729FCF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFF5CE"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFE8F2A1"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FFBBE33D"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF8000"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF468A1A"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -620,15 +802,15 @@
   </sheetPr>
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E48" activeCellId="0" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="51.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="7.63"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="3" min="3" style="1" width="7.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="28.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="33.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.99"/>
@@ -662,7 +844,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -673,18 +855,18 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -695,7 +877,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -706,446 +888,446 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="1" t="n">
-        <v>2</v>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="C7" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>24</v>
+      <c r="A9" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>27</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>28</v>
+      <c r="A11" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>30</v>
+      <c r="A12" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
-        <v>32</v>
+      <c r="A13" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
-        <v>35</v>
+      <c r="A14" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>38</v>
+      <c r="A15" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="3" t="s">
         <v>41</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="F15" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="4" t="s">
+      <c r="A16" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="B16" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="C16" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="3" t="s">
+      <c r="A17" s="4" t="s">
         <v>46</v>
       </c>
+      <c r="B17" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="D17" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
-        <v>48</v>
+      <c r="A18" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>50</v>
+      <c r="A19" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>60</v>
+      <c r="A24" s="7" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>61</v>
+      <c r="A25" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>64</v>
+      <c r="A26" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" s="5" t="s">
         <v>66</v>
       </c>
+      <c r="D26" s="8" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>67</v>
+      <c r="A27" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D27" s="6" t="s">
         <v>69</v>
       </c>
+      <c r="D27" s="9" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>70</v>
+      <c r="A28" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E28" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="11" t="n">
+        <v>1266480</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D29" s="7" t="n">
-        <v>1266480</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
     <row r="42" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="D42" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="8" t="s">
-        <v>113</v>
+      <c r="A43" s="14" t="s">
+        <v>114</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="8" t="s">
-        <v>115</v>
+      <c r="A44" s="14" t="s">
+        <v>116</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1155,143 +1337,155 @@
       <c r="D46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B47" s="8" t="s">
+      <c r="A47" s="15" t="s">
         <v>118</v>
       </c>
+      <c r="B47" s="16" t="s">
+        <v>119</v>
+      </c>
       <c r="D47" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B48" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>119</v>
-      </c>
     </row>
     <row r="53" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B53" s="8" t="s">
+      <c r="A53" s="18" t="s">
         <v>132</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>133</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="8" t="s">
-        <v>133</v>
+      <c r="A54" s="19" t="s">
+        <v>134</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="8" t="s">
-        <v>125</v>
+      <c r="A55" s="19" t="s">
+        <v>126</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="8" t="s">
-        <v>127</v>
+      <c r="A56" s="19" t="s">
+        <v>128</v>
       </c>
       <c r="D56" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="B57" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B57" s="9" t="s">
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="8" t="s">
-        <v>141</v>
+      <c r="D61" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>143</v>
+      <c r="A62" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>147</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/house_info.xlsx
+++ b/house_info.xlsx
@@ -73,7 +73,7 @@
     <t xml:space="preserve">storey</t>
   </si>
   <si>
-    <t xml:space="preserve">3</t>
+    <t xml:space="preserve">1 1/2</t>
   </si>
   <si>
     <t xml:space="preserve">For Freehold: 
@@ -239,7 +239,7 @@
     <t xml:space="preserve">geo_price</t>
   </si>
   <si>
-    <t xml:space="preserve">635000</t>
+    <t xml:space="preserve">600000</t>
   </si>
   <si>
     <t xml:space="preserve">MLS Count? 0/1..</t>
@@ -248,121 +248,121 @@
     <t xml:space="preserve">mls_count</t>
   </si>
   <si>
+    <t xml:space="preserve">Space for more MLS:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MLS listing number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mls_no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1144178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">///only takes 5 mls maximum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Listing date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mls_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-10-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-03-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Listing Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">listing_price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">725000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">489999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sold price/ter/can/sus/cond/exp/act</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sold_price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">840000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">490000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Days on Market</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSA? y/n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSA date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psa_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-10-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSA Buyer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psa_buyer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sangar Visuwaratnam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSA Seller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psa_seller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pathmasri Kandiah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSA Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psa_price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1720000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interior layout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basement  separate entrance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basement_rooms</t>
+  </si>
+  <si>
     <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Space for more MLS:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MLS listing number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mls_no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1144178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">///only takes 5 mls maximum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Listing date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mls_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-10-29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-03-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Listing Price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">listing_price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">725000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">489999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sold price/ter/can/sus/cond/exp/act</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sold_price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">840000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">490000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Days on Market</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSA? y/n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">psa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSA date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">psa_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-10-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSA Buyer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">psa_buyer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sangar Visuwaratnam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSA Seller</t>
-  </si>
-  <si>
-    <t xml:space="preserve">psa_seller</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pathmasri Kandiah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSA Price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">psa_price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1720000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interior layout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Basement  separate entrance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">basement_rooms</t>
   </si>
   <si>
     <t xml:space="preserve">living/dining/kitchen/rec</t>
@@ -484,7 +484,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -505,6 +505,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="6"/>
@@ -530,12 +537,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF333333"/>
+        <bgColor rgb="FF333300"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -601,7 +614,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -625,6 +638,12 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -635,15 +654,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -655,18 +674,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -675,19 +682,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -695,22 +714,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -719,19 +726,55 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Untitled1" xfId="20"/>
+    <cellStyle name="Untitled2" xfId="21"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333333"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="false" diagonalDown="false">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <diagonal/>
+      </border>
+    </dxf>
+  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -780,7 +823,7 @@
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF8000"/>
       <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF666666"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF468A1A"/>
@@ -802,8 +845,8 @@
   </sheetPr>
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E48" activeCellId="0" sqref="E48"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1135,103 +1178,103 @@
         <v>72</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="D29" s="11" t="n">
         <v>1266480</v>
       </c>
       <c r="E29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="D30" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="I30" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="D31" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="I31" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="D32" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="I32" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="D33" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="I33" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>53</v>
@@ -1239,62 +1282,62 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="D35" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="D36" s="6" t="s">
         <v>101</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="D37" s="6" t="s">
         <v>104</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="D38" s="6" t="s">
         <v>107</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="D41" s="6" t="s">
         <v>111</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1302,9 +1345,9 @@
         <v>112</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D42" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D42" s="6" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1313,9 +1356,9 @@
         <v>114</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D43" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D43" s="6" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1324,9 +1367,9 @@
         <v>116</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D44" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>117</v>
       </c>
     </row>
@@ -1355,7 +1398,7 @@
         <v>122</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1403,7 +1446,7 @@
       <c r="B53" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1411,7 +1454,7 @@
       <c r="A54" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="6" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1419,7 +1462,7 @@
       <c r="A55" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="6" t="s">
         <v>136</v>
       </c>
     </row>
@@ -1427,7 +1470,7 @@
       <c r="A56" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" s="6" t="s">
         <v>137</v>
       </c>
     </row>
@@ -1438,7 +1481,7 @@
       <c r="B57" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" s="6" t="s">
         <v>136</v>
       </c>
     </row>
@@ -1449,7 +1492,7 @@
       <c r="B58" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" s="6" t="s">
         <v>142</v>
       </c>
     </row>
@@ -1457,7 +1500,7 @@
       <c r="A59" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="6" t="s">
         <v>143</v>
       </c>
     </row>
@@ -1465,7 +1508,7 @@
       <c r="A60" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="6" t="s">
         <v>144</v>
       </c>
     </row>
@@ -1473,7 +1516,7 @@
       <c r="A61" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="6" t="s">
         <v>145</v>
       </c>
     </row>
@@ -1489,6 +1532,31 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D35:D38">
+    <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>house_info!$D$34="n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29:D33">
+    <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>house_info!$D$28="0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D58:D61">
+    <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND(house_info!$D$6 &lt;&gt; "3",house_info!$D$6 &lt;&gt; "2 1/2")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53:D57">
+    <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>OR(house_info!$D$6="1",house_info!$D$6 &lt;&gt; "3"="1 1/2")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D41:D44">
+    <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>OR(house_info!$D$14="2",house_info!$D$14 ="3")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/house_info.xlsx
+++ b/house_info.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="150">
   <si>
     <t xml:space="preserve">QUESTION</t>
   </si>
@@ -40,7 +40,7 @@
     <t xml:space="preserve">city</t>
   </si>
   <si>
-    <t xml:space="preserve">Ottawa</t>
+    <t xml:space="preserve">ottawa</t>
   </si>
   <si>
     <t xml:space="preserve">District</t>
@@ -49,7 +49,7 @@
     <t xml:space="preserve">district</t>
   </si>
   <si>
-    <t xml:space="preserve">Stittville</t>
+    <t xml:space="preserve">Crossing Bridge</t>
   </si>
   <si>
     <t xml:space="preserve">Free=0/condo=1 </t>
@@ -67,13 +67,13 @@
     <t xml:space="preserve">type</t>
   </si>
   <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Storey</t>
   </si>
   <si>
     <t xml:space="preserve">storey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 1/2</t>
   </si>
   <si>
     <t xml:space="preserve">For Freehold: 
@@ -86,7 +86,7 @@
     <t xml:space="preserve">.split(',') </t>
   </si>
   <si>
-    <t xml:space="preserve">rectangular,interior,other residential lots</t>
+    <t xml:space="preserve">irregular,end,other residential lots</t>
   </si>
   <si>
     <t xml:space="preserve">For Condo: 
@@ -96,13 +96,16 @@
     <t xml:space="preserve">condo_location</t>
   </si>
   <si>
-    <t xml:space="preserve">southwest,x street,y road,end</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If Condo Townhouse: townhouse location end/interior</t>
+    <t xml:space="preserve">southwest,Industrial Avenue,Riverside Drive,interior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Townhouse location end/interior</t>
   </si>
   <si>
     <t xml:space="preserve">townhouse_location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end</t>
   </si>
   <si>
     <t xml:space="preserve">street type
@@ -112,6 +115,9 @@
     <t xml:space="preserve">street_type </t>
   </si>
   <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Owner=0/Tenant=1/Both=2/vacant=3 </t>
   </si>
   <si>
@@ -128,9 +134,6 @@
   </si>
   <si>
     <t xml:space="preserve">parking_no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
   </si>
   <si>
     <t xml:space="preserve">basement finished=0/ partly=1/ unfin=2/ none=3</t>
@@ -153,6 +156,9 @@
     <t xml:space="preserve">.split(‘,’) </t>
   </si>
   <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
     <t xml:space="preserve">if nuclear station exist: 
 Pickering = 0 / Darlington = 1</t>
   </si>
@@ -163,7 +169,7 @@
     <t xml:space="preserve">adverse_range</t>
   </si>
   <si>
-    <t xml:space="preserve">100</t>
+    <t xml:space="preserve">500</t>
   </si>
   <si>
     <t xml:space="preserve">Nearby park/school </t>
@@ -172,7 +178,7 @@
     <t xml:space="preserve">facilities </t>
   </si>
   <si>
-    <t xml:space="preserve">Rosehill Park</t>
+    <t xml:space="preserve">Crossingbridge Park</t>
   </si>
   <si>
     <t xml:space="preserve">electric underground=0/overhead=1 </t>
@@ -196,13 +202,13 @@
     <t xml:space="preserve">year_built</t>
   </si>
   <si>
-    <t xml:space="preserve">2007</t>
+    <t xml:space="preserve">1999</t>
   </si>
   <si>
     <t xml:space="preserve">sqft</t>
   </si>
   <si>
-    <t xml:space="preserve">2194</t>
+    <t xml:space="preserve">1623</t>
   </si>
   <si>
     <t xml:space="preserve">extra ownership checkbox
@@ -221,7 +227,7 @@
     <t xml:space="preserve">geo_date</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-05-19</t>
+    <t xml:space="preserve">2007-08-15</t>
   </si>
   <si>
     <t xml:space="preserve">geo name</t>
@@ -230,7 +236,7 @@
     <t xml:space="preserve">geo_name</t>
   </si>
   <si>
-    <t xml:space="preserve">CATALAN-PIEDRA, PAULINA; MINORS, DAMON ANTHONY;</t>
+    <t xml:space="preserve">SWITALSKI, DIANE TERESA; SWITALSKI, MARC CLAUDE;</t>
   </si>
   <si>
     <t xml:space="preserve">geo price</t>
@@ -239,7 +245,7 @@
     <t xml:space="preserve">geo_price</t>
   </si>
   <si>
-    <t xml:space="preserve">600000</t>
+    <t xml:space="preserve">255500</t>
   </si>
   <si>
     <t xml:space="preserve">MLS Count? 0/1..</t>
@@ -257,7 +263,7 @@
     <t xml:space="preserve">mls_no</t>
   </si>
   <si>
-    <t xml:space="preserve">1144178</t>
+    <t xml:space="preserve">N4527699</t>
   </si>
   <si>
     <t xml:space="preserve">///only takes 5 mls maximum</t>
@@ -269,10 +275,10 @@
     <t xml:space="preserve">mls_date</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-10-29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-03-25</t>
+    <t xml:space="preserve">2018-10-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-07-24</t>
   </si>
   <si>
     <t xml:space="preserve">Listing Price</t>
@@ -281,10 +287,10 @@
     <t xml:space="preserve">listing_price</t>
   </si>
   <si>
-    <t xml:space="preserve">725000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">489999</t>
+    <t xml:space="preserve">399900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">788000</t>
   </si>
   <si>
     <t xml:space="preserve">Sold price/ter/can/sus/cond/exp/act</t>
@@ -293,10 +299,10 @@
     <t xml:space="preserve">sold_price</t>
   </si>
   <si>
-    <t xml:space="preserve">840000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">490000</t>
+    <t xml:space="preserve">can</t>
+  </si>
+  <si>
+    <t xml:space="preserve">782000</t>
   </si>
   <si>
     <t xml:space="preserve">Days on Market</t>
@@ -305,10 +311,10 @@
     <t xml:space="preserve">dom</t>
   </si>
   <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22</t>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
   </si>
   <si>
     <t xml:space="preserve">PSA? y/n</t>
@@ -323,7 +329,7 @@
     <t xml:space="preserve">psa_date</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-10-08</t>
+    <t xml:space="preserve">2021-10-21</t>
   </si>
   <si>
     <t xml:space="preserve">PSA Buyer</t>
@@ -332,7 +338,7 @@
     <t xml:space="preserve">psa_buyer</t>
   </si>
   <si>
-    <t xml:space="preserve">Sangar Visuwaratnam</t>
+    <t xml:space="preserve">Pooja Ashok Bhavsar &amp; Sumant Kumar Jha</t>
   </si>
   <si>
     <t xml:space="preserve">PSA Seller</t>
@@ -341,7 +347,7 @@
     <t xml:space="preserve">psa_seller</t>
   </si>
   <si>
-    <t xml:space="preserve">Pathmasri Kandiah</t>
+    <t xml:space="preserve">Gurmeet Uppal</t>
   </si>
   <si>
     <t xml:space="preserve">PSA Price</t>
@@ -350,7 +356,7 @@
     <t xml:space="preserve">psa_price</t>
   </si>
   <si>
-    <t xml:space="preserve">1720000</t>
+    <t xml:space="preserve">1695000</t>
   </si>
   <si>
     <t xml:space="preserve">Interior layout</t>
@@ -362,9 +368,6 @@
     <t xml:space="preserve">basement_rooms</t>
   </si>
   <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
     <t xml:space="preserve">living/dining/kitchen/rec</t>
   </si>
   <si>
@@ -374,13 +377,13 @@
     <t xml:space="preserve">family/den/laundry/storage</t>
   </si>
   <si>
-    <t xml:space="preserve">0,0,1,1</t>
+    <t xml:space="preserve">0,0,1,0</t>
   </si>
   <si>
     <t xml:space="preserve">bed/full bath/2-piece bath </t>
   </si>
   <si>
-    <t xml:space="preserve">0,1,0</t>
+    <t xml:space="preserve">1,0,1</t>
   </si>
   <si>
     <t xml:space="preserve">Exterior brick=0/stone=1/vinyl=2/concrete=3/stucco=4</t>
@@ -425,6 +428,9 @@
     <t xml:space="preserve">interior1_floor</t>
   </si>
   <si>
+    <t xml:space="preserve">0,3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Second Floor living+dining+kitchen? (0 or 1)</t>
   </si>
   <si>
@@ -434,30 +440,30 @@
     <t xml:space="preserve">loft/den/office/laundry </t>
   </si>
   <si>
-    <t xml:space="preserve">1,0,0,1</t>
+    <t xml:space="preserve">0,0,0,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,1,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hardwood=0/broadloom=1/laminate=2/ceramic=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior2_floor</t>
   </si>
   <si>
     <t xml:space="preserve">1,3</t>
   </si>
   <si>
-    <t xml:space="preserve">1,1,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hardwood=0/broadloom=1/laminate=2/ceramic=3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interior2_floor</t>
-  </si>
-  <si>
     <t xml:space="preserve">Third Floor loft/den/office/laundry</t>
   </si>
   <si>
     <t xml:space="preserve">interior3</t>
   </si>
   <si>
-    <t xml:space="preserve">0,0,0,0</t>
-  </si>
-  <si>
     <t xml:space="preserve">1,1</t>
   </si>
   <si>
@@ -467,13 +473,10 @@
     <t xml:space="preserve">0,1,2</t>
   </si>
   <si>
-    <t xml:space="preserve">Interior upgrades potlight=0/crown mouldings=1</t>
+    <t xml:space="preserve">Interior upgrades potlight=0/crown mouldings=1 empty = None</t>
   </si>
   <si>
     <t xml:space="preserve">interior_finishes </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,1</t>
   </si>
 </sst>
 </file>
@@ -484,7 +487,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -530,11 +533,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="12">
@@ -645,7 +643,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -666,20 +664,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -710,10 +708,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -724,10 +718,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -753,7 +743,7 @@
     <cellStyle name="Untitled1" xfId="20"/>
     <cellStyle name="Untitled2" xfId="21"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
     <dxf>
       <font>
         <name val="Arial"/>
@@ -766,6 +756,63 @@
           <bgColor rgb="FF333333"/>
         </patternFill>
       </fill>
+      <border diagonalUp="false" diagonalDown="false">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <diagonal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <color rgb="FF666666"/>
+        <sz val="10"/>
+        <u val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333333"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="false" diagonalDown="false">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <diagonal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <color rgb="FF666666"/>
+        <sz val="10"/>
+        <u val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333333"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <border diagonalUp="false" diagonalDown="false">
         <left/>
         <right/>
@@ -845,15 +892,15 @@
   </sheetPr>
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="51.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.45"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="3" min="3" style="1" width="7.63"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="3" min="3" style="1" width="6.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="28.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="33.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.99"/>
@@ -915,7 +962,7 @@
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -927,31 +974,31 @@
         <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" customFormat="false" ht="25.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -962,74 +1009,77 @@
       <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D9" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="1" t="n">
-        <v>1</v>
+      <c r="B10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="1" t="n">
-        <v>0</v>
+        <v>32</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="1" t="n">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>12</v>
@@ -1037,16 +1087,19 @@
     </row>
     <row r="15" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="5" t="s">
         <v>42</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="F15" s="1" t="n">
         <v>1</v>
@@ -1054,35 +1107,35 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>0</v>
@@ -1090,287 +1143,288 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="s">
-        <v>61</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="D24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D29" s="11" t="n">
-        <v>1266480</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>76</v>
+        <v>1130915</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>94</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="12" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="12" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>99</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>102</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>105</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="12" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="13" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>113</v>
+      <c r="D42" s="5" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>117</v>
+        <v>112</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1381,154 +1435,154 @@
     </row>
     <row r="47" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="B47" s="16" t="s">
         <v>119</v>
       </c>
+      <c r="B47" s="8" t="s">
+        <v>120</v>
+      </c>
       <c r="D47" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="B48" s="16" t="s">
         <v>122</v>
       </c>
+      <c r="B48" s="8" t="s">
+        <v>123</v>
+      </c>
       <c r="D48" s="1" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="17" t="s">
-        <v>123</v>
+      <c r="A49" s="16" t="s">
+        <v>124</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="17" t="s">
-        <v>126</v>
+      <c r="A50" s="16" t="s">
+        <v>127</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="17" t="s">
-        <v>128</v>
+      <c r="A51" s="16" t="s">
+        <v>129</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="B53" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="D53" s="6" t="s">
+      <c r="A53" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D53" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>135</v>
+      <c r="A54" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>136</v>
+      <c r="A55" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="D56" s="6" t="s">
+      <c r="A56" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D58" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="B57" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="21" t="s">
+    <row r="59" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>145</v>
+      <c r="D61" s="5" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="B62" s="16" t="s">
-        <v>147</v>
+      <c r="A62" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>149</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>148</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1537,7 +1591,7 @@
       <formula>house_info!$D$34="n"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D29:D33">
+  <conditionalFormatting sqref="D30:D33">
     <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>house_info!$D$28="0"</formula>
     </cfRule>
@@ -1547,7 +1601,7 @@
       <formula>AND(house_info!$D$6 &lt;&gt; "3",house_info!$D$6 &lt;&gt; "2 1/2")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D53:D57">
+  <conditionalFormatting sqref="D53:D56">
     <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>OR(house_info!$D$6="1",house_info!$D$6 &lt;&gt; "3"="1 1/2")</formula>
     </cfRule>
@@ -1555,6 +1609,31 @@
   <conditionalFormatting sqref="D41:D44">
     <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>OR(house_info!$D$14="2",house_info!$D$14 ="3")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="expression" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>house_info!$D$4 &lt;&gt; "1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>house_info!$D$4 &lt;&gt; "0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57">
+    <cfRule type="expression" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>house_info!$D$6 = "1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="expression" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>house_info!$D$5 = "3"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>OR(house_info!$D$4&lt;&gt;"0",house_info!$D$5&lt;&gt;"2")</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/house_info.xlsx
+++ b/house_info.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="144">
   <si>
     <t xml:space="preserve">QUESTION</t>
   </si>
@@ -49,7 +49,7 @@
     <t xml:space="preserve">district</t>
   </si>
   <si>
-    <t xml:space="preserve">Crossing Bridge</t>
+    <t xml:space="preserve">Longfields</t>
   </si>
   <si>
     <t xml:space="preserve">Free=0/condo=1 </t>
@@ -86,7 +86,7 @@
     <t xml:space="preserve">.split(',') </t>
   </si>
   <si>
-    <t xml:space="preserve">irregular,end,other residential lots</t>
+    <t xml:space="preserve">rectangular,interior,other residential lots</t>
   </si>
   <si>
     <t xml:space="preserve">For Condo: 
@@ -156,9 +156,6 @@
     <t xml:space="preserve">.split(‘,’) </t>
   </si>
   <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
     <t xml:space="preserve">if nuclear station exist: 
 Pickering = 0 / Darlington = 1</t>
   </si>
@@ -169,7 +166,7 @@
     <t xml:space="preserve">adverse_range</t>
   </si>
   <si>
-    <t xml:space="preserve">500</t>
+    <t xml:space="preserve">10</t>
   </si>
   <si>
     <t xml:space="preserve">Nearby park/school </t>
@@ -178,7 +175,7 @@
     <t xml:space="preserve">facilities </t>
   </si>
   <si>
-    <t xml:space="preserve">Crossingbridge Park</t>
+    <t xml:space="preserve">Calaveras Park</t>
   </si>
   <si>
     <t xml:space="preserve">electric underground=0/overhead=1 </t>
@@ -193,7 +190,7 @@
     <t xml:space="preserve">lease</t>
   </si>
   <si>
-    <t xml:space="preserve">n</t>
+    <t xml:space="preserve">y</t>
   </si>
   <si>
     <t xml:space="preserve">year built</t>
@@ -202,13 +199,13 @@
     <t xml:space="preserve">year_built</t>
   </si>
   <si>
-    <t xml:space="preserve">1999</t>
+    <t xml:space="preserve">2004</t>
   </si>
   <si>
     <t xml:space="preserve">sqft</t>
   </si>
   <si>
-    <t xml:space="preserve">1623</t>
+    <t xml:space="preserve">1549</t>
   </si>
   <si>
     <t xml:space="preserve">extra ownership checkbox
@@ -218,6 +215,9 @@
     <t xml:space="preserve">ownership_restriction_checkbox </t>
   </si>
   <si>
+    <t xml:space="preserve">n</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sales History</t>
   </si>
   <si>
@@ -227,7 +227,7 @@
     <t xml:space="preserve">geo_date</t>
   </si>
   <si>
-    <t xml:space="preserve">2007-08-15</t>
+    <t xml:space="preserve">2004-05-17</t>
   </si>
   <si>
     <t xml:space="preserve">geo name</t>
@@ -236,7 +236,7 @@
     <t xml:space="preserve">geo_name</t>
   </si>
   <si>
-    <t xml:space="preserve">SWITALSKI, DIANE TERESA; SWITALSKI, MARC CLAUDE;</t>
+    <t xml:space="preserve">REYNOLDS, KIMBERLEY; </t>
   </si>
   <si>
     <t xml:space="preserve">geo price</t>
@@ -245,7 +245,7 @@
     <t xml:space="preserve">geo_price</t>
   </si>
   <si>
-    <t xml:space="preserve">255500</t>
+    <t xml:space="preserve">205408</t>
   </si>
   <si>
     <t xml:space="preserve">MLS Count? 0/1..</t>
@@ -263,9 +263,6 @@
     <t xml:space="preserve">mls_no</t>
   </si>
   <si>
-    <t xml:space="preserve">N4527699</t>
-  </si>
-  <si>
     <t xml:space="preserve">///only takes 5 mls maximum</t>
   </si>
   <si>
@@ -275,10 +272,7 @@
     <t xml:space="preserve">mls_date</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-10-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-07-24</t>
+    <t xml:space="preserve">2021-11-03</t>
   </si>
   <si>
     <t xml:space="preserve">Listing Price</t>
@@ -287,10 +281,7 @@
     <t xml:space="preserve">listing_price</t>
   </si>
   <si>
-    <t xml:space="preserve">399900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">788000</t>
+    <t xml:space="preserve">599000</t>
   </si>
   <si>
     <t xml:space="preserve">Sold price/ter/can/sus/cond/exp/act</t>
@@ -299,10 +290,7 @@
     <t xml:space="preserve">sold_price</t>
   </si>
   <si>
-    <t xml:space="preserve">can</t>
-  </si>
-  <si>
-    <t xml:space="preserve">782000</t>
+    <t xml:space="preserve">act</t>
   </si>
   <si>
     <t xml:space="preserve">Days on Market</t>
@@ -311,10 +299,7 @@
     <t xml:space="preserve">dom</t>
   </si>
   <si>
-    <t xml:space="preserve">17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
+    <t xml:space="preserve">6</t>
   </si>
   <si>
     <t xml:space="preserve">PSA? y/n</t>
@@ -329,7 +314,7 @@
     <t xml:space="preserve">psa_date</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-10-21</t>
+    <t xml:space="preserve">2021-11-08</t>
   </si>
   <si>
     <t xml:space="preserve">PSA Buyer</t>
@@ -338,7 +323,7 @@
     <t xml:space="preserve">psa_buyer</t>
   </si>
   <si>
-    <t xml:space="preserve">Pooja Ashok Bhavsar &amp; Sumant Kumar Jha</t>
+    <t xml:space="preserve">Farah Sejigheh Hosseinian &amp; Javad Ghinani Tavakoli</t>
   </si>
   <si>
     <t xml:space="preserve">PSA Seller</t>
@@ -347,7 +332,7 @@
     <t xml:space="preserve">psa_seller</t>
   </si>
   <si>
-    <t xml:space="preserve">Gurmeet Uppal</t>
+    <t xml:space="preserve">Kim Reynolds</t>
   </si>
   <si>
     <t xml:space="preserve">PSA Price</t>
@@ -356,7 +341,7 @@
     <t xml:space="preserve">psa_price</t>
   </si>
   <si>
-    <t xml:space="preserve">1695000</t>
+    <t xml:space="preserve">647000</t>
   </si>
   <si>
     <t xml:space="preserve">Interior layout</t>
@@ -371,19 +356,19 @@
     <t xml:space="preserve">living/dining/kitchen/rec</t>
   </si>
   <si>
-    <t xml:space="preserve">0,0,0,1</t>
+    <t xml:space="preserve">0,0,0,0</t>
   </si>
   <si>
     <t xml:space="preserve">family/den/laundry/storage</t>
   </si>
   <si>
-    <t xml:space="preserve">0,0,1,0</t>
+    <t xml:space="preserve">1,0,1,1</t>
   </si>
   <si>
     <t xml:space="preserve">bed/full bath/2-piece bath </t>
   </si>
   <si>
-    <t xml:space="preserve">1,0,1</t>
+    <t xml:space="preserve">0,0,0</t>
   </si>
   <si>
     <t xml:space="preserve">Exterior brick=0/stone=1/vinyl=2/concrete=3/stucco=4</t>
@@ -407,40 +392,37 @@
     <t xml:space="preserve">storey_rooms</t>
   </si>
   <si>
+    <t xml:space="preserve">master bed/ average bed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ensuite/full/partial bathroom </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,0,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flooring hardwood=0/broadloom=1/laminate=2/ceramic=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior1_floor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Second Floor living+dining+kitchen? (0 or 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">loft/den/office/laundry </t>
+  </si>
+  <si>
     <t xml:space="preserve">1,0,0,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">master bed/ average bed </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ensuite/full/partial bathroom </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,0,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flooring hardwood=0/broadloom=1/laminate=2/ceramic=3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interior1_floor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Second Floor living+dining+kitchen? (0 or 1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interior2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">loft/den/office/laundry </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,0,0,0</t>
   </si>
   <si>
     <t xml:space="preserve">1,2</t>
@@ -487,7 +469,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -532,6 +514,12 @@
       <sz val="7"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <name val="Verdana"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -643,7 +631,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -689,6 +677,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -812,7 +804,6 @@
           <bgColor rgb="FF333333"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <border diagonalUp="false" diagonalDown="false">
         <left/>
         <right/>
@@ -892,8 +883,8 @@
   </sheetPr>
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F49" activeCellId="0" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -903,7 +894,7 @@
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="3" min="3" style="1" width="6.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="28.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="33.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="27.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="28.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="22.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="50.61"/>
@@ -1082,7 +1073,7 @@
         <v>39</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1096,10 +1087,10 @@
         <v>42</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>44</v>
       </c>
       <c r="F15" s="1" t="n">
         <v>1</v>
@@ -1107,35 +1098,35 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="D17" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>0</v>
@@ -1143,46 +1134,46 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="D22" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1238,7 +1229,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="10" t="s">
         <v>76</v>
       </c>
@@ -1246,185 +1237,172 @@
         <v>77</v>
       </c>
       <c r="D29" s="11" t="n">
-        <v>1130915</v>
-      </c>
-      <c r="E29" s="8" t="s">
+        <v>1269112</v>
+      </c>
+      <c r="E29" s="8"/>
+      <c r="G29" s="12"/>
+      <c r="I29" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="D30" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="I30" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="I31" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="D34" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="B35" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="D35" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="I33" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="12" t="s">
+    </row>
+    <row r="36" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="12" t="s">
+      <c r="D36" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B35" s="1" t="s">
+    </row>
+    <row r="37" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="B37" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="12" t="s">
+      <c r="D37" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B36" s="1" t="s">
+    </row>
+    <row r="38" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="B38" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="12" t="s">
+      <c r="D38" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B37" s="1" t="s">
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="D37" s="5" t="s">
+    </row>
+    <row r="41" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="14" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="12" t="s">
+      <c r="B41" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D44" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1434,155 +1412,152 @@
       <c r="D46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="15" t="s">
-        <v>119</v>
+      <c r="A47" s="16" t="s">
+        <v>114</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="15" t="s">
-        <v>122</v>
+      <c r="A48" s="16" t="s">
+        <v>117</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="16" t="s">
+      <c r="A49" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B49" s="1" t="s">
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="16" t="s">
+      <c r="D52" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D50" s="1" t="s">
+    </row>
+    <row r="53" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="18" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="16" t="s">
+      <c r="B53" s="8" t="s">
         <v>129</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>135</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="18" t="s">
+      <c r="A54" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D57" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="D54" s="5" t="s">
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="20" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="55" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="D55" s="5" t="s">
+      <c r="B58" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="56" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="D56" s="5" t="s">
+      <c r="D58" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="D59" s="5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="18" t="s">
+    <row r="60" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="D60" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B57" s="5" t="s">
+    </row>
+    <row r="61" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="D61" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D57" s="5" t="s">
+    </row>
+    <row r="62" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="22" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="19" t="s">
+      <c r="B62" s="8" t="s">
         <v>143</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/house_info.xlsx
+++ b/house_info.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="143">
   <si>
     <t xml:space="preserve">QUESTION</t>
   </si>
@@ -49,7 +49,7 @@
     <t xml:space="preserve">district</t>
   </si>
   <si>
-    <t xml:space="preserve">Longfields</t>
+    <t xml:space="preserve">Blackstone</t>
   </si>
   <si>
     <t xml:space="preserve">Free=0/condo=1 </t>
@@ -67,13 +67,13 @@
     <t xml:space="preserve">type</t>
   </si>
   <si>
+    <t xml:space="preserve">Storey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">storey</t>
+  </si>
+  <si>
     <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Storey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">storey</t>
   </si>
   <si>
     <t xml:space="preserve">For Freehold: 
@@ -156,6 +156,9 @@
     <t xml:space="preserve">.split(‘,’) </t>
   </si>
   <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
     <t xml:space="preserve">if nuclear station exist: 
 Pickering = 0 / Darlington = 1</t>
   </si>
@@ -166,7 +169,7 @@
     <t xml:space="preserve">adverse_range</t>
   </si>
   <si>
-    <t xml:space="preserve">10</t>
+    <t xml:space="preserve">200</t>
   </si>
   <si>
     <t xml:space="preserve">Nearby park/school </t>
@@ -175,7 +178,7 @@
     <t xml:space="preserve">facilities </t>
   </si>
   <si>
-    <t xml:space="preserve">Calaveras Park</t>
+    <t xml:space="preserve">Blackstone Park</t>
   </si>
   <si>
     <t xml:space="preserve">electric underground=0/overhead=1 </t>
@@ -190,7 +193,7 @@
     <t xml:space="preserve">lease</t>
   </si>
   <si>
-    <t xml:space="preserve">y</t>
+    <t xml:space="preserve">n</t>
   </si>
   <si>
     <t xml:space="preserve">year built</t>
@@ -199,13 +202,13 @@
     <t xml:space="preserve">year_built</t>
   </si>
   <si>
-    <t xml:space="preserve">2004</t>
+    <t xml:space="preserve">2015</t>
   </si>
   <si>
     <t xml:space="preserve">sqft</t>
   </si>
   <si>
-    <t xml:space="preserve">1549</t>
+    <t xml:space="preserve">2065</t>
   </si>
   <si>
     <t xml:space="preserve">extra ownership checkbox
@@ -215,9 +218,6 @@
     <t xml:space="preserve">ownership_restriction_checkbox </t>
   </si>
   <si>
-    <t xml:space="preserve">n</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sales History</t>
   </si>
   <si>
@@ -227,7 +227,7 @@
     <t xml:space="preserve">geo_date</t>
   </si>
   <si>
-    <t xml:space="preserve">2004-05-17</t>
+    <t xml:space="preserve">2015-02-12</t>
   </si>
   <si>
     <t xml:space="preserve">geo name</t>
@@ -236,7 +236,7 @@
     <t xml:space="preserve">geo_name</t>
   </si>
   <si>
-    <t xml:space="preserve">REYNOLDS, KIMBERLEY; </t>
+    <t xml:space="preserve">SANDHAUS, NICOLE MARIE; SANDHAUS, LUCAS WILLIAM;</t>
   </si>
   <si>
     <t xml:space="preserve">geo price</t>
@@ -245,7 +245,7 @@
     <t xml:space="preserve">geo_price</t>
   </si>
   <si>
-    <t xml:space="preserve">205408</t>
+    <t xml:space="preserve">370788</t>
   </si>
   <si>
     <t xml:space="preserve">MLS Count? 0/1..</t>
@@ -272,7 +272,7 @@
     <t xml:space="preserve">mls_date</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-11-03</t>
+    <t xml:space="preserve">2021-08-18</t>
   </si>
   <si>
     <t xml:space="preserve">Listing Price</t>
@@ -281,7 +281,7 @@
     <t xml:space="preserve">listing_price</t>
   </si>
   <si>
-    <t xml:space="preserve">599000</t>
+    <t xml:space="preserve">799900</t>
   </si>
   <si>
     <t xml:space="preserve">Sold price/ter/can/sus/cond/exp/act</t>
@@ -290,7 +290,7 @@
     <t xml:space="preserve">sold_price</t>
   </si>
   <si>
-    <t xml:space="preserve">act</t>
+    <t xml:space="preserve">850000</t>
   </si>
   <si>
     <t xml:space="preserve">Days on Market</t>
@@ -299,22 +299,22 @@
     <t xml:space="preserve">dom</t>
   </si>
   <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
     <t xml:space="preserve">PSA? y/n</t>
   </si>
   <si>
     <t xml:space="preserve">psa</t>
   </si>
   <si>
+    <t xml:space="preserve">y</t>
+  </si>
+  <si>
     <t xml:space="preserve">PSA date</t>
   </si>
   <si>
     <t xml:space="preserve">psa_date</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-11-08</t>
+    <t xml:space="preserve">2021-08-19</t>
   </si>
   <si>
     <t xml:space="preserve">PSA Buyer</t>
@@ -323,7 +323,7 @@
     <t xml:space="preserve">psa_buyer</t>
   </si>
   <si>
-    <t xml:space="preserve">Farah Sejigheh Hosseinian &amp; Javad Ghinani Tavakoli</t>
+    <t xml:space="preserve">Yohannes Araya Bisrat &amp; Senait Fisseka Chine</t>
   </si>
   <si>
     <t xml:space="preserve">PSA Seller</t>
@@ -332,7 +332,7 @@
     <t xml:space="preserve">psa_seller</t>
   </si>
   <si>
-    <t xml:space="preserve">Kim Reynolds</t>
+    <t xml:space="preserve">Nicole Marie Sandhaus &amp; Lucas William Sandhaus</t>
   </si>
   <si>
     <t xml:space="preserve">PSA Price</t>
@@ -341,9 +341,6 @@
     <t xml:space="preserve">psa_price</t>
   </si>
   <si>
-    <t xml:space="preserve">647000</t>
-  </si>
-  <si>
     <t xml:space="preserve">Interior layout</t>
   </si>
   <si>
@@ -356,19 +353,19 @@
     <t xml:space="preserve">living/dining/kitchen/rec</t>
   </si>
   <si>
+    <t xml:space="preserve">0,0,0,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">family/den/laundry/storage</t>
+  </si>
+  <si>
     <t xml:space="preserve">0,0,0,0</t>
   </si>
   <si>
-    <t xml:space="preserve">family/den/laundry/storage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,0,1,1</t>
-  </si>
-  <si>
     <t xml:space="preserve">bed/full bath/2-piece bath </t>
   </si>
   <si>
-    <t xml:space="preserve">0,0,0</t>
+    <t xml:space="preserve">0,1,0</t>
   </si>
   <si>
     <t xml:space="preserve">Exterior brick=0/stone=1/vinyl=2/concrete=3/stucco=4</t>
@@ -422,7 +419,7 @@
     <t xml:space="preserve">loft/den/office/laundry </t>
   </si>
   <si>
-    <t xml:space="preserve">1,0,0,0</t>
+    <t xml:space="preserve">0,1,0,0</t>
   </si>
   <si>
     <t xml:space="preserve">1,2</t>
@@ -883,8 +880,8 @@
   </sheetPr>
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F49" activeCellId="0" sqref="F49"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -965,18 +962,18 @@
         <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="D6" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="25.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1059,7 +1056,7 @@
         <v>36</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1073,7 +1070,7 @@
         <v>39</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1087,10 +1084,10 @@
         <v>42</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" s="1" t="n">
         <v>1</v>
@@ -1098,35 +1095,35 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>0</v>
@@ -1134,46 +1131,46 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1237,7 +1234,7 @@
         <v>77</v>
       </c>
       <c r="D29" s="11" t="n">
-        <v>1269112</v>
+        <v>1256035</v>
       </c>
       <c r="E29" s="8"/>
       <c r="G29" s="12"/>
@@ -1295,7 +1292,7 @@
         <v>89</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>78</v>
@@ -1303,13 +1300,13 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1353,20 +1350,20 @@
         <v>103</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>12</v>
@@ -1374,35 +1371,35 @@
     </row>
     <row r="42" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D43" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D44" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1413,21 +1410,21 @@
     </row>
     <row r="47" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B47" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="D47" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B48" s="8" t="s">
         <v>117</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>118</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>30</v>
@@ -1435,48 +1432,48 @@
     </row>
     <row r="49" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="D49" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B53" s="8" t="s">
         <v>128</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>129</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>12</v>
@@ -1484,80 +1481,83 @@
     </row>
     <row r="54" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D54" s="5" t="s">
         <v>130</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B57" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="D57" s="5" t="s">
         <v>135</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="D58" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="B62" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="B62" s="8" t="s">
-        <v>143</v>
+      <c r="D62" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/house_info.xlsx
+++ b/house_info.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="145">
   <si>
     <t xml:space="preserve">QUESTION</t>
   </si>
@@ -49,7 +49,7 @@
     <t xml:space="preserve">district</t>
   </si>
   <si>
-    <t xml:space="preserve">Blackstone</t>
+    <t xml:space="preserve">Convent Glen South</t>
   </si>
   <si>
     <t xml:space="preserve">Free=0/condo=1 </t>
@@ -58,7 +58,7 @@
     <t xml:space="preserve">ownership</t>
   </si>
   <si>
-    <t xml:space="preserve">0</t>
+    <t xml:space="preserve">1</t>
   </si>
   <si>
     <t xml:space="preserve">type Det=0/Semi=1/Town=2/Apt=3/Stack=4 </t>
@@ -67,13 +67,13 @@
     <t xml:space="preserve">type</t>
   </si>
   <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Storey</t>
   </si>
   <si>
     <t xml:space="preserve">storey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
   </si>
   <si>
     <t xml:space="preserve">For Freehold: 
@@ -96,7 +96,7 @@
     <t xml:space="preserve">condo_location</t>
   </si>
   <si>
-    <t xml:space="preserve">southwest,Industrial Avenue,Riverside Drive,interior</t>
+    <t xml:space="preserve">northeast,Jeanne D’Arc Boulvevard South, St Joseph Boulevard,interior</t>
   </si>
   <si>
     <t xml:space="preserve">Townhouse location end/interior</t>
@@ -115,21 +115,24 @@
     <t xml:space="preserve">street_type </t>
   </si>
   <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Owner=0/Tenant=1/Both=2/vacant=3 </t>
   </si>
   <si>
     <t xml:space="preserve">occupy</t>
   </si>
   <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Attach=0/Builtin=1/Detach=2/Underg=3/Aboveg=4/None+Driveway=5/NoneNone=6 </t>
   </si>
   <si>
     <t xml:space="preserve">parking_type</t>
   </si>
   <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
     <t xml:space="preserve">number of parking space</t>
   </si>
   <si>
@@ -143,6 +146,9 @@
   </si>
   <si>
     <t xml:space="preserve">,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
   </si>
   <si>
     <t xml:space="preserve">adverse
@@ -156,9 +162,6 @@
     <t xml:space="preserve">.split(‘,’) </t>
   </si>
   <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
     <t xml:space="preserve">if nuclear station exist: 
 Pickering = 0 / Darlington = 1</t>
   </si>
@@ -178,7 +181,7 @@
     <t xml:space="preserve">facilities </t>
   </si>
   <si>
-    <t xml:space="preserve">Blackstone Park</t>
+    <t xml:space="preserve">Grey Nuns Park</t>
   </si>
   <si>
     <t xml:space="preserve">electric underground=0/overhead=1 </t>
@@ -193,7 +196,7 @@
     <t xml:space="preserve">lease</t>
   </si>
   <si>
-    <t xml:space="preserve">n</t>
+    <t xml:space="preserve">y</t>
   </si>
   <si>
     <t xml:space="preserve">year built</t>
@@ -202,13 +205,13 @@
     <t xml:space="preserve">year_built</t>
   </si>
   <si>
-    <t xml:space="preserve">2015</t>
+    <t xml:space="preserve">1979</t>
   </si>
   <si>
     <t xml:space="preserve">sqft</t>
   </si>
   <si>
-    <t xml:space="preserve">2065</t>
+    <t xml:space="preserve">1103</t>
   </si>
   <si>
     <t xml:space="preserve">extra ownership checkbox
@@ -218,6 +221,9 @@
     <t xml:space="preserve">ownership_restriction_checkbox </t>
   </si>
   <si>
+    <t xml:space="preserve">n</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sales History</t>
   </si>
   <si>
@@ -227,7 +233,7 @@
     <t xml:space="preserve">geo_date</t>
   </si>
   <si>
-    <t xml:space="preserve">2015-02-12</t>
+    <t xml:space="preserve">2012-08-01</t>
   </si>
   <si>
     <t xml:space="preserve">geo name</t>
@@ -236,7 +242,7 @@
     <t xml:space="preserve">geo_name</t>
   </si>
   <si>
-    <t xml:space="preserve">SANDHAUS, NICOLE MARIE; SANDHAUS, LUCAS WILLIAM;</t>
+    <t xml:space="preserve">GUINDON, SOPHIE;</t>
   </si>
   <si>
     <t xml:space="preserve">geo price</t>
@@ -245,7 +251,7 @@
     <t xml:space="preserve">geo_price</t>
   </si>
   <si>
-    <t xml:space="preserve">370788</t>
+    <t xml:space="preserve">202000</t>
   </si>
   <si>
     <t xml:space="preserve">MLS Count? 0/1..</t>
@@ -272,7 +278,7 @@
     <t xml:space="preserve">mls_date</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-08-18</t>
+    <t xml:space="preserve">2021-09-07</t>
   </si>
   <si>
     <t xml:space="preserve">Listing Price</t>
@@ -281,7 +287,7 @@
     <t xml:space="preserve">listing_price</t>
   </si>
   <si>
-    <t xml:space="preserve">799900</t>
+    <t xml:space="preserve">374500</t>
   </si>
   <si>
     <t xml:space="preserve">Sold price/ter/can/sus/cond/exp/act</t>
@@ -290,57 +296,60 @@
     <t xml:space="preserve">sold_price</t>
   </si>
   <si>
+    <t xml:space="preserve">cond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Days on Market</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSA? y/n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSA date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psa_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-08-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSA Buyer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psa_buyer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yohannes Araya Bisrat &amp; Senait Fisseka Chine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSA Seller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psa_seller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicole Marie Sandhaus &amp; Lucas William Sandhaus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSA Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psa_price</t>
+  </si>
+  <si>
     <t xml:space="preserve">850000</t>
   </si>
   <si>
-    <t xml:space="preserve">Days on Market</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSA? y/n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">psa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSA date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">psa_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-08-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSA Buyer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">psa_buyer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yohannes Araya Bisrat &amp; Senait Fisseka Chine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSA Seller</t>
-  </si>
-  <si>
-    <t xml:space="preserve">psa_seller</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nicole Marie Sandhaus &amp; Lucas William Sandhaus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSA Price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">psa_price</t>
-  </si>
-  <si>
     <t xml:space="preserve">Interior layout</t>
   </si>
   <si>
@@ -359,82 +368,79 @@
     <t xml:space="preserve">family/den/laundry/storage</t>
   </si>
   <si>
+    <t xml:space="preserve">0,0,1,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bed/full bath/2-piece bath </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,0,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exterior brick=0/stone=1/vinyl=2/concrete=3/stucco=4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exterior_finish </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First Floor: living+dining+kitchen? (0 or 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">family room/den/office/laundry </t>
+  </si>
+  <si>
+    <t xml:space="preserve">storey_rooms</t>
+  </si>
+  <si>
     <t xml:space="preserve">0,0,0,0</t>
   </si>
   <si>
-    <t xml:space="preserve">bed/full bath/2-piece bath </t>
+    <t xml:space="preserve">master bed/ average bed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ensuite/full/partial bathroom </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,0,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flooring hardwood=0/broadloom=1/laminate=2/ceramic=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior1_floor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Second Floor living+dining+kitchen? (0 or 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">loft/den/office/laundry </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,2</t>
   </si>
   <si>
     <t xml:space="preserve">0,1,0</t>
   </si>
   <si>
-    <t xml:space="preserve">Exterior brick=0/stone=1/vinyl=2/concrete=3/stucco=4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exterior_finish </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First Floor: living+dining+kitchen? (0 or 1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interior1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">family room/den/office/laundry </t>
-  </si>
-  <si>
-    <t xml:space="preserve">storey_rooms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">master bed/ average bed </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ensuite/full/partial bathroom </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,0,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flooring hardwood=0/broadloom=1/laminate=2/ceramic=3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interior1_floor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Second Floor living+dining+kitchen? (0 or 1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interior2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">loft/den/office/laundry </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,1,0,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,1,0</t>
-  </si>
-  <si>
     <t xml:space="preserve">hardwood=0/broadloom=1/laminate=2/ceramic=3</t>
   </si>
   <si>
     <t xml:space="preserve">interior2_floor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,3</t>
   </si>
   <si>
     <t xml:space="preserve">Third Floor loft/den/office/laundry</t>
@@ -880,8 +886,8 @@
   </sheetPr>
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -962,18 +968,18 @@
         <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="25.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1023,18 +1029,18 @@
         <v>29</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1045,49 +1051,46 @@
         <v>34</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" s="1" t="n">
         <v>1</v>
@@ -1095,35 +1098,35 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>0</v>
@@ -1131,275 +1134,275 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D29" s="11" t="n">
-        <v>1256035</v>
+        <v>1260108</v>
       </c>
       <c r="E29" s="8"/>
       <c r="G29" s="12"/>
       <c r="I29" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="13" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="13" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="13" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="13" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="13" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="14" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="14" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="15" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="D43" s="5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="15" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1410,154 +1413,151 @@
     </row>
     <row r="47" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="16" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="16" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="17" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="17" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="17" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="16" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="18" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="19" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="19" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="19" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="19" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="20" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="21" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="21" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="21" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="22" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>12</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/house_info.xlsx
+++ b/house_info.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="141">
   <si>
     <t xml:space="preserve">QUESTION</t>
   </si>
@@ -49,7 +49,7 @@
     <t xml:space="preserve">district</t>
   </si>
   <si>
-    <t xml:space="preserve">Convent Glen South</t>
+    <t xml:space="preserve">Westcliffe Estates</t>
   </si>
   <si>
     <t xml:space="preserve">Free=0/condo=1 </t>
@@ -58,7 +58,7 @@
     <t xml:space="preserve">ownership</t>
   </si>
   <si>
-    <t xml:space="preserve">1</t>
+    <t xml:space="preserve">0</t>
   </si>
   <si>
     <t xml:space="preserve">type Det=0/Semi=1/Town=2/Apt=3/Stack=4 </t>
@@ -67,13 +67,13 @@
     <t xml:space="preserve">type</t>
   </si>
   <si>
+    <t xml:space="preserve">Storey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">storey</t>
+  </si>
+  <si>
     <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Storey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">storey</t>
   </si>
   <si>
     <t xml:space="preserve">For Freehold: 
@@ -115,6 +115,9 @@
     <t xml:space="preserve">street_type </t>
   </si>
   <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Owner=0/Tenant=1/Both=2/vacant=3 </t>
   </si>
   <si>
@@ -130,9 +133,6 @@
     <t xml:space="preserve">parking_type</t>
   </si>
   <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
     <t xml:space="preserve">number of parking space</t>
   </si>
   <si>
@@ -146,9 +146,6 @@
   </si>
   <si>
     <t xml:space="preserve">,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
   </si>
   <si>
     <t xml:space="preserve">adverse
@@ -181,7 +178,7 @@
     <t xml:space="preserve">facilities </t>
   </si>
   <si>
-    <t xml:space="preserve">Grey Nuns Park</t>
+    <t xml:space="preserve">Westcliffe Park, Priam Way Park</t>
   </si>
   <si>
     <t xml:space="preserve">electric underground=0/overhead=1 </t>
@@ -205,13 +202,13 @@
     <t xml:space="preserve">year_built</t>
   </si>
   <si>
-    <t xml:space="preserve">1979</t>
+    <t xml:space="preserve">1975</t>
   </si>
   <si>
     <t xml:space="preserve">sqft</t>
   </si>
   <si>
-    <t xml:space="preserve">1103</t>
+    <t xml:space="preserve">1472</t>
   </si>
   <si>
     <t xml:space="preserve">extra ownership checkbox
@@ -221,9 +218,6 @@
     <t xml:space="preserve">ownership_restriction_checkbox </t>
   </si>
   <si>
-    <t xml:space="preserve">n</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sales History</t>
   </si>
   <si>
@@ -233,7 +227,7 @@
     <t xml:space="preserve">geo_date</t>
   </si>
   <si>
-    <t xml:space="preserve">2012-08-01</t>
+    <t xml:space="preserve">1990-05-31</t>
   </si>
   <si>
     <t xml:space="preserve">geo name</t>
@@ -242,7 +236,7 @@
     <t xml:space="preserve">geo_name</t>
   </si>
   <si>
-    <t xml:space="preserve">GUINDON, SOPHIE;</t>
+    <t xml:space="preserve">GUZZO, MARION ELIZABETH; GUZZO, ROBERT JOSEPH;</t>
   </si>
   <si>
     <t xml:space="preserve">geo price</t>
@@ -251,7 +245,7 @@
     <t xml:space="preserve">geo_price</t>
   </si>
   <si>
-    <t xml:space="preserve">202000</t>
+    <t xml:space="preserve">131000</t>
   </si>
   <si>
     <t xml:space="preserve">MLS Count? 0/1..</t>
@@ -278,7 +272,7 @@
     <t xml:space="preserve">mls_date</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-09-07</t>
+    <t xml:space="preserve">2021-09-28</t>
   </si>
   <si>
     <t xml:space="preserve">Listing Price</t>
@@ -287,7 +281,7 @@
     <t xml:space="preserve">listing_price</t>
   </si>
   <si>
-    <t xml:space="preserve">374500</t>
+    <t xml:space="preserve">649900</t>
   </si>
   <si>
     <t xml:space="preserve">Sold price/ter/can/sus/cond/exp/act</t>
@@ -296,7 +290,7 @@
     <t xml:space="preserve">sold_price</t>
   </si>
   <si>
-    <t xml:space="preserve">cond</t>
+    <t xml:space="preserve">630000</t>
   </si>
   <si>
     <t xml:space="preserve">Days on Market</t>
@@ -305,7 +299,7 @@
     <t xml:space="preserve">dom</t>
   </si>
   <si>
-    <t xml:space="preserve">64</t>
+    <t xml:space="preserve">37</t>
   </si>
   <si>
     <t xml:space="preserve">PSA? y/n</t>
@@ -320,7 +314,7 @@
     <t xml:space="preserve">psa_date</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-08-19</t>
+    <t xml:space="preserve">2021-10-31</t>
   </si>
   <si>
     <t xml:space="preserve">PSA Buyer</t>
@@ -329,7 +323,7 @@
     <t xml:space="preserve">psa_buyer</t>
   </si>
   <si>
-    <t xml:space="preserve">Yohannes Araya Bisrat &amp; Senait Fisseka Chine</t>
+    <t xml:space="preserve">Rita Syal &amp; Ram Syal</t>
   </si>
   <si>
     <t xml:space="preserve">PSA Seller</t>
@@ -338,7 +332,7 @@
     <t xml:space="preserve">psa_seller</t>
   </si>
   <si>
-    <t xml:space="preserve">Nicole Marie Sandhaus &amp; Lucas William Sandhaus</t>
+    <t xml:space="preserve">Marion Elizabeth Guzzo</t>
   </si>
   <si>
     <t xml:space="preserve">PSA Price</t>
@@ -347,9 +341,6 @@
     <t xml:space="preserve">psa_price</t>
   </si>
   <si>
-    <t xml:space="preserve">850000</t>
-  </si>
-  <si>
     <t xml:space="preserve">Interior layout</t>
   </si>
   <si>
@@ -362,19 +353,19 @@
     <t xml:space="preserve">living/dining/kitchen/rec</t>
   </si>
   <si>
-    <t xml:space="preserve">0,0,0,1</t>
+    <t xml:space="preserve">0,0,0,0</t>
   </si>
   <si>
     <t xml:space="preserve">family/den/laundry/storage</t>
   </si>
   <si>
-    <t xml:space="preserve">0,0,1,0</t>
+    <t xml:space="preserve">1,0,1,0</t>
   </si>
   <si>
     <t xml:space="preserve">bed/full bath/2-piece bath </t>
   </si>
   <si>
-    <t xml:space="preserve">1,0,0</t>
+    <t xml:space="preserve">0,0,0</t>
   </si>
   <si>
     <t xml:space="preserve">Exterior brick=0/stone=1/vinyl=2/concrete=3/stucco=4</t>
@@ -398,9 +389,6 @@
     <t xml:space="preserve">storey_rooms</t>
   </si>
   <si>
-    <t xml:space="preserve">0,0,0,0</t>
-  </si>
-  <si>
     <t xml:space="preserve">master bed/ average bed </t>
   </si>
   <si>
@@ -431,10 +419,10 @@
     <t xml:space="preserve">loft/den/office/laundry </t>
   </si>
   <si>
-    <t xml:space="preserve">1,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,1,0</t>
+    <t xml:space="preserve">1,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,1,0</t>
   </si>
   <si>
     <t xml:space="preserve">hardwood=0/broadloom=1/laminate=2/ceramic=3</t>
@@ -472,7 +460,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -499,30 +487,6 @@
       <color rgb="FF666666"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <name val="Verdana"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -634,12 +598,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -647,18 +611,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -667,26 +623,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -695,7 +635,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -703,7 +643,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -711,7 +651,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -719,7 +659,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -886,8 +826,8 @@
   </sheetPr>
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E38" activeCellId="0" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -945,68 +885,68 @@
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="25.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
+    <row r="8" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1014,44 +954,44 @@
       <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1062,11 +1002,11 @@
         <v>37</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1076,21 +1016,21 @@
         <v>40</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="34.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
+      <c r="B15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="E15" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>45</v>
       </c>
       <c r="F15" s="1" t="n">
         <v>1</v>
@@ -1098,35 +1038,35 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="C16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="1" t="s">
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
+      <c r="B17" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="D17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="1" t="s">
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
+      <c r="B18" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>0</v>
@@ -1134,430 +1074,422 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="1" t="s">
+    </row>
+    <row r="22" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
+      <c r="B22" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="D22" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="1" t="s">
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7" t="s">
+      <c r="B25" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="0"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7" t="s">
+      <c r="D25" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B25" s="1" t="s">
+    </row>
+    <row r="26" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="7" t="s">
+      <c r="D26" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="1" t="s">
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="B27" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="7" t="s">
+      <c r="D27" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B27" s="1" t="s">
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="B28" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="10" t="s">
+      <c r="D28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B28" s="1" t="s">
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="B29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>1263684</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="I29" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D29" s="11" t="n">
-        <v>1260108</v>
-      </c>
-      <c r="E29" s="8"/>
-      <c r="G29" s="12"/>
-      <c r="I29" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D38" s="5" t="s">
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="14" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="14" t="s">
+      <c r="D42" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B41" s="1" t="s">
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="D41" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="15" t="s">
+      <c r="B43" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D42" s="5" t="s">
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="9" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="15" t="s">
+      <c r="B44" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D43" s="5" t="s">
+    </row>
+    <row r="47" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="10" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="15" t="s">
+      <c r="B47" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D44" s="5" t="s">
+      <c r="D47" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0"/>
-      <c r="B46" s="0"/>
-      <c r="C46" s="0"/>
-      <c r="D46" s="0"/>
-    </row>
-    <row r="47" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="16" t="s">
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B48" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D48" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="11" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="16" t="s">
+      <c r="B49" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="D49" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D50" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="B49" s="1" t="s">
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="17" t="s">
+      <c r="D56" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="B53" s="8" t="s">
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="D53" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="20" t="s">
+      <c r="D61" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B58" s="1" t="s">
+    </row>
+    <row r="62" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="D58" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="D59" s="5" t="s">
+      <c r="B62" s="4" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1566,7 +1498,7 @@
       <formula>house_info!$D$34="n"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D30:D33">
+  <conditionalFormatting sqref="D31:D33">
     <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>house_info!$D$28="0"</formula>
     </cfRule>

--- a/house_info.xlsx
+++ b/house_info.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="151">
   <si>
     <t xml:space="preserve">QUESTION</t>
   </si>
@@ -49,7 +49,7 @@
     <t xml:space="preserve">district</t>
   </si>
   <si>
-    <t xml:space="preserve">Westcliffe Estates</t>
+    <t xml:space="preserve">Castle Heights/Rideau High</t>
   </si>
   <si>
     <t xml:space="preserve">Free=0/condo=1 </t>
@@ -67,13 +67,13 @@
     <t xml:space="preserve">type</t>
   </si>
   <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Storey</t>
   </si>
   <si>
     <t xml:space="preserve">storey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
   </si>
   <si>
     <t xml:space="preserve">For Freehold: 
@@ -105,7 +105,7 @@
     <t xml:space="preserve">townhouse_location</t>
   </si>
   <si>
-    <t xml:space="preserve">end</t>
+    <t xml:space="preserve">interior</t>
   </si>
   <si>
     <t xml:space="preserve">street type
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t xml:space="preserve">parking_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
   </si>
   <si>
     <t xml:space="preserve">number of parking space</t>
@@ -169,7 +172,7 @@
     <t xml:space="preserve">adverse_range</t>
   </si>
   <si>
-    <t xml:space="preserve">200</t>
+    <t xml:space="preserve">500,5</t>
   </si>
   <si>
     <t xml:space="preserve">Nearby park/school </t>
@@ -178,7 +181,7 @@
     <t xml:space="preserve">facilities </t>
   </si>
   <si>
-    <t xml:space="preserve">Westcliffe Park, Priam Way Park</t>
+    <t xml:space="preserve">Helen Redpath Thompson Park, Our Lady of Moount Carmel School</t>
   </si>
   <si>
     <t xml:space="preserve">electric underground=0/overhead=1 </t>
@@ -193,7 +196,7 @@
     <t xml:space="preserve">lease</t>
   </si>
   <si>
-    <t xml:space="preserve">y</t>
+    <t xml:space="preserve">n</t>
   </si>
   <si>
     <t xml:space="preserve">year built</t>
@@ -202,13 +205,13 @@
     <t xml:space="preserve">year_built</t>
   </si>
   <si>
-    <t xml:space="preserve">1975</t>
+    <t xml:space="preserve">1057</t>
   </si>
   <si>
     <t xml:space="preserve">sqft</t>
   </si>
   <si>
-    <t xml:space="preserve">1472</t>
+    <t xml:space="preserve">1104</t>
   </si>
   <si>
     <t xml:space="preserve">extra ownership checkbox
@@ -227,7 +230,7 @@
     <t xml:space="preserve">geo_date</t>
   </si>
   <si>
-    <t xml:space="preserve">1990-05-31</t>
+    <t xml:space="preserve">2021-08-27</t>
   </si>
   <si>
     <t xml:space="preserve">geo name</t>
@@ -236,7 +239,7 @@
     <t xml:space="preserve">geo_name</t>
   </si>
   <si>
-    <t xml:space="preserve">GUZZO, MARION ELIZABETH; GUZZO, ROBERT JOSEPH;</t>
+    <t xml:space="preserve">JEAN-LOUIS, DEBORAH; STEEL, CORNELIUS MICHAEL DAVID; </t>
   </si>
   <si>
     <t xml:space="preserve">geo price</t>
@@ -245,15 +248,15 @@
     <t xml:space="preserve">geo_price</t>
   </si>
   <si>
-    <t xml:space="preserve">131000</t>
-  </si>
-  <si>
     <t xml:space="preserve">MLS Count? 0/1..</t>
   </si>
   <si>
     <t xml:space="preserve">mls_count</t>
   </si>
   <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
     <t xml:space="preserve">Space for more MLS:</t>
   </si>
   <si>
@@ -272,7 +275,16 @@
     <t xml:space="preserve">mls_date</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-09-28</t>
+    <t xml:space="preserve">2021-10-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-08-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-03-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-10-04</t>
   </si>
   <si>
     <t xml:space="preserve">Listing Price</t>
@@ -281,7 +293,16 @@
     <t xml:space="preserve">listing_price</t>
   </si>
   <si>
-    <t xml:space="preserve">649900</t>
+    <t xml:space="preserve">369900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">389900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">228000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">249900</t>
   </si>
   <si>
     <t xml:space="preserve">Sold price/ter/can/sus/cond/exp/act</t>
@@ -290,57 +311,75 @@
     <t xml:space="preserve">sold_price</t>
   </si>
   <si>
+    <t xml:space="preserve">cond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Days on Market</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSA? y/n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSA date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psa_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-10-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSA Buyer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psa_buyer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rita Syal &amp; Ram Syal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSA Seller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psa_seller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marion Elizabeth Guzzo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSA Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psa_price</t>
+  </si>
+  <si>
     <t xml:space="preserve">630000</t>
   </si>
   <si>
-    <t xml:space="preserve">Days on Market</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSA? y/n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">psa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSA date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">psa_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-10-31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSA Buyer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">psa_buyer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rita Syal &amp; Ram Syal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSA Seller</t>
-  </si>
-  <si>
-    <t xml:space="preserve">psa_seller</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marion Elizabeth Guzzo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSA Price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">psa_price</t>
-  </si>
-  <si>
     <t xml:space="preserve">Interior layout</t>
   </si>
   <si>
@@ -359,48 +398,45 @@
     <t xml:space="preserve">family/den/laundry/storage</t>
   </si>
   <si>
-    <t xml:space="preserve">1,0,1,0</t>
+    <t xml:space="preserve">0,0,1,1</t>
   </si>
   <si>
     <t xml:space="preserve">bed/full bath/2-piece bath </t>
   </si>
   <si>
+    <t xml:space="preserve">1,0,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exterior brick=0/stone=1/vinyl=2/concrete=3/stucco=4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exterior_finish </t>
+  </si>
+  <si>
+    <t xml:space="preserve">First Floor: living+dining+kitchen? (0 or 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">family room/den/office/laundry </t>
+  </si>
+  <si>
+    <t xml:space="preserve">storey_rooms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">master bed/ average bed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ensuite/full/partial bathroom </t>
+  </si>
+  <si>
     <t xml:space="preserve">0,0,0</t>
   </si>
   <si>
-    <t xml:space="preserve">Exterior brick=0/stone=1/vinyl=2/concrete=3/stucco=4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exterior_finish </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First Floor: living+dining+kitchen? (0 or 1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interior1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">family room/den/office/laundry </t>
-  </si>
-  <si>
-    <t xml:space="preserve">storey_rooms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">master bed/ average bed </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ensuite/full/partial bathroom </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,0,1</t>
-  </si>
-  <si>
     <t xml:space="preserve">flooring hardwood=0/broadloom=1/laminate=2/ceramic=3</t>
   </si>
   <si>
@@ -419,10 +455,10 @@
     <t xml:space="preserve">loft/den/office/laundry </t>
   </si>
   <si>
-    <t xml:space="preserve">1,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,1,0</t>
+    <t xml:space="preserve">1,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,1,0</t>
   </si>
   <si>
     <t xml:space="preserve">hardwood=0/broadloom=1/laminate=2/ceramic=3</t>
@@ -437,13 +473,7 @@
     <t xml:space="preserve">interior3</t>
   </si>
   <si>
-    <t xml:space="preserve">1,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,1,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,1,2</t>
+    <t xml:space="preserve">1,0</t>
   </si>
   <si>
     <t xml:space="preserve">Interior upgrades potlight=0/crown mouldings=1 empty = None</t>
@@ -460,7 +490,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -485,6 +515,18 @@
     <font>
       <sz val="10"/>
       <color rgb="FF666666"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="4.5"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="5.5"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -598,7 +640,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -611,6 +653,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -624,6 +670,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -678,7 +728,7 @@
     <cellStyle name="Untitled1" xfId="20"/>
     <cellStyle name="Untitled2" xfId="21"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
     <dxf>
       <font>
         <name val="Arial"/>
@@ -747,6 +797,35 @@
           <bgColor rgb="FF333333"/>
         </patternFill>
       </fill>
+      <border diagonalUp="false" diagonalDown="false">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <diagonal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <color rgb="FF666666"/>
+        <sz val="10"/>
+        <u val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333333"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <border diagonalUp="false" diagonalDown="false">
         <left/>
         <right/>
@@ -826,8 +905,8 @@
   </sheetPr>
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E38" activeCellId="0" sqref="E38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -885,12 +964,12 @@
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -901,35 +980,35 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="25.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -937,13 +1016,13 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -954,7 +1033,7 @@
       <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -962,10 +1041,10 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -973,7 +1052,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -984,512 +1063,556 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="1" t="s">
+    <row r="15" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="34.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="1" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="4" t="s">
+      <c r="A17" s="4" t="s">
         <v>49</v>
       </c>
+      <c r="B17" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="D17" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
-        <v>51</v>
+      <c r="A18" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="1" t="n">
-        <v>0</v>
+        <v>53</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" s="4" t="s">
+      <c r="A22" s="4" t="s">
         <v>62</v>
       </c>
+      <c r="B22" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="D22" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="s">
-        <v>63</v>
+      <c r="A24" s="6" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5" t="s">
-        <v>64</v>
+      <c r="A25" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5" t="s">
         <v>67</v>
       </c>
+    </row>
+    <row r="26" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="B26" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="4" t="s">
         <v>69</v>
       </c>
+      <c r="D26" s="5" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5" t="s">
-        <v>70</v>
+      <c r="A27" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>74</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6" t="s">
-        <v>76</v>
+      <c r="A29" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D29" s="1" t="n">
-        <v>1263684</v>
-      </c>
-      <c r="E29" s="4"/>
+        <v>78</v>
+      </c>
+      <c r="D29" s="8" t="n">
+        <v>1266685</v>
+      </c>
+      <c r="E29" s="8" t="n">
+        <v>1256923</v>
+      </c>
+      <c r="F29" s="8" t="n">
+        <v>1097013</v>
+      </c>
+      <c r="G29" s="8" t="n">
+        <v>1081047</v>
+      </c>
       <c r="I29" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6" t="s">
         <v>79</v>
       </c>
+    </row>
+    <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="7" t="s">
+        <v>80</v>
+      </c>
       <c r="B30" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="6" t="s">
-        <v>85</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="6" t="s">
-        <v>88</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="7" t="s">
+        <v>97</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>90</v>
+        <v>99</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="7" t="s">
-        <v>91</v>
+      <c r="A34" s="9" t="s">
+        <v>103</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="7" t="s">
-        <v>93</v>
+      <c r="A35" s="9" t="s">
+        <v>105</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="7" t="s">
-        <v>96</v>
+      <c r="A36" s="9" t="s">
+        <v>108</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="7" t="s">
-        <v>99</v>
+      <c r="A37" s="9" t="s">
+        <v>111</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="7" t="s">
-        <v>102</v>
+      <c r="A38" s="9" t="s">
+        <v>114</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="8" t="s">
-        <v>104</v>
+      <c r="A40" s="10" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="8" t="s">
-        <v>105</v>
+      <c r="A41" s="10" t="s">
+        <v>118</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="9" t="s">
-        <v>107</v>
+      <c r="A42" s="11" t="s">
+        <v>120</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="9" t="s">
-        <v>109</v>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="11" t="s">
+        <v>122</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="9" t="s">
-        <v>111</v>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="11" t="s">
+        <v>124</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>114</v>
+      <c r="A47" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>117</v>
+      <c r="A48" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="11" t="s">
-        <v>118</v>
+      <c r="A49" s="13" t="s">
+        <v>130</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="11" t="s">
-        <v>120</v>
+      <c r="A50" s="13" t="s">
+        <v>132</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="11" t="s">
-        <v>122</v>
+      <c r="A51" s="13" t="s">
+        <v>134</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="10" t="s">
-        <v>124</v>
+      <c r="A52" s="12" t="s">
+        <v>136</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>128</v>
+      <c r="A53" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>140</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="13" t="s">
-        <v>129</v>
+      <c r="A54" s="15" t="s">
+        <v>141</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="13" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="15" t="s">
+        <v>132</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="13" t="s">
-        <v>122</v>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="13" t="s">
+      <c r="A57" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="14" t="s">
+      <c r="D59" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="15" t="s">
-        <v>122</v>
-      </c>
       <c r="D60" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="15" t="s">
-        <v>132</v>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="17" t="s">
+        <v>144</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>140</v>
+    <row r="62" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1543,6 +1666,11 @@
       <formula>OR(house_info!$D$4&lt;&gt;"0",house_info!$D$5&lt;&gt;"2")</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D30:D33">
+    <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>house_info!$D$28 = "0"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/house_info.xlsx
+++ b/house_info.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="149">
   <si>
     <t xml:space="preserve">QUESTION</t>
   </si>
@@ -49,7 +49,7 @@
     <t xml:space="preserve">district</t>
   </si>
   <si>
-    <t xml:space="preserve">Castle Heights/Rideau High</t>
+    <t xml:space="preserve">Pineview</t>
   </si>
   <si>
     <t xml:space="preserve">Free=0/condo=1 </t>
@@ -67,13 +67,13 @@
     <t xml:space="preserve">type</t>
   </si>
   <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Storey</t>
   </si>
   <si>
     <t xml:space="preserve">storey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
   </si>
   <si>
     <t xml:space="preserve">For Freehold: 
@@ -115,25 +115,16 @@
     <t xml:space="preserve">street_type </t>
   </si>
   <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Owner=0/Tenant=1/Both=2/vacant=3 </t>
   </si>
   <si>
     <t xml:space="preserve">occupy</t>
   </si>
   <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
     <t xml:space="preserve">Attach=0/Builtin=1/Detach=2/Underg=3/Aboveg=4/None+Driveway=5/NoneNone=6 </t>
   </si>
   <si>
     <t xml:space="preserve">parking_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
   </si>
   <si>
     <t xml:space="preserve">number of parking space</t>
@@ -172,16 +163,13 @@
     <t xml:space="preserve">adverse_range</t>
   </si>
   <si>
-    <t xml:space="preserve">500,5</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nearby park/school </t>
   </si>
   <si>
     <t xml:space="preserve">facilities </t>
   </si>
   <si>
-    <t xml:space="preserve">Helen Redpath Thompson Park, Our Lady of Moount Carmel School</t>
+    <t xml:space="preserve">Cyrville Park, Woodburn Park</t>
   </si>
   <si>
     <t xml:space="preserve">electric underground=0/overhead=1 </t>
@@ -205,13 +193,13 @@
     <t xml:space="preserve">year_built</t>
   </si>
   <si>
-    <t xml:space="preserve">1057</t>
+    <t xml:space="preserve">1970</t>
   </si>
   <si>
     <t xml:space="preserve">sqft</t>
   </si>
   <si>
-    <t xml:space="preserve">1104</t>
+    <t xml:space="preserve">1804</t>
   </si>
   <si>
     <t xml:space="preserve">extra ownership checkbox
@@ -230,7 +218,7 @@
     <t xml:space="preserve">geo_date</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-08-27</t>
+    <t xml:space="preserve">2005-01-14</t>
   </si>
   <si>
     <t xml:space="preserve">geo name</t>
@@ -239,7 +227,7 @@
     <t xml:space="preserve">geo_name</t>
   </si>
   <si>
-    <t xml:space="preserve">JEAN-LOUIS, DEBORAH; STEEL, CORNELIUS MICHAEL DAVID; </t>
+    <t xml:space="preserve">ARIAL, SYLVIE;</t>
   </si>
   <si>
     <t xml:space="preserve">geo price</t>
@@ -248,15 +236,15 @@
     <t xml:space="preserve">geo_price</t>
   </si>
   <si>
+    <t xml:space="preserve">240000</t>
+  </si>
+  <si>
     <t xml:space="preserve">MLS Count? 0/1..</t>
   </si>
   <si>
     <t xml:space="preserve">mls_count</t>
   </si>
   <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
     <t xml:space="preserve">Space for more MLS:</t>
   </si>
   <si>
@@ -392,88 +380,94 @@
     <t xml:space="preserve">living/dining/kitchen/rec</t>
   </si>
   <si>
+    <t xml:space="preserve">1,0,1,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">family/den/laundry/storage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,0,0,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bed/full bath/2-piece bath </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,1,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exterior brick=0/stone=1/vinyl=2/concrete=3/stucco=4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exterior_finish </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First Floor: living+dining+kitchen? (0 or 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">family room/den/office/laundry </t>
+  </si>
+  <si>
+    <t xml:space="preserve">storey_rooms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">master bed/ average bed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ensuite/full/partial bathroom </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,1,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flooring hardwood=0/broadloom=1/laminate=2/ceramic=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior1_floor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Second Floor living+dining+kitchen? (0 or 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">loft/den/office/laundry </t>
+  </si>
+  <si>
     <t xml:space="preserve">0,0,0,0</t>
   </si>
   <si>
-    <t xml:space="preserve">family/den/laundry/storage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,0,1,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bed/full bath/2-piece bath </t>
+    <t xml:space="preserve">1,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hardwood=0/broadloom=1/laminate=2/ceramic=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior2_floor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Third Floor loft/den/office/laundry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,0</t>
   </si>
   <si>
     <t xml:space="preserve">1,0,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exterior brick=0/stone=1/vinyl=2/concrete=3/stucco=4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exterior_finish </t>
-  </si>
-  <si>
-    <t xml:space="preserve">First Floor: living+dining+kitchen? (0 or 1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interior1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">family room/den/office/laundry </t>
-  </si>
-  <si>
-    <t xml:space="preserve">storey_rooms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">master bed/ average bed </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ensuite/full/partial bathroom </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,0,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flooring hardwood=0/broadloom=1/laminate=2/ceramic=3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interior1_floor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Second Floor living+dining+kitchen? (0 or 1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interior2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">loft/den/office/laundry </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,1,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hardwood=0/broadloom=1/laminate=2/ceramic=3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interior2_floor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Third Floor loft/den/office/laundry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interior3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,0</t>
   </si>
   <si>
     <t xml:space="preserve">Interior upgrades potlight=0/crown mouldings=1 empty = None</t>
@@ -825,7 +819,6 @@
           <bgColor rgb="FF333333"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <border diagonalUp="false" diagonalDown="false">
         <left/>
         <right/>
@@ -906,7 +899,7 @@
   <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
+      <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -987,18 +980,18 @@
         <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="25.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1048,68 +1041,71 @@
         <v>29</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>12</v>
@@ -1117,142 +1113,142 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D29" s="8" t="n">
         <v>1266685</v>
@@ -1267,271 +1263,271 @@
         <v>1081047</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="I30" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="I31" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="I32" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="I33" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="9" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="9" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="9" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="11" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="12" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>12</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="12" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="13" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="13" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>12</v>
@@ -1539,80 +1535,80 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="15" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="15" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="15" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="16" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="17" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="17" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="17" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="18" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/house_info.xlsx
+++ b/house_info.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="154">
   <si>
     <t xml:space="preserve">QUESTION</t>
   </si>
@@ -40,7 +40,7 @@
     <t xml:space="preserve">city</t>
   </si>
   <si>
-    <t xml:space="preserve">ottawa</t>
+    <t xml:space="preserve">Oshawa</t>
   </si>
   <si>
     <t xml:space="preserve">District</t>
@@ -49,7 +49,7 @@
     <t xml:space="preserve">district</t>
   </si>
   <si>
-    <t xml:space="preserve">Pineview</t>
+    <t xml:space="preserve">Centennial</t>
   </si>
   <si>
     <t xml:space="preserve">Free=0/condo=1 </t>
@@ -169,7 +169,7 @@
     <t xml:space="preserve">facilities </t>
   </si>
   <si>
-    <t xml:space="preserve">Cyrville Park, Woodburn Park</t>
+    <t xml:space="preserve">Somerset Park</t>
   </si>
   <si>
     <t xml:space="preserve">electric underground=0/overhead=1 </t>
@@ -193,13 +193,13 @@
     <t xml:space="preserve">year_built</t>
   </si>
   <si>
-    <t xml:space="preserve">1970</t>
+    <t xml:space="preserve">1954</t>
   </si>
   <si>
     <t xml:space="preserve">sqft</t>
   </si>
   <si>
-    <t xml:space="preserve">1804</t>
+    <t xml:space="preserve">1261</t>
   </si>
   <si>
     <t xml:space="preserve">extra ownership checkbox
@@ -218,7 +218,7 @@
     <t xml:space="preserve">geo_date</t>
   </si>
   <si>
-    <t xml:space="preserve">2005-01-14</t>
+    <t xml:space="preserve">2020-07-03</t>
   </si>
   <si>
     <t xml:space="preserve">geo name</t>
@@ -227,7 +227,7 @@
     <t xml:space="preserve">geo_name</t>
   </si>
   <si>
-    <t xml:space="preserve">ARIAL, SYLVIE;</t>
+    <t xml:space="preserve">DHILLON, RATTANPREET SINGH;</t>
   </si>
   <si>
     <t xml:space="preserve">geo price</t>
@@ -236,7 +236,7 @@
     <t xml:space="preserve">geo_price</t>
   </si>
   <si>
-    <t xml:space="preserve">240000</t>
+    <t xml:space="preserve">515000</t>
   </si>
   <si>
     <t xml:space="preserve">MLS Count? 0/1..</t>
@@ -245,6 +245,9 @@
     <t xml:space="preserve">mls_count</t>
   </si>
   <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Space for more MLS:</t>
   </si>
   <si>
@@ -254,6 +257,15 @@
     <t xml:space="preserve">mls_no</t>
   </si>
   <si>
+    <t xml:space="preserve">E5070491 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E4736230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W4301258 </t>
+  </si>
+  <si>
     <t xml:space="preserve">///only takes 5 mls maximum</t>
   </si>
   <si>
@@ -263,13 +275,13 @@
     <t xml:space="preserve">mls_date</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-10-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-08-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-09</t>
+    <t xml:space="preserve">2020-12-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-11-12</t>
   </si>
   <si>
     <t xml:space="preserve">2017-10-04</t>
@@ -281,13 +293,10 @@
     <t xml:space="preserve">listing_price</t>
   </si>
   <si>
-    <t xml:space="preserve">369900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">389900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">228000</t>
+    <t xml:space="preserve">790000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1259700</t>
   </si>
   <si>
     <t xml:space="preserve">249900</t>
@@ -299,10 +308,10 @@
     <t xml:space="preserve">sold_price</t>
   </si>
   <si>
-    <t xml:space="preserve">cond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">can</t>
+    <t xml:space="preserve">ter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">525000</t>
   </si>
   <si>
     <t xml:space="preserve">exp</t>
@@ -314,13 +323,13 @@
     <t xml:space="preserve">dom</t>
   </si>
   <si>
-    <t xml:space="preserve">27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63</t>
+    <t xml:space="preserve">38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
   </si>
   <si>
     <t xml:space="preserve">92</t>
@@ -338,7 +347,7 @@
     <t xml:space="preserve">psa_date</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-10-31</t>
+    <t xml:space="preserve">2021-10-15</t>
   </si>
   <si>
     <t xml:space="preserve">PSA Buyer</t>
@@ -347,7 +356,7 @@
     <t xml:space="preserve">psa_buyer</t>
   </si>
   <si>
-    <t xml:space="preserve">Rita Syal &amp; Ram Syal</t>
+    <t xml:space="preserve">Max Trefler &amp; Heather Trefler &amp; Wendolyn Trefler &amp; Gerald Trefler</t>
   </si>
   <si>
     <t xml:space="preserve">PSA Seller</t>
@@ -356,7 +365,7 @@
     <t xml:space="preserve">psa_seller</t>
   </si>
   <si>
-    <t xml:space="preserve">Marion Elizabeth Guzzo</t>
+    <t xml:space="preserve">Mark Stratford &amp; Jamie Stratford</t>
   </si>
   <si>
     <t xml:space="preserve">PSA Price</t>
@@ -365,7 +374,7 @@
     <t xml:space="preserve">psa_price</t>
   </si>
   <si>
-    <t xml:space="preserve">630000</t>
+    <t xml:space="preserve">1400000</t>
   </si>
   <si>
     <t xml:space="preserve">Interior layout</t>
@@ -380,19 +389,19 @@
     <t xml:space="preserve">living/dining/kitchen/rec</t>
   </si>
   <si>
-    <t xml:space="preserve">1,0,1,0</t>
+    <t xml:space="preserve">0,0,0,1</t>
   </si>
   <si>
     <t xml:space="preserve">family/den/laundry/storage</t>
   </si>
   <si>
-    <t xml:space="preserve">0,0,0,1</t>
+    <t xml:space="preserve">0,0,1,0</t>
   </si>
   <si>
     <t xml:space="preserve">bed/full bath/2-piece bath </t>
   </si>
   <si>
-    <t xml:space="preserve">2,1,1</t>
+    <t xml:space="preserve">1,1,0</t>
   </si>
   <si>
     <t xml:space="preserve">Exterior brick=0/stone=1/vinyl=2/concrete=3/stucco=4</t>
@@ -401,9 +410,6 @@
     <t xml:space="preserve">exterior_finish </t>
   </si>
   <si>
-    <t xml:space="preserve">0,1</t>
-  </si>
-  <si>
     <t xml:space="preserve">First Floor: living+dining+kitchen? (0 or 1)</t>
   </si>
   <si>
@@ -416,10 +422,13 @@
     <t xml:space="preserve">storey_rooms</t>
   </si>
   <si>
+    <t xml:space="preserve">0,0,0,0</t>
+  </si>
+  <si>
     <t xml:space="preserve">master bed/ average bed </t>
   </si>
   <si>
-    <t xml:space="preserve">1,1</t>
+    <t xml:space="preserve">1,2</t>
   </si>
   <si>
     <t xml:space="preserve">ensuite/full/partial bathroom </t>
@@ -446,16 +455,22 @@
     <t xml:space="preserve">loft/den/office/laundry </t>
   </si>
   <si>
-    <t xml:space="preserve">0,0,0,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,2</t>
+    <t xml:space="preserve">1,0,0,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,1,0</t>
   </si>
   <si>
     <t xml:space="preserve">hardwood=0/broadloom=1/laminate=2/ceramic=3</t>
   </si>
   <si>
     <t xml:space="preserve">interior2_floor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,3</t>
   </si>
   <si>
     <t xml:space="preserve">Third Floor loft/den/office/laundry</t>
@@ -634,7 +649,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -665,6 +680,10 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -898,8 +917,8 @@
   </sheetPr>
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1052,7 +1071,7 @@
         <v>31</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1101,9 +1120,6 @@
       <c r="C15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="E15" s="5" t="s">
         <v>42</v>
       </c>
@@ -1237,378 +1253,378 @@
         <v>71</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D29" s="8" t="n">
-        <v>1266685</v>
-      </c>
-      <c r="E29" s="8" t="n">
-        <v>1256923</v>
-      </c>
-      <c r="F29" s="8" t="n">
-        <v>1097013</v>
-      </c>
-      <c r="G29" s="8" t="n">
+        <v>75</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G29" s="9" t="n">
         <v>1081047</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E30" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="9" t="s">
-        <v>99</v>
+      <c r="A34" s="10" t="s">
+        <v>102</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="9" t="s">
-        <v>101</v>
+    <row r="35" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="9" t="s">
-        <v>104</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="10" t="s">
+        <v>107</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="9" t="s">
-        <v>107</v>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="10" t="s">
+        <v>110</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="9" t="s">
-        <v>110</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="10" t="s">
+        <v>113</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="10" t="s">
-        <v>113</v>
+      <c r="A40" s="11" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="10" t="s">
-        <v>114</v>
+      <c r="A41" s="11" t="s">
+        <v>117</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="11" t="s">
-        <v>116</v>
+      <c r="A42" s="12" t="s">
+        <v>119</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="D43" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="11" t="s">
-        <v>120</v>
+      <c r="A44" s="12" t="s">
+        <v>123</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="12" t="s">
-        <v>122</v>
+      <c r="A47" s="13" t="s">
+        <v>125</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="12" t="s">
-        <v>125</v>
+      <c r="A48" s="13" t="s">
+        <v>127</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="13" t="s">
-        <v>127</v>
+      <c r="A49" s="14" t="s">
+        <v>129</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="13" t="s">
-        <v>129</v>
+      <c r="A50" s="14" t="s">
+        <v>132</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="13" t="s">
-        <v>131</v>
+      <c r="A51" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="12" t="s">
-        <v>133</v>
+      <c r="A52" s="13" t="s">
+        <v>136</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="14" t="s">
-        <v>136</v>
+      <c r="A53" s="15" t="s">
+        <v>139</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="15" t="s">
+    <row r="54" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>135</v>
-      </c>
     </row>
     <row r="62" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="18" t="s">
-        <v>147</v>
+      <c r="A62" s="19" t="s">
+        <v>152</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/house_info.xlsx
+++ b/house_info.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="155">
   <si>
     <t xml:space="preserve">QUESTION</t>
   </si>
@@ -40,7 +40,7 @@
     <t xml:space="preserve">city</t>
   </si>
   <si>
-    <t xml:space="preserve">Oshawa</t>
+    <t xml:space="preserve">Toronto</t>
   </si>
   <si>
     <t xml:space="preserve">District</t>
@@ -49,7 +49,7 @@
     <t xml:space="preserve">district</t>
   </si>
   <si>
-    <t xml:space="preserve">Centennial</t>
+    <t xml:space="preserve">Willowdale East</t>
   </si>
   <si>
     <t xml:space="preserve">Free=0/condo=1 </t>
@@ -73,7 +73,7 @@
     <t xml:space="preserve">storey</t>
   </si>
   <si>
-    <t xml:space="preserve">1</t>
+    <t xml:space="preserve">2</t>
   </si>
   <si>
     <t xml:space="preserve">For Freehold: 
@@ -86,7 +86,7 @@
     <t xml:space="preserve">.split(',') </t>
   </si>
   <si>
-    <t xml:space="preserve">rectangular,interior,other residential lots</t>
+    <t xml:space="preserve">rectangular,interior,a park</t>
   </si>
   <si>
     <t xml:space="preserve">For Condo: 
@@ -115,10 +115,16 @@
     <t xml:space="preserve">street_type </t>
   </si>
   <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Owner=0/Tenant=1/Both=2/vacant=3 </t>
   </si>
   <si>
     <t xml:space="preserve">occupy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
   </si>
   <si>
     <t xml:space="preserve">Attach=0/Builtin=1/Detach=2/Underg=3/Aboveg=4/None+Driveway=5/NoneNone=6 </t>
@@ -169,7 +175,7 @@
     <t xml:space="preserve">facilities </t>
   </si>
   <si>
-    <t xml:space="preserve">Somerset Park</t>
+    <t xml:space="preserve">Sheppard East Park</t>
   </si>
   <si>
     <t xml:space="preserve">electric underground=0/overhead=1 </t>
@@ -193,13 +199,13 @@
     <t xml:space="preserve">year_built</t>
   </si>
   <si>
-    <t xml:space="preserve">1954</t>
+    <t xml:space="preserve">2016</t>
   </si>
   <si>
     <t xml:space="preserve">sqft</t>
   </si>
   <si>
-    <t xml:space="preserve">1261</t>
+    <t xml:space="preserve">3685</t>
   </si>
   <si>
     <t xml:space="preserve">extra ownership checkbox
@@ -218,7 +224,7 @@
     <t xml:space="preserve">geo_date</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-07-03</t>
+    <t xml:space="preserve">2013-02-28</t>
   </si>
   <si>
     <t xml:space="preserve">geo name</t>
@@ -227,7 +233,7 @@
     <t xml:space="preserve">geo_name</t>
   </si>
   <si>
-    <t xml:space="preserve">DHILLON, RATTANPREET SINGH;</t>
+    <t xml:space="preserve">WANG, BINGNING; SHANG, XU XIN;</t>
   </si>
   <si>
     <t xml:space="preserve">geo price</t>
@@ -236,7 +242,7 @@
     <t xml:space="preserve">geo_price</t>
   </si>
   <si>
-    <t xml:space="preserve">515000</t>
+    <t xml:space="preserve">817000</t>
   </si>
   <si>
     <t xml:space="preserve">MLS Count? 0/1..</t>
@@ -245,9 +251,6 @@
     <t xml:space="preserve">mls_count</t>
   </si>
   <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Space for more MLS:</t>
   </si>
   <si>
@@ -257,10 +260,10 @@
     <t xml:space="preserve">mls_no</t>
   </si>
   <si>
-    <t xml:space="preserve">E5070491 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E4736230</t>
+    <t xml:space="preserve">C5376596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C5412187</t>
   </si>
   <si>
     <t xml:space="preserve">W4301258 </t>
@@ -275,10 +278,10 @@
     <t xml:space="preserve">mls_date</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-12-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-04-02</t>
+    <t xml:space="preserve">2021-09-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-10-25</t>
   </si>
   <si>
     <t xml:space="preserve">2018-11-12</t>
@@ -293,7 +296,10 @@
     <t xml:space="preserve">listing_price</t>
   </si>
   <si>
-    <t xml:space="preserve">790000</t>
+    <t xml:space="preserve">3680000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3450000</t>
   </si>
   <si>
     <t xml:space="preserve">1259700</t>
@@ -311,7 +317,7 @@
     <t xml:space="preserve">ter</t>
   </si>
   <si>
-    <t xml:space="preserve">525000</t>
+    <t xml:space="preserve">2988000</t>
   </si>
   <si>
     <t xml:space="preserve">exp</t>
@@ -323,10 +329,10 @@
     <t xml:space="preserve">dom</t>
   </si>
   <si>
-    <t xml:space="preserve">38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25</t>
+    <t xml:space="preserve">34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
   </si>
   <si>
     <t xml:space="preserve">14</t>
@@ -341,13 +347,16 @@
     <t xml:space="preserve">psa</t>
   </si>
   <si>
+    <t xml:space="preserve">y</t>
+  </si>
+  <si>
     <t xml:space="preserve">PSA date</t>
   </si>
   <si>
     <t xml:space="preserve">psa_date</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-10-15</t>
+    <t xml:space="preserve">2021-11-05</t>
   </si>
   <si>
     <t xml:space="preserve">PSA Buyer</t>
@@ -356,7 +365,7 @@
     <t xml:space="preserve">psa_buyer</t>
   </si>
   <si>
-    <t xml:space="preserve">Max Trefler &amp; Heather Trefler &amp; Wendolyn Trefler &amp; Gerald Trefler</t>
+    <t xml:space="preserve">Lena Mengyi Zhao &amp; Octavian Sichin</t>
   </si>
   <si>
     <t xml:space="preserve">PSA Seller</t>
@@ -365,7 +374,7 @@
     <t xml:space="preserve">psa_seller</t>
   </si>
   <si>
-    <t xml:space="preserve">Mark Stratford &amp; Jamie Stratford</t>
+    <t xml:space="preserve">Bingning Wang &amp; Xuxin Shang</t>
   </si>
   <si>
     <t xml:space="preserve">PSA Price</t>
@@ -374,9 +383,6 @@
     <t xml:space="preserve">psa_price</t>
   </si>
   <si>
-    <t xml:space="preserve">1400000</t>
-  </si>
-  <si>
     <t xml:space="preserve">Interior layout</t>
   </si>
   <si>
@@ -422,43 +428,43 @@
     <t xml:space="preserve">storey_rooms</t>
   </si>
   <si>
+    <t xml:space="preserve">1,0,1,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">master bed/ average bed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ensuite/full/partial bathroom </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,0,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flooring hardwood=0/broadloom=1/laminate=2/ceramic=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior1_floor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Second Floor living+dining+kitchen? (0 or 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">loft/den/office/laundry </t>
+  </si>
+  <si>
     <t xml:space="preserve">0,0,0,0</t>
   </si>
   <si>
-    <t xml:space="preserve">master bed/ average bed </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ensuite/full/partial bathroom </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,1,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flooring hardwood=0/broadloom=1/laminate=2/ceramic=3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interior1_floor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Second Floor living+dining+kitchen? (0 or 1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interior2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">loft/den/office/laundry </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,0,0,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,4</t>
+    <t xml:space="preserve">1,3</t>
   </si>
   <si>
     <t xml:space="preserve">2,1,0</t>
@@ -468,9 +474,6 @@
   </si>
   <si>
     <t xml:space="preserve">interior2_floor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,3</t>
   </si>
   <si>
     <t xml:space="preserve">Third Floor loft/den/office/laundry</t>
@@ -917,8 +920,8 @@
   </sheetPr>
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D46" activeCellId="0" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1060,37 +1063,37 @@
         <v>29</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>17</v>
@@ -1098,13 +1101,13 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>12</v>
@@ -1112,16 +1115,16 @@
     </row>
     <row r="15" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>12</v>
@@ -1129,317 +1132,317 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="D16" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G29" s="9" t="n">
         <v>1081047</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="10" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="10" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="10" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="10" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="11" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="11" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>12</v>
@@ -1447,43 +1450,43 @@
     </row>
     <row r="42" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="12" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="12" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="13" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>12</v>
@@ -1491,59 +1494,59 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="13" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="14" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="14" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="14" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="13" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="15" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>12</v>
@@ -1551,80 +1554,83 @@
     </row>
     <row r="54" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="16" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="16" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="16" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="16" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="17" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="18" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="18" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="18" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="19" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/house_info.xlsx
+++ b/house_info.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="154">
   <si>
     <t xml:space="preserve">QUESTION</t>
   </si>
@@ -40,7 +40,7 @@
     <t xml:space="preserve">city</t>
   </si>
   <si>
-    <t xml:space="preserve">Toronto</t>
+    <t xml:space="preserve">Ottawa</t>
   </si>
   <si>
     <t xml:space="preserve">District</t>
@@ -49,7 +49,7 @@
     <t xml:space="preserve">district</t>
   </si>
   <si>
-    <t xml:space="preserve">Willowdale East</t>
+    <t xml:space="preserve">Stittsville</t>
   </si>
   <si>
     <t xml:space="preserve">Free=0/condo=1 </t>
@@ -86,7 +86,7 @@
     <t xml:space="preserve">.split(',') </t>
   </si>
   <si>
-    <t xml:space="preserve">rectangular,interior,a park</t>
+    <t xml:space="preserve">irregular,interior,a greenspace</t>
   </si>
   <si>
     <t xml:space="preserve">For Condo: 
@@ -96,7 +96,7 @@
     <t xml:space="preserve">condo_location</t>
   </si>
   <si>
-    <t xml:space="preserve">northeast,Jeanne D’Arc Boulvevard South, St Joseph Boulevard,interior</t>
+    <t xml:space="preserve">southwest,Jeanne D’Arc Boulvevard North, Champlain Street,corner</t>
   </si>
   <si>
     <t xml:space="preserve">Townhouse location end/interior</t>
@@ -122,9 +122,6 @@
   </si>
   <si>
     <t xml:space="preserve">occupy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
   </si>
   <si>
     <t xml:space="preserve">Attach=0/Builtin=1/Detach=2/Underg=3/Aboveg=4/None+Driveway=5/NoneNone=6 </t>
@@ -159,6 +156,9 @@
     <t xml:space="preserve">.split(‘,’) </t>
   </si>
   <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
     <t xml:space="preserve">if nuclear station exist: 
 Pickering = 0 / Darlington = 1</t>
   </si>
@@ -175,7 +175,7 @@
     <t xml:space="preserve">facilities </t>
   </si>
   <si>
-    <t xml:space="preserve">Sheppard East Park</t>
+    <t xml:space="preserve">Paul Lindsay Park</t>
   </si>
   <si>
     <t xml:space="preserve">electric underground=0/overhead=1 </t>
@@ -199,13 +199,13 @@
     <t xml:space="preserve">year_built</t>
   </si>
   <si>
-    <t xml:space="preserve">2016</t>
+    <t xml:space="preserve">1987</t>
   </si>
   <si>
     <t xml:space="preserve">sqft</t>
   </si>
   <si>
-    <t xml:space="preserve">3685</t>
+    <t xml:space="preserve">3068</t>
   </si>
   <si>
     <t xml:space="preserve">extra ownership checkbox
@@ -215,6 +215,9 @@
     <t xml:space="preserve">ownership_restriction_checkbox </t>
   </si>
   <si>
+    <t xml:space="preserve">y</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sales History</t>
   </si>
   <si>
@@ -224,7 +227,7 @@
     <t xml:space="preserve">geo_date</t>
   </si>
   <si>
-    <t xml:space="preserve">2013-02-28</t>
+    <t xml:space="preserve">1997-03-07</t>
   </si>
   <si>
     <t xml:space="preserve">geo name</t>
@@ -233,7 +236,7 @@
     <t xml:space="preserve">geo_name</t>
   </si>
   <si>
-    <t xml:space="preserve">WANG, BINGNING; SHANG, XU XIN;</t>
+    <t xml:space="preserve">KEDROSKY, KAREN ELIZABETH; KEDROSKY, ROBERT GREGORY;</t>
   </si>
   <si>
     <t xml:space="preserve">geo price</t>
@@ -242,7 +245,7 @@
     <t xml:space="preserve">geo_price</t>
   </si>
   <si>
-    <t xml:space="preserve">817000</t>
+    <t xml:space="preserve">263000</t>
   </si>
   <si>
     <t xml:space="preserve">MLS Count? 0/1..</t>
@@ -260,9 +263,6 @@
     <t xml:space="preserve">mls_no</t>
   </si>
   <si>
-    <t xml:space="preserve">C5376596</t>
-  </si>
-  <si>
     <t xml:space="preserve">C5412187</t>
   </si>
   <si>
@@ -278,7 +278,7 @@
     <t xml:space="preserve">mls_date</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-09-20</t>
+    <t xml:space="preserve">2021-11-09</t>
   </si>
   <si>
     <t xml:space="preserve">2021-10-25</t>
@@ -296,7 +296,7 @@
     <t xml:space="preserve">listing_price</t>
   </si>
   <si>
-    <t xml:space="preserve">3680000</t>
+    <t xml:space="preserve">625000</t>
   </si>
   <si>
     <t xml:space="preserve">3450000</t>
@@ -314,12 +314,15 @@
     <t xml:space="preserve">sold_price</t>
   </si>
   <si>
+    <t xml:space="preserve">647000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2988000</t>
+  </si>
+  <si>
     <t xml:space="preserve">ter</t>
   </si>
   <si>
-    <t xml:space="preserve">2988000</t>
-  </si>
-  <si>
     <t xml:space="preserve">exp</t>
   </si>
   <si>
@@ -329,7 +332,7 @@
     <t xml:space="preserve">dom</t>
   </si>
   <si>
-    <t xml:space="preserve">34</t>
+    <t xml:space="preserve">3</t>
   </si>
   <si>
     <t xml:space="preserve">11</t>
@@ -347,25 +350,19 @@
     <t xml:space="preserve">psa</t>
   </si>
   <si>
-    <t xml:space="preserve">y</t>
-  </si>
-  <si>
     <t xml:space="preserve">PSA date</t>
   </si>
   <si>
     <t xml:space="preserve">psa_date</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-11-05</t>
-  </si>
-  <si>
     <t xml:space="preserve">PSA Buyer</t>
   </si>
   <si>
     <t xml:space="preserve">psa_buyer</t>
   </si>
   <si>
-    <t xml:space="preserve">Lena Mengyi Zhao &amp; Octavian Sichin</t>
+    <t xml:space="preserve">Gwenning Nicolas B Poirier &amp; Katherine Mary Poirier</t>
   </si>
   <si>
     <t xml:space="preserve">PSA Seller</t>
@@ -374,7 +371,7 @@
     <t xml:space="preserve">psa_seller</t>
   </si>
   <si>
-    <t xml:space="preserve">Bingning Wang &amp; Xuxin Shang</t>
+    <t xml:space="preserve">Ashley Beland &amp; Jason Beland</t>
   </si>
   <si>
     <t xml:space="preserve">PSA Price</t>
@@ -383,6 +380,9 @@
     <t xml:space="preserve">psa_price</t>
   </si>
   <si>
+    <t xml:space="preserve">610000</t>
+  </si>
+  <si>
     <t xml:space="preserve">Interior layout</t>
   </si>
   <si>
@@ -401,97 +401,94 @@
     <t xml:space="preserve">family/den/laundry/storage</t>
   </si>
   <si>
-    <t xml:space="preserve">0,0,1,0</t>
-  </si>
-  <si>
     <t xml:space="preserve">bed/full bath/2-piece bath </t>
   </si>
   <si>
+    <t xml:space="preserve">0,0,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exterior brick=0/stone=1/vinyl=2/concrete=3/stucco=4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exterior_finish </t>
+  </si>
+  <si>
+    <t xml:space="preserve">First Floor: living+dining+kitchen? (0 or 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">family room/den/office/laundry </t>
+  </si>
+  <si>
+    <t xml:space="preserve">storey_rooms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,0,0,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">master bed/ average bed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ensuite/full/partial bathroom </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,0,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flooring hardwood=0/broadloom=1/laminate=2/ceramic=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior1_floor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Second Floor living+dining+kitchen? (0 or 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">loft/den/office/laundry </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,3</t>
+  </si>
+  <si>
     <t xml:space="preserve">1,1,0</t>
   </si>
   <si>
-    <t xml:space="preserve">Exterior brick=0/stone=1/vinyl=2/concrete=3/stucco=4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exterior_finish </t>
-  </si>
-  <si>
-    <t xml:space="preserve">First Floor: living+dining+kitchen? (0 or 1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interior1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">family room/den/office/laundry </t>
-  </si>
-  <si>
-    <t xml:space="preserve">storey_rooms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,0,1,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">master bed/ average bed </t>
+    <t xml:space="preserve">hardwood=0/broadloom=1/laminate=2/ceramic=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior2_floor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Third Floor loft/den/office/laundry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,0,0,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interior upgrades potlight=0/crown mouldings=1 empty = None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior_finishes </t>
   </si>
   <si>
     <t xml:space="preserve">0,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ensuite/full/partial bathroom </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,0,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flooring hardwood=0/broadloom=1/laminate=2/ceramic=3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interior1_floor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Second Floor living+dining+kitchen? (0 or 1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interior2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">loft/den/office/laundry </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,0,0,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,1,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hardwood=0/broadloom=1/laminate=2/ceramic=3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interior2_floor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Third Floor loft/den/office/laundry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interior3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,0,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interior upgrades potlight=0/crown mouldings=1 empty = None</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interior_finishes </t>
   </si>
 </sst>
 </file>
@@ -502,7 +499,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -532,7 +529,13 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="4.5"/>
+      <sz val="6"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -652,7 +655,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -685,11 +688,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -920,8 +927,8 @@
   </sheetPr>
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D46" activeCellId="0" sqref="D46"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1030,7 +1037,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
@@ -1074,26 +1081,26 @@
         <v>32</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>17</v>
@@ -1101,13 +1108,13 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>12</v>
@@ -1115,12 +1122,15 @@
     </row>
     <row r="15" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E15" s="5" t="s">
@@ -1138,13 +1148,13 @@
         <v>46</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
         <v>47</v>
       </c>
@@ -1163,7 +1173,7 @@
         <v>51</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1207,78 +1217,78 @@
         <v>61</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D29" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="D29" s="8" t="n">
+        <v>1270103</v>
+      </c>
+      <c r="E29" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="G29" s="9" t="n">
+      <c r="G29" s="10" t="n">
         <v>1081047</v>
       </c>
       <c r="I29" s="1" t="s">
@@ -1345,10 +1355,10 @@
         <v>96</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>80</v>
@@ -1356,89 +1366,89 @@
     </row>
     <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="10" t="s">
-        <v>104</v>
+      <c r="A34" s="11" t="s">
+        <v>105</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>106</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="11" t="s">
         <v>107</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>108</v>
       </c>
       <c r="D35" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="11" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="10" t="s">
+      <c r="B36" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D36" s="1" t="s">
+    </row>
+    <row r="37" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="11" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="10" t="s">
+      <c r="B37" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D37" s="1" t="s">
+    </row>
+    <row r="38" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="11" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="10" t="s">
+      <c r="B38" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>90</v>
-      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="12" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="12" t="s">
         <v>119</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -1449,7 +1459,7 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="13" t="s">
         <v>121</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -1460,177 +1470,177 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="13" t="s">
         <v>123</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>120</v>
       </c>
       <c r="D43" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="13" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="12" t="s">
-        <v>125</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>120</v>
       </c>
       <c r="D44" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="14" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="13" t="s">
+      <c r="B47" s="5" t="s">
         <v>127</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>128</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>129</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>130</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D49" s="1" t="s">
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="15" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="14" t="s">
+      <c r="D50" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D50" s="1" t="s">
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="15" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="14" t="s">
+      <c r="D51" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D51" s="1" t="s">
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="14" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="13" t="s">
+      <c r="B52" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D52" s="1" t="s">
+    </row>
+    <row r="53" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="16" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="15" t="s">
+      <c r="B53" s="5" t="s">
         <v>141</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>142</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="16" t="s">
+      <c r="A54" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D54" s="1" t="s">
+    </row>
+    <row r="56" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D55" s="1" t="s">
+    <row r="57" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="17" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="56" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D56" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="57" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="16" t="s">
+      <c r="D57" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="17" t="s">
+      <c r="D58" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B58" s="1" t="s">
+    </row>
+    <row r="59" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D58" s="1" t="s">
+    </row>
+    <row r="60" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="D59" s="1" t="s">
+    <row r="61" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="20" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="60" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="D60" s="1" t="s">
+      <c r="B62" s="5" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="61" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="19" t="s">
+      <c r="D62" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/house_info.xlsx
+++ b/house_info.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="155">
   <si>
     <t xml:space="preserve">QUESTION</t>
   </si>
@@ -49,7 +49,7 @@
     <t xml:space="preserve">district</t>
   </si>
   <si>
-    <t xml:space="preserve">Stittsville</t>
+    <t xml:space="preserve">?</t>
   </si>
   <si>
     <t xml:space="preserve">Free=0/condo=1 </t>
@@ -67,13 +67,13 @@
     <t xml:space="preserve">type</t>
   </si>
   <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Storey</t>
   </si>
   <si>
     <t xml:space="preserve">storey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
   </si>
   <si>
     <t xml:space="preserve">For Freehold: 
@@ -86,7 +86,7 @@
     <t xml:space="preserve">.split(',') </t>
   </si>
   <si>
-    <t xml:space="preserve">irregular,interior,a greenspace</t>
+    <t xml:space="preserve">rectangular,interior,other residential lots</t>
   </si>
   <si>
     <t xml:space="preserve">For Condo: 
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t xml:space="preserve">occupy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
   </si>
   <si>
     <t xml:space="preserve">Attach=0/Builtin=1/Detach=2/Underg=3/Aboveg=4/None+Driveway=5/NoneNone=6 </t>
@@ -156,9 +159,6 @@
     <t xml:space="preserve">.split(‘,’) </t>
   </si>
   <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
     <t xml:space="preserve">if nuclear station exist: 
 Pickering = 0 / Darlington = 1</t>
   </si>
@@ -175,7 +175,7 @@
     <t xml:space="preserve">facilities </t>
   </si>
   <si>
-    <t xml:space="preserve">Paul Lindsay Park</t>
+    <t xml:space="preserve">Guinness Park</t>
   </si>
   <si>
     <t xml:space="preserve">electric underground=0/overhead=1 </t>
@@ -199,13 +199,13 @@
     <t xml:space="preserve">year_built</t>
   </si>
   <si>
-    <t xml:space="preserve">1987</t>
+    <t xml:space="preserve">2021</t>
   </si>
   <si>
     <t xml:space="preserve">sqft</t>
   </si>
   <si>
-    <t xml:space="preserve">3068</t>
+    <t xml:space="preserve">1276</t>
   </si>
   <si>
     <t xml:space="preserve">extra ownership checkbox
@@ -332,9 +332,6 @@
     <t xml:space="preserve">dom</t>
   </si>
   <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
     <t xml:space="preserve">11</t>
   </si>
   <si>
@@ -395,12 +392,15 @@
     <t xml:space="preserve">living/dining/kitchen/rec</t>
   </si>
   <si>
-    <t xml:space="preserve">0,0,0,1</t>
+    <t xml:space="preserve">0,0,0,0</t>
   </si>
   <si>
     <t xml:space="preserve">family/den/laundry/storage</t>
   </si>
   <si>
+    <t xml:space="preserve">1,0,1,0</t>
+  </si>
+  <si>
     <t xml:space="preserve">bed/full bath/2-piece bath </t>
   </si>
   <si>
@@ -413,6 +413,9 @@
     <t xml:space="preserve">exterior_finish </t>
   </si>
   <si>
+    <t xml:space="preserve">0,2</t>
+  </si>
+  <si>
     <t xml:space="preserve">First Floor: living+dining+kitchen? (0 or 1)</t>
   </si>
   <si>
@@ -458,37 +461,37 @@
     <t xml:space="preserve">loft/den/office/laundry </t>
   </si>
   <si>
+    <t xml:space="preserve">1,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,1,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hardwood=0/broadloom=1/laminate=2/ceramic=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior2_floor</t>
+  </si>
+  <si>
     <t xml:space="preserve">1,3</t>
   </si>
   <si>
+    <t xml:space="preserve">Third Floor loft/den/office/laundry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,1</t>
+  </si>
+  <si>
     <t xml:space="preserve">1,1,0</t>
   </si>
   <si>
-    <t xml:space="preserve">hardwood=0/broadloom=1/laminate=2/ceramic=3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interior2_floor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Third Floor loft/den/office/laundry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interior3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,0,0,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Interior upgrades potlight=0/crown mouldings=1 empty = None</t>
   </si>
   <si>
     <t xml:space="preserve">interior_finishes </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,1</t>
   </si>
 </sst>
 </file>
@@ -927,8 +930,8 @@
   </sheetPr>
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D54" activeCellId="0" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1009,18 +1012,18 @@
         <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="25.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1081,15 +1084,15 @@
         <v>32</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>12</v>
@@ -1097,24 +1100,24 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>12</v>
@@ -1122,15 +1125,12 @@
     </row>
     <row r="15" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E15" s="5" t="s">
@@ -1148,7 +1148,7 @@
         <v>46</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>30</v>
@@ -1372,16 +1372,16 @@
         <v>100</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>80</v>
@@ -1389,10 +1389,10 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>54</v>
@@ -1400,10 +1400,10 @@
     </row>
     <row r="35" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>83</v>
@@ -1411,48 +1411,48 @@
     </row>
     <row r="36" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>12</v>
@@ -1460,24 +1460,24 @@
     </row>
     <row r="42" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1485,7 +1485,7 @@
         <v>124</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>125</v>
@@ -1499,15 +1499,15 @@
         <v>127</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>30</v>
@@ -1515,48 +1515,48 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="15" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>12</v>
@@ -1564,83 +1564,80 @@
     </row>
     <row r="54" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="17" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="17" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="17" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="18" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="19" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="19" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="19" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="20" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/house_info.xlsx
+++ b/house_info.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="151">
   <si>
     <t xml:space="preserve">QUESTION</t>
   </si>
@@ -49,7 +49,7 @@
     <t xml:space="preserve">district</t>
   </si>
   <si>
-    <t xml:space="preserve">?</t>
+    <t xml:space="preserve">Abbottsville Crossing</t>
   </si>
   <si>
     <t xml:space="preserve">Free=0/condo=1 </t>
@@ -67,13 +67,13 @@
     <t xml:space="preserve">type</t>
   </si>
   <si>
+    <t xml:space="preserve">Storey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">storey</t>
+  </si>
+  <si>
     <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Storey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">storey</t>
   </si>
   <si>
     <t xml:space="preserve">For Freehold: 
@@ -86,6 +86,9 @@
     <t xml:space="preserve">.split(',') </t>
   </si>
   <si>
+    <t xml:space="preserve">irregular,interior,other residential lots</t>
+  </si>
+  <si>
     <t xml:space="preserve">rectangular,interior,other residential lots</t>
   </si>
   <si>
@@ -105,7 +108,7 @@
     <t xml:space="preserve">townhouse_location</t>
   </si>
   <si>
-    <t xml:space="preserve">interior</t>
+    <t xml:space="preserve">end</t>
   </si>
   <si>
     <t xml:space="preserve">street type
@@ -169,13 +172,16 @@
     <t xml:space="preserve">adverse_range</t>
   </si>
   <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nearby park/school </t>
   </si>
   <si>
     <t xml:space="preserve">facilities </t>
   </si>
   <si>
-    <t xml:space="preserve">Guinness Park</t>
+    <t xml:space="preserve">Abbottsville Trail, Bradley Commons Park</t>
   </si>
   <si>
     <t xml:space="preserve">electric underground=0/overhead=1 </t>
@@ -199,13 +205,13 @@
     <t xml:space="preserve">year_built</t>
   </si>
   <si>
-    <t xml:space="preserve">2021</t>
+    <t xml:space="preserve">2020</t>
   </si>
   <si>
     <t xml:space="preserve">sqft</t>
   </si>
   <si>
-    <t xml:space="preserve">1276</t>
+    <t xml:space="preserve">2400</t>
   </si>
   <si>
     <t xml:space="preserve">extra ownership checkbox
@@ -215,9 +221,6 @@
     <t xml:space="preserve">ownership_restriction_checkbox </t>
   </si>
   <si>
-    <t xml:space="preserve">y</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sales History</t>
   </si>
   <si>
@@ -227,7 +230,7 @@
     <t xml:space="preserve">geo_date</t>
   </si>
   <si>
-    <t xml:space="preserve">1997-03-07</t>
+    <t xml:space="preserve">2020-04-21</t>
   </si>
   <si>
     <t xml:space="preserve">geo name</t>
@@ -236,7 +239,7 @@
     <t xml:space="preserve">geo_name</t>
   </si>
   <si>
-    <t xml:space="preserve">KEDROSKY, KAREN ELIZABETH; KEDROSKY, ROBERT GREGORY;</t>
+    <t xml:space="preserve">SOGOOD INVESTMENTS INCORPORATED; </t>
   </si>
   <si>
     <t xml:space="preserve">geo price</t>
@@ -245,7 +248,7 @@
     <t xml:space="preserve">geo_price</t>
   </si>
   <si>
-    <t xml:space="preserve">263000</t>
+    <t xml:space="preserve">546027</t>
   </si>
   <si>
     <t xml:space="preserve">MLS Count? 0/1..</t>
@@ -263,12 +266,6 @@
     <t xml:space="preserve">mls_no</t>
   </si>
   <si>
-    <t xml:space="preserve">C5412187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W4301258 </t>
-  </si>
-  <si>
     <t xml:space="preserve">///only takes 5 mls maximum</t>
   </si>
   <si>
@@ -278,13 +275,13 @@
     <t xml:space="preserve">mls_date</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-11-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-10-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-11-12</t>
+    <t xml:space="preserve">2021-09-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-08-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-06</t>
   </si>
   <si>
     <t xml:space="preserve">2017-10-04</t>
@@ -296,13 +293,13 @@
     <t xml:space="preserve">listing_price</t>
   </si>
   <si>
-    <t xml:space="preserve">625000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3450000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1259700</t>
+    <t xml:space="preserve">995900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1049000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">499000</t>
   </si>
   <si>
     <t xml:space="preserve">249900</t>
@@ -314,13 +311,13 @@
     <t xml:space="preserve">sold_price</t>
   </si>
   <si>
-    <t xml:space="preserve">647000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2988000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ter</t>
+    <t xml:space="preserve">967000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can</t>
+  </si>
+  <si>
+    <t xml:space="preserve">520000</t>
   </si>
   <si>
     <t xml:space="preserve">exp</t>
@@ -332,12 +329,12 @@
     <t xml:space="preserve">dom</t>
   </si>
   <si>
+    <t xml:space="preserve">49</t>
+  </si>
+  <si>
     <t xml:space="preserve">11</t>
   </si>
   <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
     <t xml:space="preserve">92</t>
   </si>
   <si>
@@ -353,13 +350,16 @@
     <t xml:space="preserve">psa_date</t>
   </si>
   <si>
+    <t xml:space="preserve">2021-10-04</t>
+  </si>
+  <si>
     <t xml:space="preserve">PSA Buyer</t>
   </si>
   <si>
     <t xml:space="preserve">psa_buyer</t>
   </si>
   <si>
-    <t xml:space="preserve">Gwenning Nicolas B Poirier &amp; Katherine Mary Poirier</t>
+    <t xml:space="preserve">Zhibin Zhang</t>
   </si>
   <si>
     <t xml:space="preserve">PSA Seller</t>
@@ -368,7 +368,7 @@
     <t xml:space="preserve">psa_seller</t>
   </si>
   <si>
-    <t xml:space="preserve">Ashley Beland &amp; Jason Beland</t>
+    <t xml:space="preserve">Zhang Ruilin</t>
   </si>
   <si>
     <t xml:space="preserve">PSA Price</t>
@@ -377,7 +377,7 @@
     <t xml:space="preserve">psa_price</t>
   </si>
   <si>
-    <t xml:space="preserve">610000</t>
+    <t xml:space="preserve">780000</t>
   </si>
   <si>
     <t xml:space="preserve">Interior layout</t>
@@ -398,13 +398,13 @@
     <t xml:space="preserve">family/den/laundry/storage</t>
   </si>
   <si>
-    <t xml:space="preserve">1,0,1,0</t>
+    <t xml:space="preserve">0,0,0,1</t>
   </si>
   <si>
     <t xml:space="preserve">bed/full bath/2-piece bath </t>
   </si>
   <si>
-    <t xml:space="preserve">0,0,0</t>
+    <t xml:space="preserve">1,1,0</t>
   </si>
   <si>
     <t xml:space="preserve">Exterior brick=0/stone=1/vinyl=2/concrete=3/stucco=4</t>
@@ -428,42 +428,36 @@
     <t xml:space="preserve">storey_rooms</t>
   </si>
   <si>
+    <t xml:space="preserve">master bed/ average bed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ensuite/full/partial bathroom </t>
+  </si>
+  <si>
+    <t xml:space="preserve">flooring hardwood=0/broadloom=1/laminate=2/ceramic=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior1_floor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Second Floor living+dining+kitchen? (0 or 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">loft/den/office/laundry </t>
+  </si>
+  <si>
     <t xml:space="preserve">1,0,0,0</t>
   </si>
   <si>
-    <t xml:space="preserve">master bed/ average bed </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ensuite/full/partial bathroom </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,0,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flooring hardwood=0/broadloom=1/laminate=2/ceramic=3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interior1_floor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Second Floor living+dining+kitchen? (0 or 1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interior2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">loft/den/office/laundry </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,2</t>
-  </si>
-  <si>
     <t xml:space="preserve">0,1,0</t>
   </si>
   <si>
@@ -473,19 +467,13 @@
     <t xml:space="preserve">interior2_floor</t>
   </si>
   <si>
+    <t xml:space="preserve">Third Floor loft/den/office/laundry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior3</t>
+  </si>
+  <si>
     <t xml:space="preserve">1,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Third Floor loft/den/office/laundry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interior3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,1,0</t>
   </si>
   <si>
     <t xml:space="preserve">Interior upgrades potlight=0/crown mouldings=1 empty = None</t>
@@ -538,7 +526,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="7"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -658,7 +646,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -687,19 +675,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -930,8 +922,8 @@
   </sheetPr>
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D54" activeCellId="0" sqref="D54"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -993,7 +985,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -1004,7 +996,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -1012,18 +1004,18 @@
         <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="25.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1039,60 +1031,64 @@
       <c r="D7" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F7" s="0"/>
+      <c r="G7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>12</v>
@@ -1100,41 +1096,41 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="35.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>12</v>
@@ -1142,35 +1138,35 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>12</v>
@@ -1178,239 +1174,239 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="5" t="s">
         <v>69</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="7" t="s">
-        <v>73</v>
+      <c r="A28" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="7" t="s">
         <v>76</v>
       </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="8" t="s">
+        <v>77</v>
+      </c>
       <c r="B29" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D29" s="8" t="n">
-        <v>1270103</v>
-      </c>
-      <c r="E29" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="D29" s="9" t="n">
+        <v>1262485</v>
+      </c>
+      <c r="E29" s="9" t="n">
+        <v>1255871</v>
+      </c>
+      <c r="F29" s="10" t="n">
+        <v>1232391</v>
+      </c>
+      <c r="G29" s="11" t="n">
+        <v>1081047</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G29" s="10" t="n">
-        <v>1081047</v>
-      </c>
-      <c r="I29" s="1" t="s">
+    </row>
+    <row r="30" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="8" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="7" t="s">
+      <c r="B30" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="I30" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="7" t="s">
+      <c r="B31" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="I31" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="I31" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="7" t="s">
+      <c r="B32" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="I32" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="I32" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="7" t="s">
+      <c r="B33" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="D33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="I33" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="I33" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="11" t="s">
+      <c r="B34" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="D34" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="11" t="s">
+      <c r="B35" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="11" t="s">
+    </row>
+    <row r="36" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="12" t="s">
         <v>108</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -1420,8 +1416,8 @@
         <v>110</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="11" t="s">
+    <row r="37" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="12" t="s">
         <v>111</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -1431,8 +1427,8 @@
         <v>113</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="11" t="s">
+    <row r="38" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="12" t="s">
         <v>114</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -1443,12 +1439,12 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="13" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="12" t="s">
+    <row r="41" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="13" t="s">
         <v>118</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -1458,8 +1454,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="13" t="s">
+    <row r="42" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="14" t="s">
         <v>120</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -1469,8 +1465,8 @@
         <v>121</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="13" t="s">
+    <row r="43" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="14" t="s">
         <v>122</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -1480,8 +1476,8 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="13" t="s">
+    <row r="44" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="14" t="s">
         <v>124</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -1491,8 +1487,8 @@
         <v>125</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="14" t="s">
+    <row r="47" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="15" t="s">
         <v>126</v>
       </c>
       <c r="B47" s="5" t="s">
@@ -1502,142 +1498,142 @@
         <v>128</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="14" t="s">
+    <row r="48" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="15" t="s">
         <v>129</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>130</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="16" t="s">
         <v>131</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>132</v>
       </c>
       <c r="D49" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="16" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="15" t="s">
+      <c r="D50" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D50" s="1" t="s">
+    </row>
+    <row r="51" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="16" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="15" t="s">
+      <c r="D51" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="14" t="s">
+      <c r="D52" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B52" s="1" t="s">
+    </row>
+    <row r="53" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="B53" s="5" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>142</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="17" t="s">
+    <row r="54" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="D55" s="1" t="s">
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="18" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="56" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="D56" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="57" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="17" t="s">
+      <c r="D57" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="19" t="s">
+    <row r="59" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="19" t="s">
-        <v>136</v>
+    </row>
+    <row r="60" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="20" t="s">
+        <v>135</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="19" t="s">
-        <v>146</v>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="20" t="s">
+        <v>144</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="20" t="s">
-        <v>153</v>
+    <row r="62" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="21" t="s">
+        <v>149</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1646,53 +1642,48 @@
       <formula>house_info!$D$34="n"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D33">
+  <conditionalFormatting sqref="D58:D61">
     <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>house_info!$D$28="0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D58:D61">
-    <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND(house_info!$D$6 &lt;&gt; "3",house_info!$D$6 &lt;&gt; "2 1/2")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53:D56">
-    <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>OR(house_info!$D$6="1",house_info!$D$6 &lt;&gt; "3"="1 1/2")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:D44">
-    <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>OR(house_info!$D$14="2",house_info!$D$14 ="3")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="expression" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>house_info!$D$4 &lt;&gt; "1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>house_info!$D$4 &lt;&gt; "0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
-    <cfRule type="expression" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>house_info!$D$6 = "1"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>house_info!$D$5 = "3"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>OR(house_info!$D$4&lt;&gt;"0",house_info!$D$5&lt;&gt;"2")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D30:D33">
-    <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+  <conditionalFormatting sqref="D31:F33">
+    <cfRule type="expression" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>house_info!$D$28="0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30:F33">
+    <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>house_info!$D$28 = "0"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/house_info.xlsx
+++ b/house_info.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="152">
   <si>
     <t xml:space="preserve">QUESTION</t>
   </si>
@@ -49,7 +49,7 @@
     <t xml:space="preserve">district</t>
   </si>
   <si>
-    <t xml:space="preserve">Abbottsville Crossing</t>
+    <t xml:space="preserve">Parkwood Hills</t>
   </si>
   <si>
     <t xml:space="preserve">Free=0/condo=1 </t>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t xml:space="preserve">type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
   </si>
   <si>
     <t xml:space="preserve">Storey</t>
@@ -86,9 +89,6 @@
     <t xml:space="preserve">.split(',') </t>
   </si>
   <si>
-    <t xml:space="preserve">irregular,interior,other residential lots</t>
-  </si>
-  <si>
     <t xml:space="preserve">rectangular,interior,other residential lots</t>
   </si>
   <si>
@@ -118,37 +118,37 @@
     <t xml:space="preserve">street_type </t>
   </si>
   <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Owner=0/Tenant=1/Both=2/vacant=3 </t>
   </si>
   <si>
     <t xml:space="preserve">occupy</t>
   </si>
   <si>
+    <t xml:space="preserve">Attach=0/Builtin=1/Detach=2/Underg=3/Aboveg=4/None+Driveway=5/NoneNone=6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">parking_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of parking space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parking_no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basement finished=0/ partly=1/ unfin=2/ none=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">,</t>
+  </si>
+  <si>
     <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attach=0/Builtin=1/Detach=2/Underg=3/Aboveg=4/None+Driveway=5/NoneNone=6 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">parking_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of parking space</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parking_no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">basement finished=0/ partly=1/ unfin=2/ none=3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">basement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">,</t>
   </si>
   <si>
     <t xml:space="preserve">adverse
@@ -162,26 +162,26 @@
     <t xml:space="preserve">.split(‘,’) </t>
   </si>
   <si>
+    <t xml:space="preserve">0,2</t>
+  </si>
+  <si>
     <t xml:space="preserve">if nuclear station exist: 
 Pickering = 0 / Darlington = 1</t>
   </si>
   <si>
-    <t xml:space="preserve">range of adverse. KM/M</t>
+    <t xml:space="preserve">range of adverse. KM/M (don’t put street’s dist)</t>
   </si>
   <si>
     <t xml:space="preserve">adverse_range</t>
   </si>
   <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nearby park/school </t>
   </si>
   <si>
     <t xml:space="preserve">facilities </t>
   </si>
   <si>
-    <t xml:space="preserve">Abbottsville Trail, Bradley Commons Park</t>
+    <t xml:space="preserve">Inverness Park, Sir Winston Churchill Public School</t>
   </si>
   <si>
     <t xml:space="preserve">electric underground=0/overhead=1 </t>
@@ -196,7 +196,7 @@
     <t xml:space="preserve">lease</t>
   </si>
   <si>
-    <t xml:space="preserve">n</t>
+    <t xml:space="preserve">y</t>
   </si>
   <si>
     <t xml:space="preserve">year built</t>
@@ -205,13 +205,13 @@
     <t xml:space="preserve">year_built</t>
   </si>
   <si>
-    <t xml:space="preserve">2020</t>
+    <t xml:space="preserve">1964</t>
   </si>
   <si>
     <t xml:space="preserve">sqft</t>
   </si>
   <si>
-    <t xml:space="preserve">2400</t>
+    <t xml:space="preserve">1452</t>
   </si>
   <si>
     <t xml:space="preserve">extra ownership checkbox
@@ -221,6 +221,9 @@
     <t xml:space="preserve">ownership_restriction_checkbox </t>
   </si>
   <si>
+    <t xml:space="preserve">n</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sales History</t>
   </si>
   <si>
@@ -230,7 +233,7 @@
     <t xml:space="preserve">geo_date</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-04-21</t>
+    <t xml:space="preserve">2011-08-12</t>
   </si>
   <si>
     <t xml:space="preserve">geo name</t>
@@ -239,7 +242,7 @@
     <t xml:space="preserve">geo_name</t>
   </si>
   <si>
-    <t xml:space="preserve">SOGOOD INVESTMENTS INCORPORATED; </t>
+    <t xml:space="preserve">WANG, LI; CAI, GARY;</t>
   </si>
   <si>
     <t xml:space="preserve">geo price</t>
@@ -248,7 +251,7 @@
     <t xml:space="preserve">geo_price</t>
   </si>
   <si>
-    <t xml:space="preserve">546027</t>
+    <t xml:space="preserve">268000</t>
   </si>
   <si>
     <t xml:space="preserve">MLS Count? 0/1..</t>
@@ -413,9 +416,6 @@
     <t xml:space="preserve">exterior_finish </t>
   </si>
   <si>
-    <t xml:space="preserve">0,2</t>
-  </si>
-  <si>
     <t xml:space="preserve">First Floor: living+dining+kitchen? (0 or 1)</t>
   </si>
   <si>
@@ -431,49 +431,52 @@
     <t xml:space="preserve">master bed/ average bed </t>
   </si>
   <si>
+    <t xml:space="preserve">0,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ensuite/full/partial bathroom </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,0,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flooring hardwood=0/broadloom=1/laminate=2/ceramic=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior1_floor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Second Floor living+dining+kitchen? (0 or 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">loft/den/office/laundry </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,1,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hardwood=0/broadloom=1/laminate=2/ceramic=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior2_floor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Third Floor loft/den/office/laundry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior3</t>
+  </si>
+  <si>
     <t xml:space="preserve">1,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ensuite/full/partial bathroom </t>
-  </si>
-  <si>
-    <t xml:space="preserve">flooring hardwood=0/broadloom=1/laminate=2/ceramic=3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interior1_floor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Second Floor living+dining+kitchen? (0 or 1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interior2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">loft/den/office/laundry </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,0,0,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,1,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hardwood=0/broadloom=1/laminate=2/ceramic=3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interior2_floor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Third Floor loft/den/office/laundry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interior3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,3</t>
   </si>
   <si>
     <t xml:space="preserve">Interior upgrades potlight=0/crown mouldings=1 empty = None</t>
@@ -922,8 +925,8 @@
   </sheetPr>
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1004,32 +1007,32 @@
         <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="25.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="0"/>
       <c r="G7" s="1" t="s">
@@ -1044,7 +1047,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>25</v>
@@ -1069,54 +1072,54 @@
         <v>30</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="35.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1129,8 +1132,11 @@
       <c r="C15" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="D15" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="E15" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>12</v>
@@ -1138,16 +1144,16 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1213,67 +1219,67 @@
         <v>63</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D29" s="9" t="n">
         <v>1262485</v>
@@ -1288,167 +1294,167 @@
         <v>1081047</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>12</v>
@@ -1456,46 +1462,46 @@
     </row>
     <row r="42" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="D42" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="15" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>128</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1506,7 +1512,7 @@
         <v>130</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1517,7 +1523,7 @@
         <v>132</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1533,26 +1539,26 @@
         <v>135</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="17" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>12</v>
@@ -1560,10 +1566,10 @@
     </row>
     <row r="54" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="18" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1571,7 +1577,7 @@
         <v>133</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1579,29 +1585,29 @@
         <v>135</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="18" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="19" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1609,7 +1615,7 @@
         <v>133</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1617,23 +1623,23 @@
         <v>135</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="21" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -1662,28 +1668,23 @@
       <formula>house_info!$D$4 &lt;&gt; "1"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="expression" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>house_info!$D$4 &lt;&gt; "0"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>house_info!$D$5 = "3"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>OR(house_info!$D$4&lt;&gt;"0",house_info!$D$5&lt;&gt;"2")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:F33">
-    <cfRule type="expression" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="expression" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>house_info!$D$28="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30:F33">
-    <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="expression" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>house_info!$D$28 = "0"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/house_info.xlsx
+++ b/house_info.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="156">
   <si>
     <t xml:space="preserve">QUESTION</t>
   </si>
@@ -49,7 +49,7 @@
     <t xml:space="preserve">district</t>
   </si>
   <si>
-    <t xml:space="preserve">Parkwood Hills</t>
+    <t xml:space="preserve">Barrhaven / Pheasant Run</t>
   </si>
   <si>
     <t xml:space="preserve">Free=0/condo=1 </t>
@@ -58,7 +58,7 @@
     <t xml:space="preserve">ownership</t>
   </si>
   <si>
-    <t xml:space="preserve">0</t>
+    <t xml:space="preserve">1</t>
   </si>
   <si>
     <t xml:space="preserve">type Det=0/Semi=1/Town=2/Apt=3/Stack=4 </t>
@@ -67,16 +67,13 @@
     <t xml:space="preserve">type</t>
   </si>
   <si>
-    <t xml:space="preserve">1</t>
+    <t xml:space="preserve">2</t>
   </si>
   <si>
     <t xml:space="preserve">Storey</t>
   </si>
   <si>
     <t xml:space="preserve">storey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
   </si>
   <si>
     <t xml:space="preserve">For Freehold: 
@@ -89,6 +86,9 @@
     <t xml:space="preserve">.split(',') </t>
   </si>
   <si>
+    <t xml:space="preserve">irregular,end,other residential lots</t>
+  </si>
+  <si>
     <t xml:space="preserve">rectangular,interior,other residential lots</t>
   </si>
   <si>
@@ -99,7 +99,7 @@
     <t xml:space="preserve">condo_location</t>
   </si>
   <si>
-    <t xml:space="preserve">southwest,Jeanne D’Arc Boulvevard North, Champlain Street,corner</t>
+    <t xml:space="preserve">southwest,Fallowfield Road,Greenbank Road,end</t>
   </si>
   <si>
     <t xml:space="preserve">Townhouse location end/interior</t>
@@ -130,7 +130,7 @@
     <t xml:space="preserve">parking_type</t>
   </si>
   <si>
-    <t xml:space="preserve">5</t>
+    <t xml:space="preserve">4</t>
   </si>
   <si>
     <t xml:space="preserve">number of parking space</t>
@@ -148,7 +148,7 @@
     <t xml:space="preserve">,</t>
   </si>
   <si>
-    <t xml:space="preserve">3</t>
+    <t xml:space="preserve">0</t>
   </si>
   <si>
     <t xml:space="preserve">adverse
@@ -162,7 +162,7 @@
     <t xml:space="preserve">.split(‘,’) </t>
   </si>
   <si>
-    <t xml:space="preserve">0,2</t>
+    <t xml:space="preserve">0,1</t>
   </si>
   <si>
     <t xml:space="preserve">if nuclear station exist: 
@@ -175,13 +175,16 @@
     <t xml:space="preserve">adverse_range</t>
   </si>
   <si>
+    <t xml:space="preserve">10,500</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nearby park/school </t>
   </si>
   <si>
     <t xml:space="preserve">facilities </t>
   </si>
   <si>
-    <t xml:space="preserve">Inverness Park, Sir Winston Churchill Public School</t>
+    <t xml:space="preserve">Malvern Park</t>
   </si>
   <si>
     <t xml:space="preserve">electric underground=0/overhead=1 </t>
@@ -196,7 +199,7 @@
     <t xml:space="preserve">lease</t>
   </si>
   <si>
-    <t xml:space="preserve">y</t>
+    <t xml:space="preserve">n</t>
   </si>
   <si>
     <t xml:space="preserve">year built</t>
@@ -205,13 +208,13 @@
     <t xml:space="preserve">year_built</t>
   </si>
   <si>
-    <t xml:space="preserve">1964</t>
+    <t xml:space="preserve">1977</t>
   </si>
   <si>
     <t xml:space="preserve">sqft</t>
   </si>
   <si>
-    <t xml:space="preserve">1452</t>
+    <t xml:space="preserve">1048</t>
   </si>
   <si>
     <t xml:space="preserve">extra ownership checkbox
@@ -221,9 +224,6 @@
     <t xml:space="preserve">ownership_restriction_checkbox </t>
   </si>
   <si>
-    <t xml:space="preserve">n</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sales History</t>
   </si>
   <si>
@@ -233,7 +233,7 @@
     <t xml:space="preserve">geo_date</t>
   </si>
   <si>
-    <t xml:space="preserve">2011-08-12</t>
+    <t xml:space="preserve">2011-09-07</t>
   </si>
   <si>
     <t xml:space="preserve">geo name</t>
@@ -242,7 +242,7 @@
     <t xml:space="preserve">geo_name</t>
   </si>
   <si>
-    <t xml:space="preserve">WANG, LI; CAI, GARY;</t>
+    <t xml:space="preserve">DE LOE, JULIE; DE LOE, ANDRE; </t>
   </si>
   <si>
     <t xml:space="preserve">geo price</t>
@@ -251,7 +251,7 @@
     <t xml:space="preserve">geo_price</t>
   </si>
   <si>
-    <t xml:space="preserve">268000</t>
+    <t xml:space="preserve">212000</t>
   </si>
   <si>
     <t xml:space="preserve">MLS Count? 0/1..</t>
@@ -269,6 +269,12 @@
     <t xml:space="preserve">mls_no</t>
   </si>
   <si>
+    <t xml:space="preserve">1331313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1331314</t>
+  </si>
+  <si>
     <t xml:space="preserve">///only takes 5 mls maximum</t>
   </si>
   <si>
@@ -278,16 +284,16 @@
     <t xml:space="preserve">mls_date</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-09-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-08-04</t>
+    <t xml:space="preserve">2021-11-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-10-13</t>
   </si>
   <si>
     <t xml:space="preserve">2021-04-06</t>
   </si>
   <si>
-    <t xml:space="preserve">2017-10-04</t>
+    <t xml:space="preserve">2021-04-07</t>
   </si>
   <si>
     <t xml:space="preserve">Listing Price</t>
@@ -296,16 +302,16 @@
     <t xml:space="preserve">listing_price</t>
   </si>
   <si>
-    <t xml:space="preserve">995900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1049000</t>
+    <t xml:space="preserve">369000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">809000</t>
   </si>
   <si>
     <t xml:space="preserve">499000</t>
   </si>
   <si>
-    <t xml:space="preserve">249900</t>
+    <t xml:space="preserve">499001</t>
   </si>
   <si>
     <t xml:space="preserve">Sold price/ter/can/sus/cond/exp/act</t>
@@ -314,7 +320,7 @@
     <t xml:space="preserve">sold_price</t>
   </si>
   <si>
-    <t xml:space="preserve">967000</t>
+    <t xml:space="preserve">365000</t>
   </si>
   <si>
     <t xml:space="preserve">can</t>
@@ -323,7 +329,7 @@
     <t xml:space="preserve">520000</t>
   </si>
   <si>
-    <t xml:space="preserve">exp</t>
+    <t xml:space="preserve">520001</t>
   </si>
   <si>
     <t xml:space="preserve">Days on Market</t>
@@ -332,13 +338,16 @@
     <t xml:space="preserve">dom</t>
   </si>
   <si>
-    <t xml:space="preserve">49</t>
+    <t xml:space="preserve">34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22</t>
   </si>
   <si>
     <t xml:space="preserve">11</t>
   </si>
   <si>
-    <t xml:space="preserve">92</t>
+    <t xml:space="preserve">12</t>
   </si>
   <si>
     <t xml:space="preserve">PSA? y/n</t>
@@ -353,7 +362,7 @@
     <t xml:space="preserve">psa_date</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-10-04</t>
+    <t xml:space="preserve">2021-12-03</t>
   </si>
   <si>
     <t xml:space="preserve">PSA Buyer</t>
@@ -362,7 +371,7 @@
     <t xml:space="preserve">psa_buyer</t>
   </si>
   <si>
-    <t xml:space="preserve">Zhibin Zhang</t>
+    <t xml:space="preserve">Zhaohui Ji &amp; Lin Jin</t>
   </si>
   <si>
     <t xml:space="preserve">PSA Seller</t>
@@ -371,7 +380,7 @@
     <t xml:space="preserve">psa_seller</t>
   </si>
   <si>
-    <t xml:space="preserve">Zhang Ruilin</t>
+    <t xml:space="preserve">Rajeev Ruparelia</t>
   </si>
   <si>
     <t xml:space="preserve">PSA Price</t>
@@ -380,7 +389,7 @@
     <t xml:space="preserve">psa_price</t>
   </si>
   <si>
-    <t xml:space="preserve">780000</t>
+    <t xml:space="preserve">735000</t>
   </si>
   <si>
     <t xml:space="preserve">Interior layout</t>
@@ -401,79 +410,82 @@
     <t xml:space="preserve">family/den/laundry/storage</t>
   </si>
   <si>
+    <t xml:space="preserve">1,0,1,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bed/full bath/2-piece bath </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,0,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exterior brick=0/stone=1/vinyl=2/concrete=3/stucco=4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exterior_finish </t>
+  </si>
+  <si>
+    <t xml:space="preserve">First Floor: living+dining+kitchen? (0 or 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">family room/den/office/laundry </t>
+  </si>
+  <si>
+    <t xml:space="preserve">storey_rooms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">master bed/ average bed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ensuite/full/partial bathroom </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,1,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flooring hardwood=0/broadloom=1/laminate=2/ceramic=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior1_floor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Second Floor living+dining+kitchen? (0 or 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">loft/den/office/laundry </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hardwood=0/broadloom=1/laminate=2/ceramic=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior2_floor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Third Floor loft/den/office/laundry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior3</t>
+  </si>
+  <si>
     <t xml:space="preserve">0,0,0,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bed/full bath/2-piece bath </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,1,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exterior brick=0/stone=1/vinyl=2/concrete=3/stucco=4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exterior_finish </t>
-  </si>
-  <si>
-    <t xml:space="preserve">First Floor: living+dining+kitchen? (0 or 1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interior1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">family room/den/office/laundry </t>
-  </si>
-  <si>
-    <t xml:space="preserve">storey_rooms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">master bed/ average bed </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ensuite/full/partial bathroom </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,0,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flooring hardwood=0/broadloom=1/laminate=2/ceramic=3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interior1_floor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Second Floor living+dining+kitchen? (0 or 1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interior2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">loft/den/office/laundry </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,1,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hardwood=0/broadloom=1/laminate=2/ceramic=3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interior2_floor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Third Floor loft/den/office/laundry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interior3</t>
   </si>
   <si>
     <t xml:space="preserve">1,1</t>
@@ -529,13 +541,13 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="7"/>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="5.5"/>
+      <sz val="7"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -649,7 +661,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -690,11 +702,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -749,7 +757,7 @@
     <cellStyle name="Untitled1" xfId="20"/>
     <cellStyle name="Untitled2" xfId="21"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
     <dxf>
       <font>
         <name val="Arial"/>
@@ -757,6 +765,34 @@
         <family val="2"/>
         <color rgb="FF666666"/>
       </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333333"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="false" diagonalDown="false">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <diagonal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <color rgb="FF666666"/>
+        <sz val="10"/>
+        <u val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="General"/>
       <fill>
         <patternFill>
           <bgColor rgb="FF333333"/>
@@ -925,8 +961,8 @@
   </sheetPr>
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1018,28 +1054,28 @@
         <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="25.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="F7" s="0"/>
       <c r="G7" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
         <v>23</v>
       </c>
@@ -1047,7 +1083,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>25</v>
@@ -1072,7 +1108,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1122,7 +1158,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="35.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
         <v>42</v>
       </c>
@@ -1139,7 +1175,7 @@
         <v>46</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1153,73 +1189,73 @@
         <v>44</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1238,7 +1274,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
         <v>69</v>
       </c>
@@ -1274,7 +1310,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="s">
         <v>78</v>
       </c>
@@ -1282,364 +1318,364 @@
         <v>79</v>
       </c>
       <c r="D29" s="9" t="n">
-        <v>1262485</v>
-      </c>
-      <c r="E29" s="9" t="n">
-        <v>1255871</v>
-      </c>
-      <c r="F29" s="10" t="n">
-        <v>1232391</v>
-      </c>
-      <c r="G29" s="11" t="n">
-        <v>1081047</v>
+        <v>1269638</v>
+      </c>
+      <c r="E29" s="10" t="n">
+        <v>1266321</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="13" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D41" s="1" t="s">
+    </row>
+    <row r="48" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="14" t="s">
+    <row r="49" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>124</v>
-      </c>
     </row>
     <row r="50" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="16" t="s">
-        <v>133</v>
+      <c r="A50" s="15" t="s">
+        <v>136</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="16" t="s">
-        <v>135</v>
+      <c r="A51" s="15" t="s">
+        <v>138</v>
       </c>
       <c r="D51" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="17" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="B52" s="1" t="s">
+      <c r="D55" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="18" t="s">
-        <v>145</v>
+    <row r="57" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="17" t="s">
+        <v>147</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="D59" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
     <row r="62" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="21" t="s">
-        <v>150</v>
+      <c r="A62" s="20" t="s">
+        <v>154</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -1653,7 +1689,7 @@
       <formula>AND(house_info!$D$6 &lt;&gt; "3",house_info!$D$6 &lt;&gt; "2 1/2")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D53:D56">
+  <conditionalFormatting sqref="D53:D57">
     <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>OR(house_info!$D$6="1",house_info!$D$6 &lt;&gt; "3"="1 1/2")</formula>
     </cfRule>
@@ -1678,14 +1714,19 @@
       <formula>OR(house_info!$D$4&lt;&gt;"0",house_info!$D$5&lt;&gt;"2")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:F33">
+  <conditionalFormatting sqref="D31:G33 F29:G29">
     <cfRule type="expression" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>house_info!$D$28="0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D30:F33">
+  <conditionalFormatting sqref="D30:G33 F29:G29">
     <cfRule type="expression" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>house_info!$D$28 = "0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7 D7">
+    <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>house_info!$D$4 = "1"</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/house_info.xlsx
+++ b/house_info.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="155">
   <si>
     <t xml:space="preserve">QUESTION</t>
   </si>
@@ -49,7 +49,7 @@
     <t xml:space="preserve">district</t>
   </si>
   <si>
-    <t xml:space="preserve">Barrhaven / Pheasant Run</t>
+    <t xml:space="preserve">Club Citadelle</t>
   </si>
   <si>
     <t xml:space="preserve">Free=0/condo=1 </t>
@@ -86,9 +86,6 @@
     <t xml:space="preserve">.split(',') </t>
   </si>
   <si>
-    <t xml:space="preserve">irregular,end,other residential lots</t>
-  </si>
-  <si>
     <t xml:space="preserve">rectangular,interior,other residential lots</t>
   </si>
   <si>
@@ -99,7 +96,7 @@
     <t xml:space="preserve">condo_location</t>
   </si>
   <si>
-    <t xml:space="preserve">southwest,Fallowfield Road,Greenbank Road,end</t>
+    <t xml:space="preserve">northeast,Tenth Line Road,Charlemagne Boulevard,end</t>
   </si>
   <si>
     <t xml:space="preserve">Townhouse location end/interior</t>
@@ -124,6 +121,9 @@
     <t xml:space="preserve">occupy</t>
   </si>
   <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Attach=0/Builtin=1/Detach=2/Underg=3/Aboveg=4/None+Driveway=5/NoneNone=6 </t>
   </si>
   <si>
@@ -146,9 +146,6 @@
   </si>
   <si>
     <t xml:space="preserve">,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
   </si>
   <si>
     <t xml:space="preserve">adverse
@@ -162,9 +159,6 @@
     <t xml:space="preserve">.split(‘,’) </t>
   </si>
   <si>
-    <t xml:space="preserve">0,1</t>
-  </si>
-  <si>
     <t xml:space="preserve">if nuclear station exist: 
 Pickering = 0 / Darlington = 1</t>
   </si>
@@ -175,7 +169,7 @@
     <t xml:space="preserve">adverse_range</t>
   </si>
   <si>
-    <t xml:space="preserve">10,500</t>
+    <t xml:space="preserve">5,1</t>
   </si>
   <si>
     <t xml:space="preserve">Nearby park/school </t>
@@ -184,7 +178,7 @@
     <t xml:space="preserve">facilities </t>
   </si>
   <si>
-    <t xml:space="preserve">Malvern Park</t>
+    <t xml:space="preserve">Ray Friel Park</t>
   </si>
   <si>
     <t xml:space="preserve">electric underground=0/overhead=1 </t>
@@ -199,7 +193,7 @@
     <t xml:space="preserve">lease</t>
   </si>
   <si>
-    <t xml:space="preserve">n</t>
+    <t xml:space="preserve">y</t>
   </si>
   <si>
     <t xml:space="preserve">year built</t>
@@ -208,13 +202,13 @@
     <t xml:space="preserve">year_built</t>
   </si>
   <si>
-    <t xml:space="preserve">1977</t>
+    <t xml:space="preserve">1985</t>
   </si>
   <si>
     <t xml:space="preserve">sqft</t>
   </si>
   <si>
-    <t xml:space="preserve">1048</t>
+    <t xml:space="preserve">1350</t>
   </si>
   <si>
     <t xml:space="preserve">extra ownership checkbox
@@ -224,6 +218,9 @@
     <t xml:space="preserve">ownership_restriction_checkbox </t>
   </si>
   <si>
+    <t xml:space="preserve">n</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sales History</t>
   </si>
   <si>
@@ -233,7 +230,7 @@
     <t xml:space="preserve">geo_date</t>
   </si>
   <si>
-    <t xml:space="preserve">2011-09-07</t>
+    <t xml:space="preserve">2001-10-04</t>
   </si>
   <si>
     <t xml:space="preserve">geo name</t>
@@ -242,7 +239,7 @@
     <t xml:space="preserve">geo_name</t>
   </si>
   <si>
-    <t xml:space="preserve">DE LOE, JULIE; DE LOE, ANDRE; </t>
+    <t xml:space="preserve">ALLEN, RUTH CLAIRE; ALLEN, JOHN DOUGLAS; </t>
   </si>
   <si>
     <t xml:space="preserve">geo price</t>
@@ -251,7 +248,7 @@
     <t xml:space="preserve">geo_price</t>
   </si>
   <si>
-    <t xml:space="preserve">212000</t>
+    <t xml:space="preserve">120500</t>
   </si>
   <si>
     <t xml:space="preserve">MLS Count? 0/1..</t>
@@ -284,7 +281,7 @@
     <t xml:space="preserve">mls_date</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-11-03</t>
+    <t xml:space="preserve">2019-05-06</t>
   </si>
   <si>
     <t xml:space="preserve">2021-10-13</t>
@@ -302,7 +299,7 @@
     <t xml:space="preserve">listing_price</t>
   </si>
   <si>
-    <t xml:space="preserve">369000</t>
+    <t xml:space="preserve">449800</t>
   </si>
   <si>
     <t xml:space="preserve">809000</t>
@@ -320,7 +317,7 @@
     <t xml:space="preserve">sold_price</t>
   </si>
   <si>
-    <t xml:space="preserve">365000</t>
+    <t xml:space="preserve">498000</t>
   </si>
   <si>
     <t xml:space="preserve">can</t>
@@ -338,9 +335,6 @@
     <t xml:space="preserve">dom</t>
   </si>
   <si>
-    <t xml:space="preserve">34</t>
-  </si>
-  <si>
     <t xml:space="preserve">22</t>
   </si>
   <si>
@@ -362,7 +356,7 @@
     <t xml:space="preserve">psa_date</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-12-03</t>
+    <t xml:space="preserve">2021-11-24</t>
   </si>
   <si>
     <t xml:space="preserve">PSA Buyer</t>
@@ -371,7 +365,7 @@
     <t xml:space="preserve">psa_buyer</t>
   </si>
   <si>
-    <t xml:space="preserve">Zhaohui Ji &amp; Lin Jin</t>
+    <t xml:space="preserve">Juan Lin</t>
   </si>
   <si>
     <t xml:space="preserve">PSA Seller</t>
@@ -380,7 +374,7 @@
     <t xml:space="preserve">psa_seller</t>
   </si>
   <si>
-    <t xml:space="preserve">Rajeev Ruparelia</t>
+    <t xml:space="preserve">Shuang Wang</t>
   </si>
   <si>
     <t xml:space="preserve">PSA Price</t>
@@ -389,7 +383,7 @@
     <t xml:space="preserve">psa_price</t>
   </si>
   <si>
-    <t xml:space="preserve">735000</t>
+    <t xml:space="preserve">580000</t>
   </si>
   <si>
     <t xml:space="preserve">Interior layout</t>
@@ -404,39 +398,45 @@
     <t xml:space="preserve">living/dining/kitchen/rec</t>
   </si>
   <si>
+    <t xml:space="preserve">0,0,0,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">family/den/laundry/storage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,0,1,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bed/full bath/2-piece bath </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,0,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exterior brick=0/stone=1/vinyl=2/concrete=3/stucco=4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exterior_finish </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First Floor: living+dining+kitchen? (0 or 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">family room/den/office/laundry </t>
+  </si>
+  <si>
+    <t xml:space="preserve">storey_rooms</t>
+  </si>
+  <si>
     <t xml:space="preserve">0,0,0,0</t>
   </si>
   <si>
-    <t xml:space="preserve">family/den/laundry/storage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,0,1,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bed/full bath/2-piece bath </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,0,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exterior brick=0/stone=1/vinyl=2/concrete=3/stucco=4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exterior_finish </t>
-  </si>
-  <si>
-    <t xml:space="preserve">First Floor: living+dining+kitchen? (0 or 1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interior1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">family room/den/office/laundry </t>
-  </si>
-  <si>
-    <t xml:space="preserve">storey_rooms</t>
-  </si>
-  <si>
     <t xml:space="preserve">master bed/ average bed </t>
   </si>
   <si>
@@ -446,30 +446,33 @@
     <t xml:space="preserve">ensuite/full/partial bathroom </t>
   </si>
   <si>
+    <t xml:space="preserve">0,0,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flooring hardwood=0/broadloom=1/laminate=2/ceramic=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior1_floor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Second Floor living+dining+kitchen? (0 or 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">loft/den/office/laundry </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,2</t>
+  </si>
+  <si>
     <t xml:space="preserve">0,1,0</t>
   </si>
   <si>
-    <t xml:space="preserve">flooring hardwood=0/broadloom=1/laminate=2/ceramic=3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interior1_floor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Second Floor living+dining+kitchen? (0 or 1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interior2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">loft/den/office/laundry </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,2</t>
-  </si>
-  <si>
     <t xml:space="preserve">hardwood=0/broadloom=1/laminate=2/ceramic=3</t>
   </si>
   <si>
@@ -483,12 +486,6 @@
   </si>
   <si>
     <t xml:space="preserve">interior3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,0,0,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,1</t>
   </si>
   <si>
     <t xml:space="preserve">Interior upgrades potlight=0/crown mouldings=1 empty = None</t>
@@ -505,7 +502,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -536,18 +533,6 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="7"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -661,7 +646,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -695,14 +680,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -961,8 +938,8 @@
   </sheetPr>
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1072,40 +1049,40 @@
       </c>
       <c r="F7" s="0"/>
       <c r="G7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="D9" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>12</v>
@@ -1113,13 +1090,13 @@
     </row>
     <row r="11" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1141,7 +1118,7 @@
         <v>37</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1155,415 +1132,412 @@
         <v>40</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="E15" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="F15" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="D26" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="D28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D29" s="9" t="n">
-        <v>1269638</v>
-      </c>
-      <c r="E29" s="10" t="n">
-        <v>1266321</v>
+      <c r="E29" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="F29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="I29" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="I30" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="I31" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="I32" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="D33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="I33" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="I33" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="11" t="s">
+      <c r="D34" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="11" t="s">
+      <c r="D35" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B35" s="1" t="s">
+    </row>
+    <row r="36" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="11" t="s">
+      <c r="D36" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B36" s="1" t="s">
+    </row>
+    <row r="37" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="11" t="s">
+      <c r="D37" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B37" s="1" t="s">
+    </row>
+    <row r="38" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="11" t="s">
+      <c r="D38" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B38" s="1" t="s">
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="D38" s="1" t="s">
+    </row>
+    <row r="41" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="10" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="12" t="s">
+      <c r="B41" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="12" t="s">
+      <c r="D41" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B42" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="13" t="s">
+    </row>
+    <row r="43" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D42" s="1" t="s">
+      <c r="B43" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="13" t="s">
+    <row r="44" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D43" s="1" t="s">
+      <c r="B44" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="13" t="s">
+    <row r="47" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D44" s="1" t="s">
+      <c r="B47" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="14" t="s">
+      <c r="D47" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B47" s="5" t="s">
+    </row>
+    <row r="48" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="14" t="s">
+      <c r="B48" s="5" t="s">
         <v>132</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>133</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>125</v>
-      </c>
     </row>
     <row r="50" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="15" t="s">
+      <c r="A50" s="13" t="s">
         <v>136</v>
       </c>
       <c r="D50" s="1" t="s">
@@ -1571,15 +1545,15 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="15" t="s">
+      <c r="A51" s="13" t="s">
         <v>138</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="14" t="s">
+    <row r="52" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="12" t="s">
         <v>140</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -1590,26 +1564,26 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="16" t="s">
+      <c r="A53" s="14" t="s">
         <v>143</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>144</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="17" t="s">
+      <c r="A54" s="15" t="s">
         <v>145</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="17" t="s">
+      <c r="A55" s="15" t="s">
         <v>136</v>
       </c>
       <c r="D55" s="1" t="s">
@@ -1617,65 +1591,65 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="17" t="s">
+      <c r="A56" s="15" t="s">
         <v>138</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="17" t="s">
+      <c r="A57" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B57" s="1" t="s">
+    </row>
+    <row r="61" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="18" t="s">
+      <c r="D61" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="D59" s="1" t="s">
+    </row>
+    <row r="62" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="18" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="60" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="20" t="s">
+      <c r="B62" s="5" t="s">
         <v>154</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -1689,7 +1663,7 @@
       <formula>AND(house_info!$D$6 &lt;&gt; "3",house_info!$D$6 &lt;&gt; "2 1/2")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D53:D57">
+  <conditionalFormatting sqref="D52:D57">
     <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>OR(house_info!$D$6="1",house_info!$D$6 &lt;&gt; "3"="1 1/2")</formula>
     </cfRule>
@@ -1714,12 +1688,12 @@
       <formula>OR(house_info!$D$4&lt;&gt;"0",house_info!$D$5&lt;&gt;"2")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:G33 F29:G29">
+  <conditionalFormatting sqref="D31:G33 D29:G29">
     <cfRule type="expression" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>house_info!$D$28="0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D30:G33 F29:G29">
+  <conditionalFormatting sqref="D29:G33">
     <cfRule type="expression" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>house_info!$D$28 = "0"</formula>
     </cfRule>

--- a/house_info.xlsx
+++ b/house_info.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="156">
   <si>
     <t xml:space="preserve">QUESTION</t>
   </si>
@@ -49,7 +49,7 @@
     <t xml:space="preserve">district</t>
   </si>
   <si>
-    <t xml:space="preserve">Club Citadelle</t>
+    <t xml:space="preserve">Villas of Katimavik</t>
   </si>
   <si>
     <t xml:space="preserve">Free=0/condo=1 </t>
@@ -58,22 +58,25 @@
     <t xml:space="preserve">ownership</t>
   </si>
   <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type Det=0/Semi=1/Town=2/Apt=3/Stack=4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">type</t>
+  </si>
+  <si>
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">type Det=0/Semi=1/Town=2/Apt=3/Stack=4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">type</t>
+    <t xml:space="preserve">Storey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">storey</t>
   </si>
   <si>
     <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Storey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">storey</t>
   </si>
   <si>
     <t xml:space="preserve">For Freehold: 
@@ -86,6 +89,9 @@
     <t xml:space="preserve">.split(',') </t>
   </si>
   <si>
+    <t xml:space="preserve">irregular,end,a empty lot</t>
+  </si>
+  <si>
     <t xml:space="preserve">rectangular,interior,other residential lots</t>
   </si>
   <si>
@@ -96,7 +102,7 @@
     <t xml:space="preserve">condo_location</t>
   </si>
   <si>
-    <t xml:space="preserve">northeast,Tenth Line Road,Charlemagne Boulevard,end</t>
+    <t xml:space="preserve">northwest,Terry Fox Drive,Fernbank Road,end</t>
   </si>
   <si>
     <t xml:space="preserve">Townhouse location end/interior</t>
@@ -121,16 +127,10 @@
     <t xml:space="preserve">occupy</t>
   </si>
   <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
     <t xml:space="preserve">Attach=0/Builtin=1/Detach=2/Underg=3/Aboveg=4/None+Driveway=5/NoneNone=6 </t>
   </si>
   <si>
     <t xml:space="preserve">parking_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
   </si>
   <si>
     <t xml:space="preserve">number of parking space</t>
@@ -169,7 +169,7 @@
     <t xml:space="preserve">adverse_range</t>
   </si>
   <si>
-    <t xml:space="preserve">5,1</t>
+    <t xml:space="preserve">10</t>
   </si>
   <si>
     <t xml:space="preserve">Nearby park/school </t>
@@ -178,7 +178,7 @@
     <t xml:space="preserve">facilities </t>
   </si>
   <si>
-    <t xml:space="preserve">Ray Friel Park</t>
+    <t xml:space="preserve">McLennan Park</t>
   </si>
   <si>
     <t xml:space="preserve">electric underground=0/overhead=1 </t>
@@ -193,7 +193,7 @@
     <t xml:space="preserve">lease</t>
   </si>
   <si>
-    <t xml:space="preserve">y</t>
+    <t xml:space="preserve">n</t>
   </si>
   <si>
     <t xml:space="preserve">year built</t>
@@ -202,13 +202,13 @@
     <t xml:space="preserve">year_built</t>
   </si>
   <si>
-    <t xml:space="preserve">1985</t>
+    <t xml:space="preserve">2002</t>
   </si>
   <si>
     <t xml:space="preserve">sqft</t>
   </si>
   <si>
-    <t xml:space="preserve">1350</t>
+    <t xml:space="preserve">1751</t>
   </si>
   <si>
     <t xml:space="preserve">extra ownership checkbox
@@ -218,9 +218,6 @@
     <t xml:space="preserve">ownership_restriction_checkbox </t>
   </si>
   <si>
-    <t xml:space="preserve">n</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sales History</t>
   </si>
   <si>
@@ -230,7 +227,7 @@
     <t xml:space="preserve">geo_date</t>
   </si>
   <si>
-    <t xml:space="preserve">2001-10-04</t>
+    <t xml:space="preserve">2002-12-16</t>
   </si>
   <si>
     <t xml:space="preserve">geo name</t>
@@ -239,7 +236,7 @@
     <t xml:space="preserve">geo_name</t>
   </si>
   <si>
-    <t xml:space="preserve">ALLEN, RUTH CLAIRE; ALLEN, JOHN DOUGLAS; </t>
+    <t xml:space="preserve">SABO, KIMBERLEY ANN KATRINA; </t>
   </si>
   <si>
     <t xml:space="preserve">geo price</t>
@@ -248,7 +245,7 @@
     <t xml:space="preserve">geo_price</t>
   </si>
   <si>
-    <t xml:space="preserve">120500</t>
+    <t xml:space="preserve">226838</t>
   </si>
   <si>
     <t xml:space="preserve">MLS Count? 0/1..</t>
@@ -266,6 +263,12 @@
     <t xml:space="preserve">mls_no</t>
   </si>
   <si>
+    <t xml:space="preserve">W4998309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W4992816 </t>
+  </si>
+  <si>
     <t xml:space="preserve">1331313</t>
   </si>
   <si>
@@ -281,10 +284,10 @@
     <t xml:space="preserve">mls_date</t>
   </si>
   <si>
-    <t xml:space="preserve">2019-05-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-10-13</t>
+    <t xml:space="preserve">2020-11-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-11-18</t>
   </si>
   <si>
     <t xml:space="preserve">2021-04-06</t>
@@ -299,10 +302,10 @@
     <t xml:space="preserve">listing_price</t>
   </si>
   <si>
-    <t xml:space="preserve">449800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">809000</t>
+    <t xml:space="preserve">745000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">699000</t>
   </si>
   <si>
     <t xml:space="preserve">499000</t>
@@ -317,10 +320,10 @@
     <t xml:space="preserve">sold_price</t>
   </si>
   <si>
-    <t xml:space="preserve">498000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">can</t>
+    <t xml:space="preserve">715000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ter</t>
   </si>
   <si>
     <t xml:space="preserve">520000</t>
@@ -338,6 +341,9 @@
     <t xml:space="preserve">22</t>
   </si>
   <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
     <t xml:space="preserve">11</t>
   </si>
   <si>
@@ -356,7 +362,7 @@
     <t xml:space="preserve">psa_date</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-11-24</t>
+    <t xml:space="preserve">2021-12-07</t>
   </si>
   <si>
     <t xml:space="preserve">PSA Buyer</t>
@@ -365,7 +371,7 @@
     <t xml:space="preserve">psa_buyer</t>
   </si>
   <si>
-    <t xml:space="preserve">Juan Lin</t>
+    <t xml:space="preserve">Jananthini Tharmalingam &amp; Ratnaraj Ratnasingam</t>
   </si>
   <si>
     <t xml:space="preserve">PSA Seller</t>
@@ -374,7 +380,7 @@
     <t xml:space="preserve">psa_seller</t>
   </si>
   <si>
-    <t xml:space="preserve">Shuang Wang</t>
+    <t xml:space="preserve">Xiao Feng Wu</t>
   </si>
   <si>
     <t xml:space="preserve">PSA Price</t>
@@ -383,7 +389,7 @@
     <t xml:space="preserve">psa_price</t>
   </si>
   <si>
-    <t xml:space="preserve">580000</t>
+    <t xml:space="preserve">1370000</t>
   </si>
   <si>
     <t xml:space="preserve">Interior layout</t>
@@ -398,55 +404,55 @@
     <t xml:space="preserve">living/dining/kitchen/rec</t>
   </si>
   <si>
+    <t xml:space="preserve">0,0,0,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">family/den/laundry/storage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,0,0,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bed/full bath/2-piece bath </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,1,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exterior brick=0/stone=1/vinyl=2/concrete=3/stucco=4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exterior_finish </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First Floor: living+dining+kitchen? (0 or 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">family room/den/office/laundry </t>
+  </si>
+  <si>
+    <t xml:space="preserve">storey_rooms</t>
+  </si>
+  <si>
     <t xml:space="preserve">0,0,0,1</t>
   </si>
   <si>
-    <t xml:space="preserve">family/den/laundry/storage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,0,1,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bed/full bath/2-piece bath </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,0,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exterior brick=0/stone=1/vinyl=2/concrete=3/stucco=4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exterior_finish </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First Floor: living+dining+kitchen? (0 or 1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interior1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">family room/den/office/laundry </t>
-  </si>
-  <si>
-    <t xml:space="preserve">storey_rooms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,0,0,0</t>
-  </si>
-  <si>
     <t xml:space="preserve">master bed/ average bed </t>
   </si>
   <si>
-    <t xml:space="preserve">0,0</t>
+    <t xml:space="preserve">1,1</t>
   </si>
   <si>
     <t xml:space="preserve">ensuite/full/partial bathroom </t>
   </si>
   <si>
-    <t xml:space="preserve">0,0,1</t>
+    <t xml:space="preserve">0,1,1</t>
   </si>
   <si>
     <t xml:space="preserve">flooring hardwood=0/broadloom=1/laminate=2/ceramic=3</t>
@@ -467,19 +473,16 @@
     <t xml:space="preserve">loft/den/office/laundry </t>
   </si>
   <si>
-    <t xml:space="preserve">1,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,1,0</t>
+    <t xml:space="preserve">0,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,0,0</t>
   </si>
   <si>
     <t xml:space="preserve">hardwood=0/broadloom=1/laminate=2/ceramic=3</t>
   </si>
   <si>
     <t xml:space="preserve">interior2_floor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,3</t>
   </si>
   <si>
     <t xml:space="preserve">Third Floor loft/den/office/laundry</t>
@@ -502,7 +505,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -527,12 +530,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF666666"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="6"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -646,7 +643,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -659,8 +656,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -673,10 +670,6 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -938,8 +931,8 @@
   </sheetPr>
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -979,18 +972,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1031,83 +1024,83 @@
         <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="25.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="0"/>
       <c r="G7" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1118,7 +1111,7 @@
         <v>37</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1132,7 +1125,7 @@
         <v>40</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1149,7 +1142,7 @@
         <v>44</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1185,7 +1178,7 @@
         <v>52</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1229,427 +1222,430 @@
         <v>62</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="D26" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D27" s="1" t="s">
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="7" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8" t="s">
+      <c r="B28" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="D28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" s="1" t="s">
+    </row>
+    <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="7" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8" t="s">
+      <c r="B29" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="D29" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="F29" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>81</v>
-      </c>
     </row>
     <row r="31" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="8" t="s">
-        <v>88</v>
+      <c r="A31" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="8" t="s">
-        <v>94</v>
+      <c r="A32" s="7" t="s">
+        <v>95</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="8" t="s">
-        <v>100</v>
+      <c r="A33" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D45" s="0"/>
+    </row>
+    <row r="47" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D44" s="1" t="s">
+    </row>
+    <row r="49" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B47" s="5" t="s">
+    <row r="55" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="B53" s="5" t="s">
+    </row>
+    <row r="61" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>150</v>
-      </c>
     </row>
     <row r="62" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="18" t="s">
-        <v>153</v>
+      <c r="A62" s="17" t="s">
+        <v>154</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -1658,49 +1654,49 @@
       <formula>house_info!$D$34="n"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D58:D61">
+  <conditionalFormatting sqref="D52:D57">
     <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(house_info!$D$6 &lt;&gt; "3",house_info!$D$6 &lt;&gt; "2 1/2")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D57">
-    <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>OR(house_info!$D$6="1",house_info!$D$6 &lt;&gt; "3"="1 1/2")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:D44">
-    <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>OR(house_info!$D$14="2",house_info!$D$14 ="3")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>house_info!$D$4 &lt;&gt; "1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>house_info!$D$5 = "3"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>OR(house_info!$D$4&lt;&gt;"0",house_info!$D$5&lt;&gt;"2")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:G33 D29:G29">
-    <cfRule type="expression" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+  <conditionalFormatting sqref="D31:G33 F29:G29">
+    <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>house_info!$D$28="0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D29:G33">
-    <cfRule type="expression" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+  <conditionalFormatting sqref="D30:G33 F29:G29">
+    <cfRule type="expression" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>house_info!$D$28 = "0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7 D7">
-    <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+    <cfRule type="expression" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>house_info!$D$4 = "1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D58:D61">
+    <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND(house_info!$D$6 &lt;&gt; "3",house_info!$D$6 &lt;&gt; "2 1/2")</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/house_info.xlsx
+++ b/house_info.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="158">
   <si>
     <t xml:space="preserve">QUESTION</t>
   </si>
@@ -40,7 +40,7 @@
     <t xml:space="preserve">city</t>
   </si>
   <si>
-    <t xml:space="preserve">Ottawa</t>
+    <t xml:space="preserve">Toronto</t>
   </si>
   <si>
     <t xml:space="preserve">District</t>
@@ -49,7 +49,7 @@
     <t xml:space="preserve">district</t>
   </si>
   <si>
-    <t xml:space="preserve">Villas of Katimavik</t>
+    <t xml:space="preserve">Waterfront Communities</t>
   </si>
   <si>
     <t xml:space="preserve">Free=0/condo=1 </t>
@@ -58,7 +58,7 @@
     <t xml:space="preserve">ownership</t>
   </si>
   <si>
-    <t xml:space="preserve">0</t>
+    <t xml:space="preserve">1</t>
   </si>
   <si>
     <t xml:space="preserve">type Det=0/Semi=1/Town=2/Apt=3/Stack=4 </t>
@@ -67,7 +67,7 @@
     <t xml:space="preserve">type</t>
   </si>
   <si>
-    <t xml:space="preserve">1</t>
+    <t xml:space="preserve">3</t>
   </si>
   <si>
     <t xml:space="preserve">Storey</t>
@@ -89,7 +89,7 @@
     <t xml:space="preserve">.split(',') </t>
   </si>
   <si>
-    <t xml:space="preserve">irregular,end,a empty lot</t>
+    <t xml:space="preserve">irregular,interior,other residential lots</t>
   </si>
   <si>
     <t xml:space="preserve">rectangular,interior,other residential lots</t>
@@ -102,7 +102,7 @@
     <t xml:space="preserve">condo_location</t>
   </si>
   <si>
-    <t xml:space="preserve">northwest,Terry Fox Drive,Fernbank Road,end</t>
+    <t xml:space="preserve">northeast,Harbour Street,Bay Street,corner</t>
   </si>
   <si>
     <t xml:space="preserve">Townhouse location end/interior</t>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t xml:space="preserve">street_type </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
   </si>
   <si>
     <t xml:space="preserve">Owner=0/Tenant=1/Both=2/vacant=3 </t>
@@ -169,7 +172,7 @@
     <t xml:space="preserve">adverse_range</t>
   </si>
   <si>
-    <t xml:space="preserve">10</t>
+    <t xml:space="preserve">500</t>
   </si>
   <si>
     <t xml:space="preserve">Nearby park/school </t>
@@ -178,7 +181,7 @@
     <t xml:space="preserve">facilities </t>
   </si>
   <si>
-    <t xml:space="preserve">McLennan Park</t>
+    <t xml:space="preserve">Shadybrook Park</t>
   </si>
   <si>
     <t xml:space="preserve">electric underground=0/overhead=1 </t>
@@ -193,7 +196,7 @@
     <t xml:space="preserve">lease</t>
   </si>
   <si>
-    <t xml:space="preserve">n</t>
+    <t xml:space="preserve">y</t>
   </si>
   <si>
     <t xml:space="preserve">year built</t>
@@ -202,13 +205,13 @@
     <t xml:space="preserve">year_built</t>
   </si>
   <si>
-    <t xml:space="preserve">2002</t>
+    <t xml:space="preserve">2011</t>
   </si>
   <si>
     <t xml:space="preserve">sqft</t>
   </si>
   <si>
-    <t xml:space="preserve">1751</t>
+    <t xml:space="preserve">1051</t>
   </si>
   <si>
     <t xml:space="preserve">extra ownership checkbox
@@ -218,6 +221,9 @@
     <t xml:space="preserve">ownership_restriction_checkbox </t>
   </si>
   <si>
+    <t xml:space="preserve">n</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sales History</t>
   </si>
   <si>
@@ -227,7 +233,7 @@
     <t xml:space="preserve">geo_date</t>
   </si>
   <si>
-    <t xml:space="preserve">2002-12-16</t>
+    <t xml:space="preserve">2012-01-04</t>
   </si>
   <si>
     <t xml:space="preserve">geo name</t>
@@ -236,7 +242,7 @@
     <t xml:space="preserve">geo_name</t>
   </si>
   <si>
-    <t xml:space="preserve">SABO, KIMBERLEY ANN KATRINA; </t>
+    <t xml:space="preserve">LU, DA; </t>
   </si>
   <si>
     <t xml:space="preserve">geo price</t>
@@ -245,7 +251,7 @@
     <t xml:space="preserve">geo_price</t>
   </si>
   <si>
-    <t xml:space="preserve">226838</t>
+    <t xml:space="preserve">525289</t>
   </si>
   <si>
     <t xml:space="preserve">MLS Count? 0/1..</t>
@@ -263,16 +269,10 @@
     <t xml:space="preserve">mls_no</t>
   </si>
   <si>
-    <t xml:space="preserve">W4998309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W4992816 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1331313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1331314</t>
+    <t xml:space="preserve">C5428163 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E5365594 </t>
   </si>
   <si>
     <t xml:space="preserve">///only takes 5 mls maximum</t>
@@ -284,16 +284,16 @@
     <t xml:space="preserve">mls_date</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-11-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-11-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-04-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-04-07</t>
+    <t xml:space="preserve">2021-11-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-09-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-11-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-11-15</t>
   </si>
   <si>
     <t xml:space="preserve">Listing Price</t>
@@ -302,16 +302,16 @@
     <t xml:space="preserve">listing_price</t>
   </si>
   <si>
-    <t xml:space="preserve">745000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">699000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">499000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">499001</t>
+    <t xml:space="preserve">1158000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">989900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">689900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">739900</t>
   </si>
   <si>
     <t xml:space="preserve">Sold price/ter/can/sus/cond/exp/act</t>
@@ -320,16 +320,16 @@
     <t xml:space="preserve">sold_price</t>
   </si>
   <si>
-    <t xml:space="preserve">715000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">520000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">520001</t>
+    <t xml:space="preserve">act</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1010000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">650000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exp</t>
   </si>
   <si>
     <t xml:space="preserve">Days on Market</t>
@@ -338,16 +338,16 @@
     <t xml:space="preserve">dom</t>
   </si>
   <si>
-    <t xml:space="preserve">22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
+    <t xml:space="preserve">50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140</t>
   </si>
   <si>
     <t xml:space="preserve">PSA? y/n</t>
@@ -362,7 +362,7 @@
     <t xml:space="preserve">psa_date</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-12-07</t>
+    <t xml:space="preserve">2021-12-16</t>
   </si>
   <si>
     <t xml:space="preserve">PSA Buyer</t>
@@ -371,7 +371,7 @@
     <t xml:space="preserve">psa_buyer</t>
   </si>
   <si>
-    <t xml:space="preserve">Jananthini Tharmalingam &amp; Ratnaraj Ratnasingam</t>
+    <t xml:space="preserve">Adam Nanjee &amp; Tahira Adatia</t>
   </si>
   <si>
     <t xml:space="preserve">PSA Seller</t>
@@ -380,7 +380,7 @@
     <t xml:space="preserve">psa_seller</t>
   </si>
   <si>
-    <t xml:space="preserve">Xiao Feng Wu</t>
+    <t xml:space="preserve">Da Lu</t>
   </si>
   <si>
     <t xml:space="preserve">PSA Price</t>
@@ -389,7 +389,7 @@
     <t xml:space="preserve">psa_price</t>
   </si>
   <si>
-    <t xml:space="preserve">1370000</t>
+    <t xml:space="preserve">1130000</t>
   </si>
   <si>
     <t xml:space="preserve">Interior layout</t>
@@ -404,91 +404,97 @@
     <t xml:space="preserve">living/dining/kitchen/rec</t>
   </si>
   <si>
+    <t xml:space="preserve">0,0,0,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">family/den/laundry/storage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,0,1,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bed/full bath/2-piece bath </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,0,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exterior brick=0/stone=1/vinyl=2/concrete=3/stucco=4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exterior_finish </t>
+  </si>
+  <si>
+    <t xml:space="preserve">First Floor: living+dining+kitchen? (0 or 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">family room/den/office/laundry </t>
+  </si>
+  <si>
+    <t xml:space="preserve">storey_rooms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,1,0,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">master bed/ average bed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ensuite/full/partial bathroom </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,1,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flooring hardwood=0/broadloom=1/laminate=2/ceramic=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior1_floor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,2,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Second Floor living+dining+kitchen? (0 or 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">loft/den/office/laundry </t>
+  </si>
+  <si>
     <t xml:space="preserve">0,0,0,0</t>
   </si>
   <si>
-    <t xml:space="preserve">family/den/laundry/storage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,0,0,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bed/full bath/2-piece bath </t>
+    <t xml:space="preserve">1,2</t>
   </si>
   <si>
     <t xml:space="preserve">0,1,0</t>
   </si>
   <si>
-    <t xml:space="preserve">Exterior brick=0/stone=1/vinyl=2/concrete=3/stucco=4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exterior_finish </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First Floor: living+dining+kitchen? (0 or 1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interior1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">family room/den/office/laundry </t>
-  </si>
-  <si>
-    <t xml:space="preserve">storey_rooms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,0,0,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">master bed/ average bed </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ensuite/full/partial bathroom </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,1,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flooring hardwood=0/broadloom=1/laminate=2/ceramic=3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interior1_floor</t>
+    <t xml:space="preserve">hardwood=0/broadloom=1/laminate=2/ceramic=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior2_floor</t>
   </si>
   <si>
     <t xml:space="preserve">0,3</t>
   </si>
   <si>
-    <t xml:space="preserve">Second Floor living+dining+kitchen? (0 or 1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interior2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">loft/den/office/laundry </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,0,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hardwood=0/broadloom=1/laminate=2/ceramic=3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interior2_floor</t>
-  </si>
-  <si>
     <t xml:space="preserve">Third Floor loft/den/office/laundry</t>
   </si>
   <si>
     <t xml:space="preserve">interior3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,0,1</t>
   </si>
   <si>
     <t xml:space="preserve">Interior upgrades potlight=0/crown mouldings=1 empty = None</t>
@@ -505,7 +511,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -530,6 +536,12 @@
     <font>
       <sz val="10"/>
       <color rgb="FF666666"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -643,7 +655,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -673,6 +685,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -931,8 +947,8 @@
   </sheetPr>
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E54" activeCellId="0" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1078,51 +1094,51 @@
         <v>31</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>15</v>
@@ -1130,171 +1146,174 @@
     </row>
     <row r="15" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G29" s="1" t="s">
         <v>81</v>
+      </c>
+      <c r="F29" s="8" t="n">
+        <v>1133198</v>
+      </c>
+      <c r="G29" s="8" t="n">
+        <v>1115483</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>82</v>
@@ -1393,18 +1412,18 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="9" t="s">
         <v>107</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>108</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="9" t="s">
         <v>109</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -1415,7 +1434,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="9" t="s">
         <v>112</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -1426,7 +1445,7 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="9" t="s">
         <v>115</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -1437,7 +1456,7 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="9" t="s">
         <v>118</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -1448,23 +1467,23 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="10" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="10" t="s">
         <v>122</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>123</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="11" t="s">
         <v>124</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -1475,7 +1494,7 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="11" t="s">
         <v>126</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -1486,7 +1505,7 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="11" t="s">
         <v>128</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -1500,152 +1519,152 @@
       <c r="D45" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="12" t="s">
         <v>130</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>131</v>
       </c>
       <c r="D47" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="12" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="11" t="s">
+      <c r="B48" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="D48" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="12" t="s">
+      <c r="B49" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D49" s="1" t="s">
+    </row>
+    <row r="50" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="13" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="12" t="s">
+      <c r="D50" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D50" s="1" t="s">
+    </row>
+    <row r="51" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="13" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="12" t="s">
+      <c r="D51" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D51" s="1" t="s">
+    </row>
+    <row r="52" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="12" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="52" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="11" t="s">
+      <c r="B52" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D52" s="1" t="s">
+    </row>
+    <row r="53" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="14" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="53" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="13" t="s">
+      <c r="B53" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="D53" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="14" t="s">
+      <c r="D54" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>127</v>
-      </c>
     </row>
     <row r="55" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="14" t="s">
-        <v>138</v>
+      <c r="A55" s="15" t="s">
+        <v>137</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="14" t="s">
-        <v>140</v>
+      <c r="A56" s="15" t="s">
+        <v>139</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="14" t="s">
+      <c r="A57" s="15" t="s">
         <v>150</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>151</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="15" t="s">
+      <c r="A58" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>144</v>
-      </c>
     </row>
     <row r="62" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="17" t="s">
-        <v>154</v>
+      <c r="A62" s="18" t="s">
+        <v>156</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -1679,12 +1698,12 @@
       <formula>OR(house_info!$D$4&lt;&gt;"0",house_info!$D$5&lt;&gt;"2")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:G33 F29:G29">
+  <conditionalFormatting sqref="D31:G33">
     <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>house_info!$D$28="0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D30:G33 F29:G29">
+  <conditionalFormatting sqref="D30:G33">
     <cfRule type="expression" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>house_info!$D$28 = "0"</formula>
     </cfRule>

--- a/house_info.xlsx
+++ b/house_info.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="155">
   <si>
     <t xml:space="preserve">QUESTION</t>
   </si>
@@ -40,7 +40,7 @@
     <t xml:space="preserve">city</t>
   </si>
   <si>
-    <t xml:space="preserve">Toronto</t>
+    <t xml:space="preserve">Ottawa</t>
   </si>
   <si>
     <t xml:space="preserve">District</t>
@@ -49,7 +49,7 @@
     <t xml:space="preserve">district</t>
   </si>
   <si>
-    <t xml:space="preserve">Waterfront Communities</t>
+    <t xml:space="preserve">Longfields/Barrhaven</t>
   </si>
   <si>
     <t xml:space="preserve">Free=0/condo=1 </t>
@@ -58,7 +58,7 @@
     <t xml:space="preserve">ownership</t>
   </si>
   <si>
-    <t xml:space="preserve">1</t>
+    <t xml:space="preserve">0</t>
   </si>
   <si>
     <t xml:space="preserve">type Det=0/Semi=1/Town=2/Apt=3/Stack=4 </t>
@@ -67,16 +67,13 @@
     <t xml:space="preserve">type</t>
   </si>
   <si>
-    <t xml:space="preserve">3</t>
+    <t xml:space="preserve">2</t>
   </si>
   <si>
     <t xml:space="preserve">Storey</t>
   </si>
   <si>
     <t xml:space="preserve">storey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
   </si>
   <si>
     <t xml:space="preserve">For Freehold: 
@@ -89,7 +86,7 @@
     <t xml:space="preserve">.split(',') </t>
   </si>
   <si>
-    <t xml:space="preserve">irregular,interior,other residential lots</t>
+    <t xml:space="preserve">irregular,end,a empty lot</t>
   </si>
   <si>
     <t xml:space="preserve">rectangular,interior,other residential lots</t>
@@ -102,7 +99,7 @@
     <t xml:space="preserve">condo_location</t>
   </si>
   <si>
-    <t xml:space="preserve">northeast,Harbour Street,Bay Street,corner</t>
+    <t xml:space="preserve">east,Port of Newcastle Drive,Shipway Ave,interior</t>
   </si>
   <si>
     <t xml:space="preserve">Townhouse location end/interior</t>
@@ -121,7 +118,7 @@
     <t xml:space="preserve">street_type </t>
   </si>
   <si>
-    <t xml:space="preserve">0</t>
+    <t xml:space="preserve">1</t>
   </si>
   <si>
     <t xml:space="preserve">Owner=0/Tenant=1/Both=2/vacant=3 </t>
@@ -181,7 +178,7 @@
     <t xml:space="preserve">facilities </t>
   </si>
   <si>
-    <t xml:space="preserve">Shadybrook Park</t>
+    <t xml:space="preserve">Mulligan Park</t>
   </si>
   <si>
     <t xml:space="preserve">electric underground=0/overhead=1 </t>
@@ -196,7 +193,7 @@
     <t xml:space="preserve">lease</t>
   </si>
   <si>
-    <t xml:space="preserve">y</t>
+    <t xml:space="preserve">n</t>
   </si>
   <si>
     <t xml:space="preserve">year built</t>
@@ -205,13 +202,13 @@
     <t xml:space="preserve">year_built</t>
   </si>
   <si>
-    <t xml:space="preserve">2011</t>
+    <t xml:space="preserve">1996</t>
   </si>
   <si>
     <t xml:space="preserve">sqft</t>
   </si>
   <si>
-    <t xml:space="preserve">1051</t>
+    <t xml:space="preserve">1346</t>
   </si>
   <si>
     <t xml:space="preserve">extra ownership checkbox
@@ -221,9 +218,6 @@
     <t xml:space="preserve">ownership_restriction_checkbox </t>
   </si>
   <si>
-    <t xml:space="preserve">n</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sales History</t>
   </si>
   <si>
@@ -233,7 +227,7 @@
     <t xml:space="preserve">geo_date</t>
   </si>
   <si>
-    <t xml:space="preserve">2012-01-04</t>
+    <t xml:space="preserve">2020-07-10</t>
   </si>
   <si>
     <t xml:space="preserve">geo name</t>
@@ -242,7 +236,7 @@
     <t xml:space="preserve">geo_name</t>
   </si>
   <si>
-    <t xml:space="preserve">LU, DA; </t>
+    <t xml:space="preserve">TELFORD, RYAN; </t>
   </si>
   <si>
     <t xml:space="preserve">geo price</t>
@@ -251,7 +245,7 @@
     <t xml:space="preserve">geo_price</t>
   </si>
   <si>
-    <t xml:space="preserve">525289</t>
+    <t xml:space="preserve">400000</t>
   </si>
   <si>
     <t xml:space="preserve">MLS Count? 0/1..</t>
@@ -269,9 +263,6 @@
     <t xml:space="preserve">mls_no</t>
   </si>
   <si>
-    <t xml:space="preserve">C5428163 </t>
-  </si>
-  <si>
     <t xml:space="preserve">E5365594 </t>
   </si>
   <si>
@@ -284,7 +275,7 @@
     <t xml:space="preserve">mls_date</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-11-10</t>
+    <t xml:space="preserve">2020-07-13</t>
   </si>
   <si>
     <t xml:space="preserve">2021-09-20</t>
@@ -302,7 +293,7 @@
     <t xml:space="preserve">listing_price</t>
   </si>
   <si>
-    <t xml:space="preserve">1158000</t>
+    <t xml:space="preserve">499000</t>
   </si>
   <si>
     <t xml:space="preserve">989900</t>
@@ -320,7 +311,7 @@
     <t xml:space="preserve">sold_price</t>
   </si>
   <si>
-    <t xml:space="preserve">act</t>
+    <t xml:space="preserve">570000</t>
   </si>
   <si>
     <t xml:space="preserve">1010000</t>
@@ -338,7 +329,7 @@
     <t xml:space="preserve">dom</t>
   </si>
   <si>
-    <t xml:space="preserve">50</t>
+    <t xml:space="preserve">8</t>
   </si>
   <si>
     <t xml:space="preserve">10</t>
@@ -404,13 +395,13 @@
     <t xml:space="preserve">living/dining/kitchen/rec</t>
   </si>
   <si>
-    <t xml:space="preserve">0,0,0,1</t>
+    <t xml:space="preserve">0,0,0,0</t>
   </si>
   <si>
     <t xml:space="preserve">family/den/laundry/storage</t>
   </si>
   <si>
-    <t xml:space="preserve">0,0,1,0</t>
+    <t xml:space="preserve">1,0,1,0</t>
   </si>
   <si>
     <t xml:space="preserve">bed/full bath/2-piece bath </t>
@@ -425,6 +416,9 @@
     <t xml:space="preserve">exterior_finish </t>
   </si>
   <si>
+    <t xml:space="preserve">0,2</t>
+  </si>
+  <si>
     <t xml:space="preserve">First Floor: living+dining+kitchen? (0 or 1)</t>
   </si>
   <si>
@@ -437,61 +431,58 @@
     <t xml:space="preserve">storey_rooms</t>
   </si>
   <si>
-    <t xml:space="preserve">0,1,0,1</t>
-  </si>
-  <si>
     <t xml:space="preserve">master bed/ average bed </t>
   </si>
   <si>
+    <t xml:space="preserve">0,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ensuite/full/partial bathroom </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,0,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flooring hardwood=0/broadloom=1/laminate=2/ceramic=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior1_floor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Second Floor living+dining+kitchen? (0 or 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">loft/den/office/laundry </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,1,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hardwood=0/broadloom=1/laminate=2/ceramic=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior2_floor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Third Floor loft/den/office/laundry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior3</t>
+  </si>
+  <si>
     <t xml:space="preserve">1,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ensuite/full/partial bathroom </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,1,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flooring hardwood=0/broadloom=1/laminate=2/ceramic=3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interior1_floor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,2,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Second Floor living+dining+kitchen? (0 or 1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interior2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">loft/den/office/laundry </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,0,0,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,1,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hardwood=0/broadloom=1/laminate=2/ceramic=3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interior2_floor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Third Floor loft/den/office/laundry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interior3</t>
   </si>
   <si>
     <t xml:space="preserve">1,0,1</t>
@@ -511,7 +502,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -536,6 +527,12 @@
     <font>
       <sz val="10"/>
       <color rgb="FF666666"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="6"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -655,7 +652,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -672,6 +669,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -688,7 +689,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -947,8 +948,8 @@
   </sheetPr>
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E54" activeCellId="0" sqref="E54"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -999,19 +1000,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1022,7 +1023,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1040,631 +1041,631 @@
         <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="25.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="25.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+      <c r="B7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="F7" s="0"/>
       <c r="G7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
+      <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="D9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="1" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
+      <c r="B10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="D10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="1" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
+      <c r="B11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="D11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
+      <c r="B12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="D13" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="B14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="1" t="s">
+    </row>
+    <row r="17" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
+      <c r="B17" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="D17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="1" t="s">
+    </row>
+    <row r="18" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
+      <c r="B18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="D18" s="1" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="1" t="s">
+    </row>
+    <row r="22" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
+      <c r="B22" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="D22" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="1" t="s">
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="7" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="s">
+      <c r="B25" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="s">
+      <c r="D25" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B25" s="1" t="s">
+    </row>
+    <row r="26" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="s">
+      <c r="D26" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="1" t="s">
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="B27" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="s">
+      <c r="D27" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B27" s="1" t="s">
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E28" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="7" t="s">
+      <c r="D29" s="9" t="n">
+        <v>1198548</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="F29" s="9" t="n">
+        <v>1133198</v>
+      </c>
+      <c r="G29" s="9" t="n">
+        <v>1115483</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D29" s="3" t="s">
+    </row>
+    <row r="30" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="B30" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F29" s="8" t="n">
-        <v>1133198</v>
-      </c>
-      <c r="G29" s="8" t="n">
-        <v>1115483</v>
-      </c>
-      <c r="I29" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="7" t="s">
+      <c r="E30" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="I30" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="7" t="s">
+      <c r="E31" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="I31" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="I31" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="7" t="s">
+      <c r="E32" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="I32" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="I32" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="7" t="s">
+      <c r="E33" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="I33" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="D34" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="I33" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="9" t="s">
+      <c r="B35" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="9" t="s">
+    </row>
+    <row r="36" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="9" t="s">
+    <row r="37" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="9" t="s">
+    <row r="38" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="9" t="s">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="B38" s="1" t="s">
+    </row>
+    <row r="41" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="10" t="s">
+      <c r="D41" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="12" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="10" t="s">
+      <c r="B42" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B41" s="1" t="s">
+    </row>
+    <row r="43" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="11" t="s">
+      <c r="B43" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D42" s="1" t="s">
+    </row>
+    <row r="44" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="12" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="11" t="s">
+      <c r="B44" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D45" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="12" t="s">
+      <c r="A47" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B48" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="12" t="s">
+      <c r="D48" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B49" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D49" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="13" t="s">
+    <row r="54" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D49" s="1" t="s">
+      <c r="D55" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="16" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="D51" s="1" t="s">
+      <c r="D56" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="16" t="s">
+    <row r="62" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B62" s="6" t="s">
         <v>154</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/house_info.xlsx
+++ b/house_info.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="154">
   <si>
     <t xml:space="preserve">QUESTION</t>
   </si>
@@ -49,7 +49,7 @@
     <t xml:space="preserve">district</t>
   </si>
   <si>
-    <t xml:space="preserve">Longfields/Barrhaven</t>
+    <t xml:space="preserve">?</t>
   </si>
   <si>
     <t xml:space="preserve">Free=0/condo=1 </t>
@@ -67,13 +67,13 @@
     <t xml:space="preserve">type</t>
   </si>
   <si>
+    <t xml:space="preserve">Storey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">storey</t>
+  </si>
+  <si>
     <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Storey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">storey</t>
   </si>
   <si>
     <t xml:space="preserve">For Freehold: 
@@ -86,9 +86,6 @@
     <t xml:space="preserve">.split(',') </t>
   </si>
   <si>
-    <t xml:space="preserve">irregular,end,a empty lot</t>
-  </si>
-  <si>
     <t xml:space="preserve">rectangular,interior,other residential lots</t>
   </si>
   <si>
@@ -99,7 +96,7 @@
     <t xml:space="preserve">condo_location</t>
   </si>
   <si>
-    <t xml:space="preserve">east,Port of Newcastle Drive,Shipway Ave,interior</t>
+    <t xml:space="preserve">south,Castlefrank Road, Katimavik Road,interior</t>
   </si>
   <si>
     <t xml:space="preserve">Townhouse location end/interior</t>
@@ -159,6 +156,9 @@
     <t xml:space="preserve">.split(‘,’) </t>
   </si>
   <si>
+    <t xml:space="preserve">0,1,4</t>
+  </si>
+  <si>
     <t xml:space="preserve">if nuclear station exist: 
 Pickering = 0 / Darlington = 1</t>
   </si>
@@ -169,7 +169,7 @@
     <t xml:space="preserve">adverse_range</t>
   </si>
   <si>
-    <t xml:space="preserve">500</t>
+    <t xml:space="preserve">5,200,200</t>
   </si>
   <si>
     <t xml:space="preserve">Nearby park/school </t>
@@ -178,7 +178,7 @@
     <t xml:space="preserve">facilities </t>
   </si>
   <si>
-    <t xml:space="preserve">Mulligan Park</t>
+    <t xml:space="preserve">Arnott Park</t>
   </si>
   <si>
     <t xml:space="preserve">electric underground=0/overhead=1 </t>
@@ -193,7 +193,7 @@
     <t xml:space="preserve">lease</t>
   </si>
   <si>
-    <t xml:space="preserve">n</t>
+    <t xml:space="preserve">y</t>
   </si>
   <si>
     <t xml:space="preserve">year built</t>
@@ -202,13 +202,13 @@
     <t xml:space="preserve">year_built</t>
   </si>
   <si>
-    <t xml:space="preserve">1996</t>
+    <t xml:space="preserve">1966</t>
   </si>
   <si>
     <t xml:space="preserve">sqft</t>
   </si>
   <si>
-    <t xml:space="preserve">1346</t>
+    <t xml:space="preserve">1639</t>
   </si>
   <si>
     <t xml:space="preserve">extra ownership checkbox
@@ -218,6 +218,9 @@
     <t xml:space="preserve">ownership_restriction_checkbox </t>
   </si>
   <si>
+    <t xml:space="preserve">n</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sales History</t>
   </si>
   <si>
@@ -227,7 +230,7 @@
     <t xml:space="preserve">geo_date</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-07-10</t>
+    <t xml:space="preserve">2001-05-17</t>
   </si>
   <si>
     <t xml:space="preserve">geo name</t>
@@ -236,7 +239,7 @@
     <t xml:space="preserve">geo_name</t>
   </si>
   <si>
-    <t xml:space="preserve">TELFORD, RYAN; </t>
+    <t xml:space="preserve">HABETS, DANIEL; HABETS, CELINE; </t>
   </si>
   <si>
     <t xml:space="preserve">geo price</t>
@@ -245,9 +248,6 @@
     <t xml:space="preserve">geo_price</t>
   </si>
   <si>
-    <t xml:space="preserve">400000</t>
-  </si>
-  <si>
     <t xml:space="preserve">MLS Count? 0/1..</t>
   </si>
   <si>
@@ -353,7 +353,7 @@
     <t xml:space="preserve">psa_date</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-12-16</t>
+    <t xml:space="preserve">2021-12-14</t>
   </si>
   <si>
     <t xml:space="preserve">PSA Buyer</t>
@@ -362,7 +362,7 @@
     <t xml:space="preserve">psa_buyer</t>
   </si>
   <si>
-    <t xml:space="preserve">Adam Nanjee &amp; Tahira Adatia</t>
+    <t xml:space="preserve">Mark Temple Cobbold &amp; Mary Clare Elizabeth Young</t>
   </si>
   <si>
     <t xml:space="preserve">PSA Seller</t>
@@ -371,7 +371,7 @@
     <t xml:space="preserve">psa_seller</t>
   </si>
   <si>
-    <t xml:space="preserve">Da Lu</t>
+    <t xml:space="preserve">Diana Marina Mayer</t>
   </si>
   <si>
     <t xml:space="preserve">PSA Price</t>
@@ -380,7 +380,7 @@
     <t xml:space="preserve">psa_price</t>
   </si>
   <si>
-    <t xml:space="preserve">1130000</t>
+    <t xml:space="preserve">275000</t>
   </si>
   <si>
     <t xml:space="preserve">Interior layout</t>
@@ -401,13 +401,13 @@
     <t xml:space="preserve">family/den/laundry/storage</t>
   </si>
   <si>
-    <t xml:space="preserve">1,0,1,0</t>
+    <t xml:space="preserve">1,0,0,0</t>
   </si>
   <si>
     <t xml:space="preserve">bed/full bath/2-piece bath </t>
   </si>
   <si>
-    <t xml:space="preserve">0,0,0</t>
+    <t xml:space="preserve">0,1,0</t>
   </si>
   <si>
     <t xml:space="preserve">Exterior brick=0/stone=1/vinyl=2/concrete=3/stucco=4</t>
@@ -449,43 +449,40 @@
     <t xml:space="preserve">interior1_floor</t>
   </si>
   <si>
+    <t xml:space="preserve">1,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Second Floor living+dining+kitchen? (0 or 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">loft/den/office/laundry </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,1,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hardwood=0/broadloom=1/laminate=2/ceramic=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior2_floor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Third Floor loft/den/office/laundry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,0,1</t>
+  </si>
+  <si>
     <t xml:space="preserve">0,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Second Floor living+dining+kitchen? (0 or 1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interior2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">loft/den/office/laundry </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,1,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hardwood=0/broadloom=1/laminate=2/ceramic=3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interior2_floor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Third Floor loft/den/office/laundry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interior3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,0,1</t>
   </si>
   <si>
     <t xml:space="preserve">Interior upgrades potlight=0/crown mouldings=1 empty = None</t>
@@ -502,7 +499,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -538,10 +535,21 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="12">
@@ -652,7 +660,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -665,23 +673,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -689,7 +701,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -711,6 +723,10 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -949,7 +965,7 @@
   <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -989,7 +1005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1007,12 +1023,12 @@
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1023,35 +1039,35 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="25.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1059,62 +1075,62 @@
       </c>
       <c r="F7" s="0"/>
       <c r="G7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
+      <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="D9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="1" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
+      <c r="B10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="D10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="1" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
+      <c r="B11" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
+    <row r="12" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>12</v>
@@ -1122,43 +1138,43 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="D13" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
+      <c r="B14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="35.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
+      <c r="B15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>44</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -1173,25 +1189,25 @@
         <v>46</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="s">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1235,56 +1251,56 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>62</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7" t="s">
-        <v>63</v>
+      <c r="A24" s="6" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7" t="s">
-        <v>64</v>
+      <c r="A25" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="7" t="s">
         <v>67</v>
       </c>
+    </row>
+    <row r="26" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="B26" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="3" t="s">
         <v>69</v>
       </c>
+      <c r="D26" s="7" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="7" t="s">
-        <v>70</v>
+      <c r="A27" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D27" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="D27" s="8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="9" t="s">
         <v>73</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -1297,31 +1313,31 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8" t="s">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="9" t="s">
         <v>76</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="9" t="n">
+      <c r="D29" s="10" t="n">
         <v>1198548</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F29" s="9" t="n">
+      <c r="F29" s="10" t="n">
         <v>1133198</v>
       </c>
-      <c r="G29" s="9" t="n">
+      <c r="G29" s="10" t="n">
         <v>1115483</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="8" t="s">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="9" t="s">
         <v>80</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -1343,8 +1359,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="8" t="s">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="9" t="s">
         <v>86</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -1366,8 +1382,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="8" t="s">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="9" t="s">
         <v>92</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1389,8 +1405,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="8" t="s">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="9" t="s">
         <v>98</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -1413,18 +1429,18 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="11" t="s">
         <v>104</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>105</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="11" t="s">
         <v>106</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -1434,8 +1450,8 @@
         <v>108</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="10" t="s">
+    <row r="36" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="11" t="s">
         <v>109</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -1445,8 +1461,8 @@
         <v>111</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="10" t="s">
+    <row r="37" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="11" t="s">
         <v>112</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -1456,8 +1472,8 @@
         <v>114</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="10" t="s">
+    <row r="38" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="11" t="s">
         <v>115</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -1468,12 +1484,12 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="12" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="11" t="s">
+    <row r="41" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="12" t="s">
         <v>119</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -1483,8 +1499,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="12" t="s">
+    <row r="42" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="13" t="s">
         <v>121</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -1494,8 +1510,8 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="12" t="s">
+    <row r="43" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="13" t="s">
         <v>123</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -1505,8 +1521,8 @@
         <v>124</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="12" t="s">
+    <row r="44" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="13" t="s">
         <v>125</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -1519,71 +1535,71 @@
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D45" s="0"/>
     </row>
-    <row r="47" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="13" t="s">
+    <row r="47" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="5" t="s">
         <v>128</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="13" t="s">
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="5" t="s">
         <v>131</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="15" t="s">
         <v>132</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>133</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="15" t="s">
         <v>134</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="14" t="s">
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="15" t="s">
         <v>136</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="13" t="s">
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="14" t="s">
         <v>138</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="16" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="15" t="s">
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="5" t="s">
         <v>142</v>
       </c>
       <c r="D53" s="1" t="s">
@@ -1591,7 +1607,7 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="16" t="s">
+      <c r="A54" s="18" t="s">
         <v>143</v>
       </c>
       <c r="D54" s="1" t="s">
@@ -1599,73 +1615,73 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="16" t="s">
+      <c r="A55" s="18" t="s">
         <v>134</v>
       </c>
       <c r="D55" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D56" s="1" t="s">
+    <row r="57" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="18" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="57" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="16" t="s">
+      <c r="B57" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="D57" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>148</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="18" t="s">
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="20" t="s">
         <v>134</v>
       </c>
       <c r="D59" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="D60" s="1" t="s">
+    <row r="62" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="21" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="61" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="19" t="s">
+      <c r="B62" s="5" t="s">
         <v>153</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -1674,7 +1690,7 @@
       <formula>house_info!$D$34="n"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D57">
+  <conditionalFormatting sqref="D53:D57">
     <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>OR(house_info!$D$6="1",house_info!$D$6 &lt;&gt; "3"="1 1/2")</formula>
     </cfRule>
@@ -1709,7 +1725,7 @@
       <formula>house_info!$D$28 = "0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7 D7">
+  <conditionalFormatting sqref="G7 D7 D11">
     <cfRule type="expression" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>house_info!$D$4 = "1"</formula>
     </cfRule>

--- a/house_info.xlsx
+++ b/house_info.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="154">
   <si>
     <t xml:space="preserve">QUESTION</t>
   </si>
@@ -49,7 +49,7 @@
     <t xml:space="preserve">district</t>
   </si>
   <si>
-    <t xml:space="preserve">?</t>
+    <t xml:space="preserve">Queenswood Heights South</t>
   </si>
   <si>
     <t xml:space="preserve">Free=0/condo=1 </t>
@@ -58,7 +58,7 @@
     <t xml:space="preserve">ownership</t>
   </si>
   <si>
-    <t xml:space="preserve">0</t>
+    <t xml:space="preserve">1</t>
   </si>
   <si>
     <t xml:space="preserve">type Det=0/Semi=1/Town=2/Apt=3/Stack=4 </t>
@@ -67,13 +67,13 @@
     <t xml:space="preserve">type</t>
   </si>
   <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Storey</t>
   </si>
   <si>
     <t xml:space="preserve">storey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
   </si>
   <si>
     <t xml:space="preserve">For Freehold: 
@@ -96,7 +96,7 @@
     <t xml:space="preserve">condo_location</t>
   </si>
   <si>
-    <t xml:space="preserve">south,Castlefrank Road, Katimavik Road,interior</t>
+    <t xml:space="preserve">southwest,Tenth Line Road,Charlemagne Boulevard,interior</t>
   </si>
   <si>
     <t xml:space="preserve">Townhouse location end/interior</t>
@@ -105,7 +105,7 @@
     <t xml:space="preserve">townhouse_location</t>
   </si>
   <si>
-    <t xml:space="preserve">end</t>
+    <t xml:space="preserve">interior</t>
   </si>
   <si>
     <t xml:space="preserve">street type
@@ -115,19 +115,22 @@
     <t xml:space="preserve">street_type </t>
   </si>
   <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Owner=0/Tenant=1/Both=2/vacant=3 </t>
   </si>
   <si>
     <t xml:space="preserve">occupy</t>
   </si>
   <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Attach=0/Builtin=1/Detach=2/Underg=3/Aboveg=4/None+Driveway=5/NoneNone=6 </t>
   </si>
   <si>
     <t xml:space="preserve">parking_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
   </si>
   <si>
     <t xml:space="preserve">number of parking space</t>
@@ -156,9 +159,6 @@
     <t xml:space="preserve">.split(‘,’) </t>
   </si>
   <si>
-    <t xml:space="preserve">0,1,4</t>
-  </si>
-  <si>
     <t xml:space="preserve">if nuclear station exist: 
 Pickering = 0 / Darlington = 1</t>
   </si>
@@ -169,16 +169,13 @@
     <t xml:space="preserve">adverse_range</t>
   </si>
   <si>
-    <t xml:space="preserve">5,200,200</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nearby park/school </t>
   </si>
   <si>
     <t xml:space="preserve">facilities </t>
   </si>
   <si>
-    <t xml:space="preserve">Arnott Park</t>
+    <t xml:space="preserve">Kinsella Park</t>
   </si>
   <si>
     <t xml:space="preserve">electric underground=0/overhead=1 </t>
@@ -193,7 +190,7 @@
     <t xml:space="preserve">lease</t>
   </si>
   <si>
-    <t xml:space="preserve">y</t>
+    <t xml:space="preserve">n</t>
   </si>
   <si>
     <t xml:space="preserve">year built</t>
@@ -202,13 +199,13 @@
     <t xml:space="preserve">year_built</t>
   </si>
   <si>
-    <t xml:space="preserve">1966</t>
+    <t xml:space="preserve">1982</t>
   </si>
   <si>
     <t xml:space="preserve">sqft</t>
   </si>
   <si>
-    <t xml:space="preserve">1639</t>
+    <t xml:space="preserve">1146</t>
   </si>
   <si>
     <t xml:space="preserve">extra ownership checkbox
@@ -218,9 +215,6 @@
     <t xml:space="preserve">ownership_restriction_checkbox </t>
   </si>
   <si>
-    <t xml:space="preserve">n</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sales History</t>
   </si>
   <si>
@@ -230,7 +224,7 @@
     <t xml:space="preserve">geo_date</t>
   </si>
   <si>
-    <t xml:space="preserve">2001-05-17</t>
+    <t xml:space="preserve">2018-08-01</t>
   </si>
   <si>
     <t xml:space="preserve">geo name</t>
@@ -239,7 +233,7 @@
     <t xml:space="preserve">geo_name</t>
   </si>
   <si>
-    <t xml:space="preserve">HABETS, DANIEL; HABETS, CELINE; </t>
+    <t xml:space="preserve">JOSEPH, KYLE; </t>
   </si>
   <si>
     <t xml:space="preserve">geo price</t>
@@ -263,6 +257,9 @@
     <t xml:space="preserve">mls_no</t>
   </si>
   <si>
+    <t xml:space="preserve">E5456754</t>
+  </si>
+  <si>
     <t xml:space="preserve">E5365594 </t>
   </si>
   <si>
@@ -275,7 +272,7 @@
     <t xml:space="preserve">mls_date</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-07-13</t>
+    <t xml:space="preserve">2021-12-15</t>
   </si>
   <si>
     <t xml:space="preserve">2021-09-20</t>
@@ -293,7 +290,7 @@
     <t xml:space="preserve">listing_price</t>
   </si>
   <si>
-    <t xml:space="preserve">499000</t>
+    <t xml:space="preserve">1300000</t>
   </si>
   <si>
     <t xml:space="preserve">989900</t>
@@ -311,7 +308,7 @@
     <t xml:space="preserve">sold_price</t>
   </si>
   <si>
-    <t xml:space="preserve">570000</t>
+    <t xml:space="preserve">1320000</t>
   </si>
   <si>
     <t xml:space="preserve">1010000</t>
@@ -329,7 +326,7 @@
     <t xml:space="preserve">dom</t>
   </si>
   <si>
-    <t xml:space="preserve">8</t>
+    <t xml:space="preserve">14</t>
   </si>
   <si>
     <t xml:space="preserve">10</t>
@@ -353,7 +350,7 @@
     <t xml:space="preserve">psa_date</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-12-14</t>
+    <t xml:space="preserve">2021-12-20</t>
   </si>
   <si>
     <t xml:space="preserve">PSA Buyer</t>
@@ -362,7 +359,7 @@
     <t xml:space="preserve">psa_buyer</t>
   </si>
   <si>
-    <t xml:space="preserve">Mark Temple Cobbold &amp; Mary Clare Elizabeth Young</t>
+    <t xml:space="preserve">Luong Huy Nguyen</t>
   </si>
   <si>
     <t xml:space="preserve">PSA Seller</t>
@@ -371,7 +368,7 @@
     <t xml:space="preserve">psa_seller</t>
   </si>
   <si>
-    <t xml:space="preserve">Diana Marina Mayer</t>
+    <t xml:space="preserve">Abhijeet Dey &amp; Payel Dutta</t>
   </si>
   <si>
     <t xml:space="preserve">PSA Price</t>
@@ -380,7 +377,7 @@
     <t xml:space="preserve">psa_price</t>
   </si>
   <si>
-    <t xml:space="preserve">275000</t>
+    <t xml:space="preserve">1050000</t>
   </si>
   <si>
     <t xml:space="preserve">Interior layout</t>
@@ -401,75 +398,81 @@
     <t xml:space="preserve">family/den/laundry/storage</t>
   </si>
   <si>
-    <t xml:space="preserve">1,0,0,0</t>
+    <t xml:space="preserve">1,0,1,1</t>
   </si>
   <si>
     <t xml:space="preserve">bed/full bath/2-piece bath </t>
   </si>
   <si>
+    <t xml:space="preserve">0,0,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exterior brick=0/stone=1/vinyl=2/concrete=3/stucco=4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exterior_finish </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First Floor: living+dining+kitchen? (0 or 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">family room/den/office/laundry </t>
+  </si>
+  <si>
+    <t xml:space="preserve">storey_rooms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">master bed/ average bed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ensuite/full/partial bathroom </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,0,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flooring hardwood=0/broadloom=1/laminate=2/ceramic=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior1_floor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Second Floor living+dining+kitchen? (0 or 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">loft/den/office/laundry </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,2</t>
+  </si>
+  <si>
     <t xml:space="preserve">0,1,0</t>
   </si>
   <si>
-    <t xml:space="preserve">Exterior brick=0/stone=1/vinyl=2/concrete=3/stucco=4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exterior_finish </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First Floor: living+dining+kitchen? (0 or 1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interior1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">family room/den/office/laundry </t>
-  </si>
-  <si>
-    <t xml:space="preserve">storey_rooms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">master bed/ average bed </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ensuite/full/partial bathroom </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,0,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flooring hardwood=0/broadloom=1/laminate=2/ceramic=3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interior1_floor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Second Floor living+dining+kitchen? (0 or 1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interior2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">loft/den/office/laundry </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,1,1</t>
-  </si>
-  <si>
     <t xml:space="preserve">hardwood=0/broadloom=1/laminate=2/ceramic=3</t>
   </si>
   <si>
     <t xml:space="preserve">interior2_floor</t>
   </si>
   <si>
+    <t xml:space="preserve">0,1,3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Third Floor loft/den/office/laundry</t>
   </si>
   <si>
@@ -480,9 +483,6 @@
   </si>
   <si>
     <t xml:space="preserve">1,0,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,3</t>
   </si>
   <si>
     <t xml:space="preserve">Interior upgrades potlight=0/crown mouldings=1 empty = None</t>
@@ -499,7 +499,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -545,11 +545,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="12">
@@ -660,7 +655,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -723,10 +718,6 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -964,8 +955,8 @@
   </sheetPr>
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E52" activeCellId="0" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1046,18 +1037,18 @@
         <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="25.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1111,18 +1102,18 @@
         <v>29</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1133,52 +1124,52 @@
         <v>34</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="35.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>44</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1189,142 +1180,142 @@
         <v>46</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="D17" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D18" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="D22" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="1" t="s">
+    </row>
+    <row r="26" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="s">
+      <c r="D26" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D27" s="8" t="n">
-        <v>0</v>
+        <v>228500</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B28" s="1" t="s">
+    </row>
+    <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="9" t="s">
+      <c r="D29" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="E29" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="D29" s="10" t="n">
-        <v>1198548</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="F29" s="10" t="n">
         <v>1133198</v>
@@ -1333,203 +1324,203 @@
         <v>1115483</v>
       </c>
       <c r="I29" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="9" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="9" t="s">
+      <c r="B30" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="I30" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="9" t="s">
+      <c r="B31" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="I31" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="I31" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="9" t="s">
+      <c r="B32" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="I32" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="I32" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="9" t="s">
+      <c r="B33" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="I33" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="D34" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="D41" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1537,147 +1528,147 @@
     </row>
     <row r="47" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="D47" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B48" s="5" t="s">
-        <v>131</v>
-      </c>
       <c r="D48" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="D49" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D52" s="16" t="s">
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="16" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="17" t="s">
+      <c r="B53" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="D53" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="18" t="s">
+      <c r="D54" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>140</v>
-      </c>
     </row>
     <row r="56" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="18" t="s">
-        <v>136</v>
+      <c r="A56" s="17" t="s">
+        <v>135</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="18" t="s">
+      <c r="A57" s="17" t="s">
         <v>145</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>146</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="19" t="s">
-        <v>147</v>
+      <c r="A58" s="18" t="s">
+        <v>148</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="20" t="s">
-        <v>134</v>
+      <c r="A59" s="19" t="s">
+        <v>133</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="20" t="s">
-        <v>136</v>
+      <c r="A60" s="19" t="s">
+        <v>135</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="20" t="s">
+      <c r="A61" s="19" t="s">
         <v>145</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="21" t="s">
+      <c r="A62" s="20" t="s">
         <v>152</v>
       </c>
       <c r="B62" s="5" t="s">
@@ -1690,7 +1681,7 @@
       <formula>house_info!$D$34="n"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D53:D57">
+  <conditionalFormatting sqref="D53:D56">
     <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>OR(house_info!$D$6="1",house_info!$D$6 &lt;&gt; "3"="1 1/2")</formula>
     </cfRule>
@@ -1725,7 +1716,7 @@
       <formula>house_info!$D$28 = "0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7 D7 D11">
+  <conditionalFormatting sqref="G7 D7">
     <cfRule type="expression" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>house_info!$D$4 = "1"</formula>
     </cfRule>

--- a/house_info.xlsx
+++ b/house_info.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="154">
   <si>
     <t xml:space="preserve">QUESTION</t>
   </si>
@@ -49,7 +49,7 @@
     <t xml:space="preserve">district</t>
   </si>
   <si>
-    <t xml:space="preserve">Queenswood Heights South</t>
+    <t xml:space="preserve">Fernbank Crossing</t>
   </si>
   <si>
     <t xml:space="preserve">Free=0/condo=1 </t>
@@ -58,7 +58,7 @@
     <t xml:space="preserve">ownership</t>
   </si>
   <si>
-    <t xml:space="preserve">1</t>
+    <t xml:space="preserve">0</t>
   </si>
   <si>
     <t xml:space="preserve">type Det=0/Semi=1/Town=2/Apt=3/Stack=4 </t>
@@ -96,7 +96,7 @@
     <t xml:space="preserve">condo_location</t>
   </si>
   <si>
-    <t xml:space="preserve">southwest,Tenth Line Road,Charlemagne Boulevard,interior</t>
+    <t xml:space="preserve">southeast,Winchester Road East,Simcoe Street North,interior</t>
   </si>
   <si>
     <t xml:space="preserve">Townhouse location end/interior</t>
@@ -105,7 +105,7 @@
     <t xml:space="preserve">townhouse_location</t>
   </si>
   <si>
-    <t xml:space="preserve">interior</t>
+    <t xml:space="preserve">end</t>
   </si>
   <si>
     <t xml:space="preserve">street type
@@ -115,22 +115,19 @@
     <t xml:space="preserve">street_type </t>
   </si>
   <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Owner=0/Tenant=1/Both=2/vacant=3 </t>
   </si>
   <si>
     <t xml:space="preserve">occupy</t>
   </si>
   <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
     <t xml:space="preserve">Attach=0/Builtin=1/Detach=2/Underg=3/Aboveg=4/None+Driveway=5/NoneNone=6 </t>
   </si>
   <si>
     <t xml:space="preserve">parking_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
   </si>
   <si>
     <t xml:space="preserve">number of parking space</t>
@@ -169,13 +166,16 @@
     <t xml:space="preserve">adverse_range</t>
   </si>
   <si>
+    <t xml:space="preserve">200</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nearby park/school </t>
   </si>
   <si>
     <t xml:space="preserve">facilities </t>
   </si>
   <si>
-    <t xml:space="preserve">Kinsella Park</t>
+    <t xml:space="preserve">Rubicon Park</t>
   </si>
   <si>
     <t xml:space="preserve">electric underground=0/overhead=1 </t>
@@ -199,13 +199,13 @@
     <t xml:space="preserve">year_built</t>
   </si>
   <si>
-    <t xml:space="preserve">1982</t>
+    <t xml:space="preserve">2020</t>
   </si>
   <si>
     <t xml:space="preserve">sqft</t>
   </si>
   <si>
-    <t xml:space="preserve">1146</t>
+    <t xml:space="preserve">1569</t>
   </si>
   <si>
     <t xml:space="preserve">extra ownership checkbox
@@ -224,7 +224,7 @@
     <t xml:space="preserve">geo_date</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-08-01</t>
+    <t xml:space="preserve">2019-02-21</t>
   </si>
   <si>
     <t xml:space="preserve">geo name</t>
@@ -233,7 +233,7 @@
     <t xml:space="preserve">geo_name</t>
   </si>
   <si>
-    <t xml:space="preserve">JOSEPH, KYLE; </t>
+    <t xml:space="preserve">FENG, WING; </t>
   </si>
   <si>
     <t xml:space="preserve">geo price</t>
@@ -257,10 +257,16 @@
     <t xml:space="preserve">mls_no</t>
   </si>
   <si>
-    <t xml:space="preserve">E5456754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E5365594 </t>
+    <t xml:space="preserve">E972176 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E5438771 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E5331787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E5296234 </t>
   </si>
   <si>
     <t xml:space="preserve">///only takes 5 mls maximum</t>
@@ -272,16 +278,16 @@
     <t xml:space="preserve">mls_date</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-12-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-09-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-11-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-11-15</t>
+    <t xml:space="preserve">2006-08-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-11-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-08-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-07-05</t>
   </si>
   <si>
     <t xml:space="preserve">Listing Price</t>
@@ -290,16 +296,13 @@
     <t xml:space="preserve">listing_price</t>
   </si>
   <si>
-    <t xml:space="preserve">1300000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">989900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">689900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">739900</t>
+    <t xml:space="preserve">238000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">599000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">549000</t>
   </si>
   <si>
     <t xml:space="preserve">Sold price/ter/can/sus/cond/exp/act</t>
@@ -308,16 +311,13 @@
     <t xml:space="preserve">sold_price</t>
   </si>
   <si>
-    <t xml:space="preserve">1320000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1010000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">650000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp</t>
+    <t xml:space="preserve">232000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">635000</t>
   </si>
   <si>
     <t xml:space="preserve">Days on Market</t>
@@ -326,16 +326,16 @@
     <t xml:space="preserve">dom</t>
   </si>
   <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">140</t>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
   </si>
   <si>
     <t xml:space="preserve">PSA? y/n</t>
@@ -350,7 +350,7 @@
     <t xml:space="preserve">psa_date</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-12-20</t>
+    <t xml:space="preserve">2021-12-17</t>
   </si>
   <si>
     <t xml:space="preserve">PSA Buyer</t>
@@ -359,7 +359,7 @@
     <t xml:space="preserve">psa_buyer</t>
   </si>
   <si>
-    <t xml:space="preserve">Luong Huy Nguyen</t>
+    <t xml:space="preserve">Ahmed Farooq &amp; Ahmer Muhammad Farooq</t>
   </si>
   <si>
     <t xml:space="preserve">PSA Seller</t>
@@ -368,7 +368,7 @@
     <t xml:space="preserve">psa_seller</t>
   </si>
   <si>
-    <t xml:space="preserve">Abhijeet Dey &amp; Payel Dutta</t>
+    <t xml:space="preserve">Kareem Kabba &amp; Felix Thomas</t>
   </si>
   <si>
     <t xml:space="preserve">PSA Price</t>
@@ -377,9 +377,6 @@
     <t xml:space="preserve">psa_price</t>
   </si>
   <si>
-    <t xml:space="preserve">1050000</t>
-  </si>
-  <si>
     <t xml:space="preserve">Interior layout</t>
   </si>
   <si>
@@ -392,42 +389,42 @@
     <t xml:space="preserve">living/dining/kitchen/rec</t>
   </si>
   <si>
+    <t xml:space="preserve">0,0,0,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">family/den/laundry/storage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bed/full bath/2-piece bath </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,0,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exterior brick=0/stone=1/vinyl=2/concrete=3/stucco=4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exterior_finish </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First Floor: living+dining+kitchen? (0 or 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">family room/den/office/laundry </t>
+  </si>
+  <si>
+    <t xml:space="preserve">storey_rooms</t>
+  </si>
+  <si>
     <t xml:space="preserve">0,0,0,0</t>
   </si>
   <si>
-    <t xml:space="preserve">family/den/laundry/storage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,0,1,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bed/full bath/2-piece bath </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,0,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exterior brick=0/stone=1/vinyl=2/concrete=3/stucco=4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exterior_finish </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First Floor: living+dining+kitchen? (0 or 1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interior1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">family room/den/office/laundry </t>
-  </si>
-  <si>
-    <t xml:space="preserve">storey_rooms</t>
-  </si>
-  <si>
     <t xml:space="preserve">master bed/ average bed </t>
   </si>
   <si>
@@ -458,10 +455,13 @@
     <t xml:space="preserve">loft/den/office/laundry </t>
   </si>
   <si>
+    <t xml:space="preserve">1,0,0,1</t>
+  </si>
+  <si>
     <t xml:space="preserve">1,2</t>
   </si>
   <si>
-    <t xml:space="preserve">0,1,0</t>
+    <t xml:space="preserve">1,1,0</t>
   </si>
   <si>
     <t xml:space="preserve">hardwood=0/broadloom=1/laminate=2/ceramic=3</t>
@@ -470,7 +470,7 @@
     <t xml:space="preserve">interior2_floor</t>
   </si>
   <si>
-    <t xml:space="preserve">0,1,3</t>
+    <t xml:space="preserve">1,3</t>
   </si>
   <si>
     <t xml:space="preserve">Third Floor loft/den/office/laundry</t>
@@ -955,8 +955,8 @@
   </sheetPr>
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E52" activeCellId="0" sqref="E52"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1102,18 +1102,18 @@
         <v>29</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1124,66 +1124,64 @@
         <v>34</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="35.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="0"/>
+      <c r="E15" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="F15" s="1" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1205,7 +1203,7 @@
         <v>51</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1287,7 +1285,7 @@
         <v>70</v>
       </c>
       <c r="D27" s="8" t="n">
-        <v>228500</v>
+        <v>78849</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1298,7 +1296,7 @@
         <v>72</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>73</v>
@@ -1317,83 +1315,84 @@
       <c r="E29" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F29" s="10" t="n">
-        <v>1133198</v>
-      </c>
-      <c r="G29" s="10" t="n">
-        <v>1115483</v>
-      </c>
+      <c r="F29" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H29" s="7"/>
       <c r="I29" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F32" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="I32" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1416,7 +1415,7 @@
         <v>102</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1471,56 +1470,56 @@
         <v>115</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="D41" s="1" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1528,86 +1527,86 @@
     </row>
     <row r="47" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B53" s="5" t="s">
-        <v>141</v>
-      </c>
       <c r="D53" s="1" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>143</v>
@@ -1615,7 +1614,7 @@
     </row>
     <row r="56" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>144</v>
@@ -1640,12 +1639,12 @@
         <v>149</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>150</v>
@@ -1653,7 +1652,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>151</v>
@@ -1664,7 +1663,7 @@
         <v>145</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1673,6 +1672,9 @@
       </c>
       <c r="B62" s="5" t="s">
         <v>153</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/house_info.xlsx
+++ b/house_info.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="155">
   <si>
     <t xml:space="preserve">QUESTION</t>
   </si>
@@ -40,7 +40,7 @@
     <t xml:space="preserve">city</t>
   </si>
   <si>
-    <t xml:space="preserve">Ottawa</t>
+    <t xml:space="preserve">Toronto</t>
   </si>
   <si>
     <t xml:space="preserve">District</t>
@@ -49,7 +49,7 @@
     <t xml:space="preserve">district</t>
   </si>
   <si>
-    <t xml:space="preserve">Fernbank Crossing</t>
+    <t xml:space="preserve">Rouge </t>
   </si>
   <si>
     <t xml:space="preserve">Free=0/condo=1 </t>
@@ -67,13 +67,13 @@
     <t xml:space="preserve">type</t>
   </si>
   <si>
+    <t xml:space="preserve">Storey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">storey</t>
+  </si>
+  <si>
     <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Storey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">storey</t>
   </si>
   <si>
     <t xml:space="preserve">For Freehold: 
@@ -96,7 +96,7 @@
     <t xml:space="preserve">condo_location</t>
   </si>
   <si>
-    <t xml:space="preserve">southeast,Winchester Road East,Simcoe Street North,interior</t>
+    <t xml:space="preserve">northwest,Carling Avenue,Preston Street,corner</t>
   </si>
   <si>
     <t xml:space="preserve">Townhouse location end/interior</t>
@@ -156,6 +156,9 @@
     <t xml:space="preserve">.split(‘,’) </t>
   </si>
   <si>
+    <t xml:space="preserve">1,4</t>
+  </si>
+  <si>
     <t xml:space="preserve">if nuclear station exist: 
 Pickering = 0 / Darlington = 1</t>
   </si>
@@ -166,7 +169,7 @@
     <t xml:space="preserve">adverse_range</t>
   </si>
   <si>
-    <t xml:space="preserve">200</t>
+    <t xml:space="preserve">200,1</t>
   </si>
   <si>
     <t xml:space="preserve">Nearby park/school </t>
@@ -175,7 +178,7 @@
     <t xml:space="preserve">facilities </t>
   </si>
   <si>
-    <t xml:space="preserve">Rubicon Park</t>
+    <t xml:space="preserve">Sisken Park, Misty Hills Park</t>
   </si>
   <si>
     <t xml:space="preserve">electric underground=0/overhead=1 </t>
@@ -190,7 +193,7 @@
     <t xml:space="preserve">lease</t>
   </si>
   <si>
-    <t xml:space="preserve">n</t>
+    <t xml:space="preserve">y</t>
   </si>
   <si>
     <t xml:space="preserve">year built</t>
@@ -199,13 +202,13 @@
     <t xml:space="preserve">year_built</t>
   </si>
   <si>
-    <t xml:space="preserve">2020</t>
+    <t xml:space="preserve">2003</t>
   </si>
   <si>
     <t xml:space="preserve">sqft</t>
   </si>
   <si>
-    <t xml:space="preserve">1569</t>
+    <t xml:space="preserve">1826</t>
   </si>
   <si>
     <t xml:space="preserve">extra ownership checkbox
@@ -215,6 +218,9 @@
     <t xml:space="preserve">ownership_restriction_checkbox </t>
   </si>
   <si>
+    <t xml:space="preserve">n</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sales History</t>
   </si>
   <si>
@@ -224,7 +230,7 @@
     <t xml:space="preserve">geo_date</t>
   </si>
   <si>
-    <t xml:space="preserve">2019-02-21</t>
+    <t xml:space="preserve">2020-04-09</t>
   </si>
   <si>
     <t xml:space="preserve">geo name</t>
@@ -233,7 +239,7 @@
     <t xml:space="preserve">geo_name</t>
   </si>
   <si>
-    <t xml:space="preserve">FENG, WING; </t>
+    <t xml:space="preserve">HAWKINS, AMANDA ELLEN RACHEL; LOGAN, GREGORY NEIL; </t>
   </si>
   <si>
     <t xml:space="preserve">geo price</t>
@@ -257,7 +263,7 @@
     <t xml:space="preserve">mls_no</t>
   </si>
   <si>
-    <t xml:space="preserve">E972176 </t>
+    <t xml:space="preserve">E2913210 </t>
   </si>
   <si>
     <t xml:space="preserve">E5438771 </t>
@@ -278,7 +284,7 @@
     <t xml:space="preserve">mls_date</t>
   </si>
   <si>
-    <t xml:space="preserve">2006-08-23</t>
+    <t xml:space="preserve">2014-05-16</t>
   </si>
   <si>
     <t xml:space="preserve">2021-11-22</t>
@@ -296,7 +302,7 @@
     <t xml:space="preserve">listing_price</t>
   </si>
   <si>
-    <t xml:space="preserve">238000</t>
+    <t xml:space="preserve">299900</t>
   </si>
   <si>
     <t xml:space="preserve">599000</t>
@@ -311,7 +317,7 @@
     <t xml:space="preserve">sold_price</t>
   </si>
   <si>
-    <t xml:space="preserve">232000</t>
+    <t xml:space="preserve">307900</t>
   </si>
   <si>
     <t xml:space="preserve">ter</t>
@@ -326,7 +332,7 @@
     <t xml:space="preserve">dom</t>
   </si>
   <si>
-    <t xml:space="preserve">5</t>
+    <t xml:space="preserve">7</t>
   </si>
   <si>
     <t xml:space="preserve">11</t>
@@ -350,7 +356,7 @@
     <t xml:space="preserve">psa_date</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-12-17</t>
+    <t xml:space="preserve">2021-11-18</t>
   </si>
   <si>
     <t xml:space="preserve">PSA Buyer</t>
@@ -359,7 +365,7 @@
     <t xml:space="preserve">psa_buyer</t>
   </si>
   <si>
-    <t xml:space="preserve">Ahmed Farooq &amp; Ahmer Muhammad Farooq</t>
+    <t xml:space="preserve">Emma Ferguson &amp; Logan Wiwchar</t>
   </si>
   <si>
     <t xml:space="preserve">PSA Seller</t>
@@ -368,7 +374,7 @@
     <t xml:space="preserve">psa_seller</t>
   </si>
   <si>
-    <t xml:space="preserve">Kareem Kabba &amp; Felix Thomas</t>
+    <t xml:space="preserve">Kordan Harvey &amp; Jonathan Neil Harvey &amp; Elizabeth Harvey</t>
   </si>
   <si>
     <t xml:space="preserve">PSA Price</t>
@@ -377,6 +383,9 @@
     <t xml:space="preserve">psa_price</t>
   </si>
   <si>
+    <t xml:space="preserve">622000</t>
+  </si>
+  <si>
     <t xml:space="preserve">Interior layout</t>
   </si>
   <si>
@@ -389,42 +398,42 @@
     <t xml:space="preserve">living/dining/kitchen/rec</t>
   </si>
   <si>
+    <t xml:space="preserve">1,1,1,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">family/den/laundry/storage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,0,0,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bed/full bath/2-piece bath </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,1,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exterior brick=0/stone=1/vinyl=2/concrete=3/stucco=4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exterior_finish </t>
+  </si>
+  <si>
+    <t xml:space="preserve">First Floor: living+dining+kitchen? (0 or 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">family room/den/office/laundry </t>
+  </si>
+  <si>
+    <t xml:space="preserve">storey_rooms</t>
+  </si>
+  <si>
     <t xml:space="preserve">0,0,0,1</t>
   </si>
   <si>
-    <t xml:space="preserve">family/den/laundry/storage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bed/full bath/2-piece bath </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,0,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exterior brick=0/stone=1/vinyl=2/concrete=3/stucco=4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exterior_finish </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First Floor: living+dining+kitchen? (0 or 1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interior1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">family room/den/office/laundry </t>
-  </si>
-  <si>
-    <t xml:space="preserve">storey_rooms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,0,0,0</t>
-  </si>
-  <si>
     <t xml:space="preserve">master bed/ average bed </t>
   </si>
   <si>
@@ -455,10 +464,7 @@
     <t xml:space="preserve">loft/den/office/laundry </t>
   </si>
   <si>
-    <t xml:space="preserve">1,0,0,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,2</t>
+    <t xml:space="preserve">1,3</t>
   </si>
   <si>
     <t xml:space="preserve">1,1,0</t>
@@ -468,9 +474,6 @@
   </si>
   <si>
     <t xml:space="preserve">interior2_floor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,3</t>
   </si>
   <si>
     <t xml:space="preserve">Third Floor loft/den/office/laundry</t>
@@ -672,6 +675,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -682,10 +689,6 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -955,7 +958,7 @@
   </sheetPr>
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -1007,19 +1010,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1030,35 +1033,35 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="25.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1070,13 +1073,13 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -1087,7 +1090,7 @@
       <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -1095,10 +1098,10 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -1106,18 +1109,18 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1135,11 +1138,11 @@
         <v>36</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1153,7 +1156,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="35.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1162,9 +1165,11 @@
       <c r="C15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="0"/>
-      <c r="E15" s="5" t="s">
+      <c r="D15" s="1" t="s">
         <v>43</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>12</v>
@@ -1172,35 +1177,35 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="5" t="s">
+      <c r="A17" s="5" t="s">
         <v>48</v>
       </c>
+      <c r="B17" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="D17" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
-        <v>50</v>
+      <c r="A18" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>12</v>
@@ -1208,318 +1213,318 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="5" t="s">
+      <c r="A22" s="5" t="s">
         <v>61</v>
       </c>
+      <c r="B22" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="D22" s="1" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="s">
-        <v>62</v>
+      <c r="A24" s="7" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="s">
-        <v>63</v>
+      <c r="A25" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="s">
-        <v>69</v>
+      <c r="A27" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D27" s="8" t="n">
-        <v>78849</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E29" s="7" t="s">
         <v>77</v>
       </c>
+      <c r="D29" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="F29" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H29" s="7"/>
+        <v>80</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H29" s="4"/>
       <c r="I29" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="11" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="11" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="11" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="12" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="12" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="13" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="D43" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1527,21 +1532,21 @@
     </row>
     <row r="47" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>125</v>
+        <v>128</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>30</v>
@@ -1549,48 +1554,48 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="15" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="15" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="15" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="14" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>143</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>12</v>
@@ -1598,83 +1603,80 @@
     </row>
     <row r="54" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="17" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="17" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="17" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="17" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="18" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="19" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="19" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="19" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="B62" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>12</v>
+      <c r="B62" s="6" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -1708,12 +1710,12 @@
       <formula>OR(house_info!$D$4&lt;&gt;"0",house_info!$D$5&lt;&gt;"2")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:G33">
+  <conditionalFormatting sqref="D31:G33 D28">
     <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>house_info!$D$28="0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D30:G33">
+  <conditionalFormatting sqref="D30:G33 D28">
     <cfRule type="expression" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>house_info!$D$28 = "0"</formula>
     </cfRule>

--- a/house_info.xlsx
+++ b/house_info.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="153">
   <si>
     <t xml:space="preserve">QUESTION</t>
   </si>
@@ -40,7 +40,7 @@
     <t xml:space="preserve">city</t>
   </si>
   <si>
-    <t xml:space="preserve">Toronto</t>
+    <t xml:space="preserve">Pickering</t>
   </si>
   <si>
     <t xml:space="preserve">District</t>
@@ -49,7 +49,7 @@
     <t xml:space="preserve">district</t>
   </si>
   <si>
-    <t xml:space="preserve">Rouge </t>
+    <t xml:space="preserve">Rosebank </t>
   </si>
   <si>
     <t xml:space="preserve">Free=0/condo=1 </t>
@@ -86,6 +86,9 @@
     <t xml:space="preserve">.split(',') </t>
   </si>
   <si>
+    <t xml:space="preserve">irregular,interior,a greenspace</t>
+  </si>
+  <si>
     <t xml:space="preserve">rectangular,interior,other residential lots</t>
   </si>
   <si>
@@ -96,7 +99,7 @@
     <t xml:space="preserve">condo_location</t>
   </si>
   <si>
-    <t xml:space="preserve">northwest,Carling Avenue,Preston Street,corner</t>
+    <t xml:space="preserve">southwest,Warden Avenue,McNicoll Avenue,interior</t>
   </si>
   <si>
     <t xml:space="preserve">Townhouse location end/interior</t>
@@ -156,9 +159,6 @@
     <t xml:space="preserve">.split(‘,’) </t>
   </si>
   <si>
-    <t xml:space="preserve">1,4</t>
-  </si>
-  <si>
     <t xml:space="preserve">if nuclear station exist: 
 Pickering = 0 / Darlington = 1</t>
   </si>
@@ -169,16 +169,13 @@
     <t xml:space="preserve">adverse_range</t>
   </si>
   <si>
-    <t xml:space="preserve">200,1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nearby park/school </t>
   </si>
   <si>
     <t xml:space="preserve">facilities </t>
   </si>
   <si>
-    <t xml:space="preserve">Sisken Park, Misty Hills Park</t>
+    <t xml:space="preserve">Petticoat Creek Conservation Area</t>
   </si>
   <si>
     <t xml:space="preserve">electric underground=0/overhead=1 </t>
@@ -193,7 +190,7 @@
     <t xml:space="preserve">lease</t>
   </si>
   <si>
-    <t xml:space="preserve">y</t>
+    <t xml:space="preserve">n</t>
   </si>
   <si>
     <t xml:space="preserve">year built</t>
@@ -202,13 +199,13 @@
     <t xml:space="preserve">year_built</t>
   </si>
   <si>
-    <t xml:space="preserve">2003</t>
+    <t xml:space="preserve">1960</t>
   </si>
   <si>
     <t xml:space="preserve">sqft</t>
   </si>
   <si>
-    <t xml:space="preserve">1826</t>
+    <t xml:space="preserve">3489</t>
   </si>
   <si>
     <t xml:space="preserve">extra ownership checkbox
@@ -218,9 +215,6 @@
     <t xml:space="preserve">ownership_restriction_checkbox </t>
   </si>
   <si>
-    <t xml:space="preserve">n</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sales History</t>
   </si>
   <si>
@@ -230,7 +224,7 @@
     <t xml:space="preserve">geo_date</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-04-09</t>
+    <t xml:space="preserve">2020-10-29</t>
   </si>
   <si>
     <t xml:space="preserve">geo name</t>
@@ -239,7 +233,7 @@
     <t xml:space="preserve">geo_name</t>
   </si>
   <si>
-    <t xml:space="preserve">HAWKINS, AMANDA ELLEN RACHEL; LOGAN, GREGORY NEIL; </t>
+    <t xml:space="preserve">GRANT, PATRICIA; GRANT, WILLIAM; </t>
   </si>
   <si>
     <t xml:space="preserve">geo price</t>
@@ -398,7 +392,7 @@
     <t xml:space="preserve">living/dining/kitchen/rec</t>
   </si>
   <si>
-    <t xml:space="preserve">1,1,1,0</t>
+    <t xml:space="preserve">0,0,0,1</t>
   </si>
   <si>
     <t xml:space="preserve">family/den/laundry/storage</t>
@@ -410,64 +404,64 @@
     <t xml:space="preserve">bed/full bath/2-piece bath </t>
   </si>
   <si>
+    <t xml:space="preserve">1,1,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exterior brick=0/stone=1/vinyl=2/concrete=3/stucco=4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exterior_finish </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First Floor: living+dining+kitchen? (0 or 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">family room/den/office/laundry </t>
+  </si>
+  <si>
+    <t xml:space="preserve">storey_rooms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">master bed/ average bed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ensuite/full/partial bathroom </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,0,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flooring hardwood=0/broadloom=1/laminate=2/ceramic=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior1_floor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Second Floor living+dining+kitchen? (0 or 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">loft/den/office/laundry </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,4</t>
+  </si>
+  <si>
     <t xml:space="preserve">2,1,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exterior brick=0/stone=1/vinyl=2/concrete=3/stucco=4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exterior_finish </t>
-  </si>
-  <si>
-    <t xml:space="preserve">First Floor: living+dining+kitchen? (0 or 1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interior1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">family room/den/office/laundry </t>
-  </si>
-  <si>
-    <t xml:space="preserve">storey_rooms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,0,0,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">master bed/ average bed </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ensuite/full/partial bathroom </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,0,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flooring hardwood=0/broadloom=1/laminate=2/ceramic=3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interior1_floor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Second Floor living+dining+kitchen? (0 or 1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interior2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">loft/den/office/laundry </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,1,0</t>
   </si>
   <si>
     <t xml:space="preserve">hardwood=0/broadloom=1/laminate=2/ceramic=3</t>
@@ -958,8 +952,8 @@
   </sheetPr>
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1069,62 +1063,62 @@
       </c>
       <c r="F7" s="0"/>
       <c r="G7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>12</v>
@@ -1132,10 +1126,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>17</v>
@@ -1143,13 +1137,13 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>12</v>
@@ -1157,16 +1151,16 @@
     </row>
     <row r="15" customFormat="false" ht="35.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>44</v>
@@ -1183,348 +1177,348 @@
         <v>46</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="D17" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D18" s="1" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>62</v>
-      </c>
       <c r="D22" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="1" t="s">
+    </row>
+    <row r="26" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="7" t="s">
+      <c r="D26" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D27" s="8" t="n">
-        <v>550000</v>
+        <v>1250000</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="E29" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="F29" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="G29" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="H29" s="4"/>
       <c r="I29" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="I30" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="G31" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="G32" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="I33" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1532,70 +1526,70 @@
     </row>
     <row r="47" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="B48" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B48" s="6" t="s">
-        <v>131</v>
-      </c>
       <c r="D48" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="D49" s="1" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>12</v>
@@ -1603,80 +1597,83 @@
     </row>
     <row r="54" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="17" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="17" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="18" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="19" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="19" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/house_info.xlsx
+++ b/house_info.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="158">
   <si>
     <t xml:space="preserve">QUESTION</t>
   </si>
@@ -40,7 +40,7 @@
     <t xml:space="preserve">city</t>
   </si>
   <si>
-    <t xml:space="preserve">Pickering</t>
+    <t xml:space="preserve">Clarington</t>
   </si>
   <si>
     <t xml:space="preserve">District</t>
@@ -49,7 +49,7 @@
     <t xml:space="preserve">district</t>
   </si>
   <si>
-    <t xml:space="preserve">Rosebank </t>
+    <t xml:space="preserve">Bowmanville</t>
   </si>
   <si>
     <t xml:space="preserve">Free=0/condo=1 </t>
@@ -67,13 +67,13 @@
     <t xml:space="preserve">type</t>
   </si>
   <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Storey</t>
   </si>
   <si>
     <t xml:space="preserve">storey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
   </si>
   <si>
     <t xml:space="preserve">For Freehold: 
@@ -86,7 +86,7 @@
     <t xml:space="preserve">.split(',') </t>
   </si>
   <si>
-    <t xml:space="preserve">irregular,interior,a greenspace</t>
+    <t xml:space="preserve">rectangular,interior,a park</t>
   </si>
   <si>
     <t xml:space="preserve">rectangular,interior,other residential lots</t>
@@ -99,7 +99,10 @@
     <t xml:space="preserve">condo_location</t>
   </si>
   <si>
-    <t xml:space="preserve">southwest,Warden Avenue,McNicoll Avenue,interior</t>
+    <t xml:space="preserve">southwest,Baseline Road,Greenbank Road,interior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rectangular shaped interior lot</t>
   </si>
   <si>
     <t xml:space="preserve">Townhouse location end/interior</t>
@@ -108,7 +111,7 @@
     <t xml:space="preserve">townhouse_location</t>
   </si>
   <si>
-    <t xml:space="preserve">end</t>
+    <t xml:space="preserve">interior</t>
   </si>
   <si>
     <t xml:space="preserve">street type
@@ -125,6 +128,9 @@
   </si>
   <si>
     <t xml:space="preserve">occupy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
   </si>
   <si>
     <t xml:space="preserve">Attach=0/Builtin=1/Detach=2/Underg=3/Aboveg=4/None+Driveway=5/NoneNone=6 </t>
@@ -159,6 +165,9 @@
     <t xml:space="preserve">.split(‘,’) </t>
   </si>
   <si>
+    <t xml:space="preserve">1,5</t>
+  </si>
+  <si>
     <t xml:space="preserve">if nuclear station exist: 
 Pickering = 0 / Darlington = 1</t>
   </si>
@@ -169,13 +178,16 @@
     <t xml:space="preserve">adverse_range</t>
   </si>
   <si>
+    <t xml:space="preserve">500,5</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nearby park/school </t>
   </si>
   <si>
     <t xml:space="preserve">facilities </t>
   </si>
   <si>
-    <t xml:space="preserve">Petticoat Creek Conservation Area</t>
+    <t xml:space="preserve">Rhonda Park</t>
   </si>
   <si>
     <t xml:space="preserve">electric underground=0/overhead=1 </t>
@@ -199,13 +211,13 @@
     <t xml:space="preserve">year_built</t>
   </si>
   <si>
-    <t xml:space="preserve">1960</t>
+    <t xml:space="preserve">1994</t>
   </si>
   <si>
     <t xml:space="preserve">sqft</t>
   </si>
   <si>
-    <t xml:space="preserve">3489</t>
+    <t xml:space="preserve">1389</t>
   </si>
   <si>
     <t xml:space="preserve">extra ownership checkbox
@@ -224,7 +236,7 @@
     <t xml:space="preserve">geo_date</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-10-29</t>
+    <t xml:space="preserve">2014-09-05</t>
   </si>
   <si>
     <t xml:space="preserve">geo name</t>
@@ -233,7 +245,7 @@
     <t xml:space="preserve">geo_name</t>
   </si>
   <si>
-    <t xml:space="preserve">GRANT, PATRICIA; GRANT, WILLIAM; </t>
+    <t xml:space="preserve">ROSS, SADIE; ROSS, PATRICK MCKENZIE; </t>
   </si>
   <si>
     <t xml:space="preserve">geo price</t>
@@ -257,16 +269,19 @@
     <t xml:space="preserve">mls_no</t>
   </si>
   <si>
-    <t xml:space="preserve">E2913210 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E5438771 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E5331787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E5296234 </t>
+    <t xml:space="preserve">E5469610</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E5113693 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">W4470113 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">W4470114 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">W4445285 </t>
   </si>
   <si>
     <t xml:space="preserve">///only takes 5 mls maximum</t>
@@ -278,16 +293,16 @@
     <t xml:space="preserve">mls_date</t>
   </si>
   <si>
-    <t xml:space="preserve">2014-05-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-11-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-08-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-07-05</t>
+    <t xml:space="preserve">2022-01-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-02-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-05-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-05-09</t>
   </si>
   <si>
     <t xml:space="preserve">Listing Price</t>
@@ -296,13 +311,13 @@
     <t xml:space="preserve">listing_price</t>
   </si>
   <si>
-    <t xml:space="preserve">299900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">599000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">549000</t>
+    <t xml:space="preserve">989900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">749000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">799000</t>
   </si>
   <si>
     <t xml:space="preserve">Sold price/ter/can/sus/cond/exp/act</t>
@@ -311,13 +326,16 @@
     <t xml:space="preserve">sold_price</t>
   </si>
   <si>
-    <t xml:space="preserve">307900</t>
+    <t xml:space="preserve">900000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1118000</t>
   </si>
   <si>
     <t xml:space="preserve">ter</t>
   </si>
   <si>
-    <t xml:space="preserve">635000</t>
+    <t xml:space="preserve">785000</t>
   </si>
   <si>
     <t xml:space="preserve">Days on Market</t>
@@ -326,31 +344,34 @@
     <t xml:space="preserve">dom</t>
   </si>
   <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34</t>
+    <t xml:space="preserve">4</t>
   </si>
   <si>
     <t xml:space="preserve">8</t>
   </si>
   <si>
+    <t xml:space="preserve">21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22</t>
+  </si>
+  <si>
     <t xml:space="preserve">PSA? y/n</t>
   </si>
   <si>
     <t xml:space="preserve">psa</t>
   </si>
   <si>
+    <t xml:space="preserve">y</t>
+  </si>
+  <si>
     <t xml:space="preserve">PSA date</t>
   </si>
   <si>
     <t xml:space="preserve">psa_date</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-11-18</t>
+    <t xml:space="preserve">2022-01-14</t>
   </si>
   <si>
     <t xml:space="preserve">PSA Buyer</t>
@@ -359,7 +380,7 @@
     <t xml:space="preserve">psa_buyer</t>
   </si>
   <si>
-    <t xml:space="preserve">Emma Ferguson &amp; Logan Wiwchar</t>
+    <t xml:space="preserve">Krista Dawn Silva</t>
   </si>
   <si>
     <t xml:space="preserve">PSA Seller</t>
@@ -368,7 +389,7 @@
     <t xml:space="preserve">psa_seller</t>
   </si>
   <si>
-    <t xml:space="preserve">Kordan Harvey &amp; Jonathan Neil Harvey &amp; Elizabeth Harvey</t>
+    <t xml:space="preserve">Sadie Ross &amp; Patrick Ross</t>
   </si>
   <si>
     <t xml:space="preserve">PSA Price</t>
@@ -377,9 +398,6 @@
     <t xml:space="preserve">psa_price</t>
   </si>
   <si>
-    <t xml:space="preserve">622000</t>
-  </si>
-  <si>
     <t xml:space="preserve">Interior layout</t>
   </si>
   <si>
@@ -392,78 +410,78 @@
     <t xml:space="preserve">living/dining/kitchen/rec</t>
   </si>
   <si>
+    <t xml:space="preserve">0,0,0,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">family/den/laundry/storage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,0,1,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bed/full bath/2-piece bath </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,0,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exterior brick=0/stone=1/vinyl=2/concrete=3/stucco=4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exterior_finish </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First Floor: living+dining+kitchen? (0 or 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">family room/den/office/laundry </t>
+  </si>
+  <si>
+    <t xml:space="preserve">storey_rooms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">master bed/ average bed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ensuite/full/partial bathroom </t>
+  </si>
+  <si>
     <t xml:space="preserve">0,0,0,1</t>
   </si>
   <si>
-    <t xml:space="preserve">family/den/laundry/storage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,0,0,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bed/full bath/2-piece bath </t>
+    <t xml:space="preserve">flooring hardwood=0/broadloom=1/laminate=2/ceramic=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior1_floor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Second Floor living+dining+kitchen? (0 or 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">loft/den/office/laundry </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,1</t>
   </si>
   <si>
     <t xml:space="preserve">1,1,0</t>
   </si>
   <si>
-    <t xml:space="preserve">Exterior brick=0/stone=1/vinyl=2/concrete=3/stucco=4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exterior_finish </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First Floor: living+dining+kitchen? (0 or 1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interior1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">family room/den/office/laundry </t>
-  </si>
-  <si>
-    <t xml:space="preserve">storey_rooms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">master bed/ average bed </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ensuite/full/partial bathroom </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,0,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flooring hardwood=0/broadloom=1/laminate=2/ceramic=3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interior1_floor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Second Floor living+dining+kitchen? (0 or 1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interior2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">loft/den/office/laundry </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,1,0</t>
-  </si>
-  <si>
     <t xml:space="preserve">hardwood=0/broadloom=1/laminate=2/ceramic=3</t>
   </si>
   <si>
@@ -474,9 +492,6 @@
   </si>
   <si>
     <t xml:space="preserve">interior3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,1</t>
   </si>
   <si>
     <t xml:space="preserve">1,0,1</t>
@@ -538,7 +553,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="7"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -953,7 +968,7 @@
   <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1034,18 +1049,18 @@
         <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="25.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1079,46 +1094,49 @@
       <c r="D8" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="G8" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>12</v>
@@ -1126,24 +1144,24 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>12</v>
@@ -1151,338 +1169,352 @@
     </row>
     <row r="15" customFormat="false" ht="35.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="D16" s="1" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D27" s="8" t="n">
-        <v>1250000</v>
+        <v>265000</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>78</v>
+        <v>81</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H29" s="4"/>
+        <v>83</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="I29" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F30" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
+      </c>
+      <c r="D31" s="10" t="n">
+        <v>599900</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="9" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="11" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>54</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="11" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="11" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="11" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="11" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="12" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="12" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>12</v>
@@ -1490,35 +1522,35 @@
     </row>
     <row r="42" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="13" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="13" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="13" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1526,70 +1558,70 @@
     </row>
     <row r="47" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="14" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="14" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="15" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="15" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="15" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="14" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="16" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>12</v>
@@ -1597,53 +1629,53 @@
     </row>
     <row r="54" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="17" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="17" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="17" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="18" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="19" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>149</v>
@@ -1651,29 +1683,26 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="19" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="20" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>12</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -1707,12 +1736,12 @@
       <formula>OR(house_info!$D$4&lt;&gt;"0",house_info!$D$5&lt;&gt;"2")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:G33 D28">
+  <conditionalFormatting sqref="D32:G33 D28 E31:G31">
     <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>house_info!$D$28="0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D30:G33 D28">
+  <conditionalFormatting sqref="E30:G33 D28 D30 D32:D33">
     <cfRule type="expression" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>house_info!$D$28 = "0"</formula>
     </cfRule>

--- a/house_info.xlsx
+++ b/house_info.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="158">
   <si>
     <t xml:space="preserve">QUESTION</t>
   </si>
@@ -40,7 +40,7 @@
     <t xml:space="preserve">city</t>
   </si>
   <si>
-    <t xml:space="preserve">Clarington</t>
+    <t xml:space="preserve">Whitby</t>
   </si>
   <si>
     <t xml:space="preserve">District</t>
@@ -49,7 +49,7 @@
     <t xml:space="preserve">district</t>
   </si>
   <si>
-    <t xml:space="preserve">Bowmanville</t>
+    <t xml:space="preserve">Taunton North</t>
   </si>
   <si>
     <t xml:space="preserve">Free=0/condo=1 </t>
@@ -67,13 +67,13 @@
     <t xml:space="preserve">type</t>
   </si>
   <si>
+    <t xml:space="preserve">Storey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">storey</t>
+  </si>
+  <si>
     <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Storey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">storey</t>
   </si>
   <si>
     <t xml:space="preserve">For Freehold: 
@@ -86,7 +86,7 @@
     <t xml:space="preserve">.split(',') </t>
   </si>
   <si>
-    <t xml:space="preserve">rectangular,interior,a park</t>
+    <t xml:space="preserve">irregular,interior,other residential lot</t>
   </si>
   <si>
     <t xml:space="preserve">rectangular,interior,other residential lots</t>
@@ -99,7 +99,7 @@
     <t xml:space="preserve">condo_location</t>
   </si>
   <si>
-    <t xml:space="preserve">southwest,Baseline Road,Greenbank Road,interior</t>
+    <t xml:space="preserve">southwest,King Street West,Bowmanville Avenue,interior</t>
   </si>
   <si>
     <t xml:space="preserve">Rectangular shaped interior lot</t>
@@ -128,9 +128,6 @@
   </si>
   <si>
     <t xml:space="preserve">occupy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
   </si>
   <si>
     <t xml:space="preserve">Attach=0/Builtin=1/Detach=2/Underg=3/Aboveg=4/None+Driveway=5/NoneNone=6 </t>
@@ -165,7 +162,7 @@
     <t xml:space="preserve">.split(‘,’) </t>
   </si>
   <si>
-    <t xml:space="preserve">1,5</t>
+    <t xml:space="preserve">4</t>
   </si>
   <si>
     <t xml:space="preserve">if nuclear station exist: 
@@ -178,16 +175,13 @@
     <t xml:space="preserve">adverse_range</t>
   </si>
   <si>
-    <t xml:space="preserve">500,5</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nearby park/school </t>
   </si>
   <si>
     <t xml:space="preserve">facilities </t>
   </si>
   <si>
-    <t xml:space="preserve">Rhonda Park</t>
+    <t xml:space="preserve">Stockton Park</t>
   </si>
   <si>
     <t xml:space="preserve">electric underground=0/overhead=1 </t>
@@ -202,7 +196,7 @@
     <t xml:space="preserve">lease</t>
   </si>
   <si>
-    <t xml:space="preserve">n</t>
+    <t xml:space="preserve">y</t>
   </si>
   <si>
     <t xml:space="preserve">year built</t>
@@ -211,13 +205,13 @@
     <t xml:space="preserve">year_built</t>
   </si>
   <si>
-    <t xml:space="preserve">1994</t>
+    <t xml:space="preserve">2012</t>
   </si>
   <si>
     <t xml:space="preserve">sqft</t>
   </si>
   <si>
-    <t xml:space="preserve">1389</t>
+    <t xml:space="preserve">2766</t>
   </si>
   <si>
     <t xml:space="preserve">extra ownership checkbox
@@ -227,6 +221,9 @@
     <t xml:space="preserve">ownership_restriction_checkbox </t>
   </si>
   <si>
+    <t xml:space="preserve">n</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sales History</t>
   </si>
   <si>
@@ -236,7 +233,7 @@
     <t xml:space="preserve">geo_date</t>
   </si>
   <si>
-    <t xml:space="preserve">2014-09-05</t>
+    <t xml:space="preserve">2012-02-03</t>
   </si>
   <si>
     <t xml:space="preserve">geo name</t>
@@ -245,7 +242,7 @@
     <t xml:space="preserve">geo_name</t>
   </si>
   <si>
-    <t xml:space="preserve">ROSS, SADIE; ROSS, PATRICK MCKENZIE; </t>
+    <t xml:space="preserve">BURR, LISA; DAWODU, CHRISTOPHER; </t>
   </si>
   <si>
     <t xml:space="preserve">geo price</t>
@@ -269,10 +266,10 @@
     <t xml:space="preserve">mls_no</t>
   </si>
   <si>
-    <t xml:space="preserve">E5469610</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E5113693 </t>
+    <t xml:space="preserve">E5451123 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E5360563 </t>
   </si>
   <si>
     <t xml:space="preserve">W4470113 </t>
@@ -293,10 +290,10 @@
     <t xml:space="preserve">mls_date</t>
   </si>
   <si>
-    <t xml:space="preserve">2022-01-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-02-20</t>
+    <t xml:space="preserve">2021-12-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-09-07</t>
   </si>
   <si>
     <t xml:space="preserve">2019-05-31</t>
@@ -311,7 +308,10 @@
     <t xml:space="preserve">listing_price</t>
   </si>
   <si>
-    <t xml:space="preserve">989900</t>
+    <t xml:space="preserve">549000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">999888</t>
   </si>
   <si>
     <t xml:space="preserve">749000</t>
@@ -326,10 +326,10 @@
     <t xml:space="preserve">sold_price</t>
   </si>
   <si>
-    <t xml:space="preserve">900000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1118000</t>
+    <t xml:space="preserve">810000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1180000</t>
   </si>
   <si>
     <t xml:space="preserve">ter</t>
@@ -344,10 +344,10 @@
     <t xml:space="preserve">dom</t>
   </si>
   <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
   </si>
   <si>
     <t xml:space="preserve">21</t>
@@ -362,16 +362,13 @@
     <t xml:space="preserve">psa</t>
   </si>
   <si>
-    <t xml:space="preserve">y</t>
-  </si>
-  <si>
     <t xml:space="preserve">PSA date</t>
   </si>
   <si>
     <t xml:space="preserve">psa_date</t>
   </si>
   <si>
-    <t xml:space="preserve">2022-01-14</t>
+    <t xml:space="preserve">2021-12-10</t>
   </si>
   <si>
     <t xml:space="preserve">PSA Buyer</t>
@@ -380,7 +377,7 @@
     <t xml:space="preserve">psa_buyer</t>
   </si>
   <si>
-    <t xml:space="preserve">Krista Dawn Silva</t>
+    <t xml:space="preserve">Samihullah Nouri</t>
   </si>
   <si>
     <t xml:space="preserve">PSA Seller</t>
@@ -389,7 +386,7 @@
     <t xml:space="preserve">psa_seller</t>
   </si>
   <si>
-    <t xml:space="preserve">Sadie Ross &amp; Patrick Ross</t>
+    <t xml:space="preserve">Nathan Jordan Haupt &amp; Jennice Thompson</t>
   </si>
   <si>
     <t xml:space="preserve">PSA Price</t>
@@ -410,91 +407,94 @@
     <t xml:space="preserve">living/dining/kitchen/rec</t>
   </si>
   <si>
+    <t xml:space="preserve">0,0,0,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">family/den/laundry/storage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,0,1,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bed/full bath/2-piece bath </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,1,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exterior brick=0/stone=1/vinyl=2/concrete=3/stucco=4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exterior_finish </t>
+  </si>
+  <si>
+    <t xml:space="preserve">First Floor: living+dining+kitchen? (0 or 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">family room/den/office/laundry </t>
+  </si>
+  <si>
+    <t xml:space="preserve">storey_rooms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,0,0,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">master bed/ average bed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ensuite/full/partial bathroom </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,0,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flooring hardwood=0/broadloom=1/laminate=2/ceramic=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior1_floor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Second Floor living+dining+kitchen? (0 or 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">loft/den/office/laundry </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hardwood=0/broadloom=1/laminate=2/ceramic=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior2_floor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Third Floor loft/den/office/laundry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior3</t>
+  </si>
+  <si>
     <t xml:space="preserve">0,0,0,0</t>
   </si>
   <si>
-    <t xml:space="preserve">family/den/laundry/storage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,0,1,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bed/full bath/2-piece bath </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,0,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exterior brick=0/stone=1/vinyl=2/concrete=3/stucco=4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exterior_finish </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First Floor: living+dining+kitchen? (0 or 1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interior1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">family room/den/office/laundry </t>
-  </si>
-  <si>
-    <t xml:space="preserve">storey_rooms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">master bed/ average bed </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ensuite/full/partial bathroom </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,0,0,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flooring hardwood=0/broadloom=1/laminate=2/ceramic=3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interior1_floor</t>
+    <t xml:space="preserve">1,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,0,1</t>
   </si>
   <si>
     <t xml:space="preserve">0,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Second Floor living+dining+kitchen? (0 or 1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interior2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">loft/den/office/laundry </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,1,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hardwood=0/broadloom=1/laminate=2/ceramic=3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interior2_floor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Third Floor loft/den/office/laundry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interior3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,0,1</t>
   </si>
   <si>
     <t xml:space="preserve">Interior upgrades potlight=0/crown mouldings=1 empty = None</t>
@@ -547,13 +547,12 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
-      <sz val="7"/>
+      <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -696,19 +695,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -967,8 +966,8 @@
   </sheetPr>
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E51" activeCellId="0" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1049,18 +1048,18 @@
         <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="25.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1073,7 +1072,7 @@
       <c r="C7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F7" s="0"/>
@@ -1128,15 +1127,15 @@
         <v>34</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>12</v>
@@ -1144,24 +1143,24 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>12</v>
@@ -1169,19 +1168,19 @@
     </row>
     <row r="15" customFormat="false" ht="35.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>32</v>
@@ -1189,35 +1188,35 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>12</v>
@@ -1225,161 +1224,161 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="6" t="s">
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7" t="s">
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="8" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7" t="s">
+      <c r="B25" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="1" t="s">
+    </row>
+    <row r="26" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="8" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="7" t="s">
+      <c r="B26" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="D26" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="4" t="s">
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="8" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="7" t="s">
+      <c r="B27" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="D27" s="9" t="n">
+        <v>546187</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D27" s="8" t="n">
-        <v>265000</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="9" t="s">
+      <c r="B28" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="D28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" s="1" t="s">
+    </row>
+    <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="10" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="9" t="s">
+      <c r="B29" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="D29" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="E29" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="F29" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="G29" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="H29" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="I29" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I29" s="1" t="s">
+    </row>
+    <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="10" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="9" t="s">
+      <c r="B30" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="G30" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H30" s="1" t="s">
+      <c r="I30" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="9" t="s">
+      <c r="B31" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="D31" s="10" t="n">
-        <v>599900</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>94</v>
@@ -1394,11 +1393,11 @@
         <v>96</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="10" t="s">
         <v>97</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1420,11 +1419,11 @@
         <v>101</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="10" t="s">
         <v>103</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -1446,7 +1445,7 @@
         <v>108</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1457,48 +1456,48 @@
         <v>110</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>99</v>
@@ -1506,15 +1505,15 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>12</v>
@@ -1522,35 +1521,35 @@
     </row>
     <row r="42" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1558,21 +1557,21 @@
     </row>
     <row r="47" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B47" s="6" t="s">
-        <v>133</v>
-      </c>
       <c r="D47" s="1" t="s">
-        <v>134</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>32</v>
@@ -1580,48 +1579,48 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="B53" s="6" t="s">
         <v>146</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>147</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>12</v>
@@ -1629,72 +1628,72 @@
     </row>
     <row r="54" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="17" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="18" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="19" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1703,6 +1702,9 @@
       </c>
       <c r="B62" s="6" t="s">
         <v>157</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1736,12 +1738,12 @@
       <formula>OR(house_info!$D$4&lt;&gt;"0",house_info!$D$5&lt;&gt;"2")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32:G33 D28 E31:G31">
+  <conditionalFormatting sqref="D31:G33 D28">
     <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>house_info!$D$28="0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E30:G33 D28 D30 D32:D33">
+  <conditionalFormatting sqref="D28 D30:G33">
     <cfRule type="expression" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>house_info!$D$28 = "0"</formula>
     </cfRule>

--- a/house_info.xlsx
+++ b/house_info.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="159">
   <si>
     <t xml:space="preserve">QUESTION</t>
   </si>
@@ -40,7 +40,7 @@
     <t xml:space="preserve">city</t>
   </si>
   <si>
-    <t xml:space="preserve">Whitby</t>
+    <t xml:space="preserve">Brampton</t>
   </si>
   <si>
     <t xml:space="preserve">District</t>
@@ -49,7 +49,7 @@
     <t xml:space="preserve">district</t>
   </si>
   <si>
-    <t xml:space="preserve">Taunton North</t>
+    <t xml:space="preserve">Northwest Brampton</t>
   </si>
   <si>
     <t xml:space="preserve">Free=0/condo=1 </t>
@@ -86,7 +86,7 @@
     <t xml:space="preserve">.split(',') </t>
   </si>
   <si>
-    <t xml:space="preserve">irregular,interior,other residential lot</t>
+    <t xml:space="preserve">rectangular,interior,a ravine</t>
   </si>
   <si>
     <t xml:space="preserve">rectangular,interior,other residential lots</t>
@@ -99,7 +99,7 @@
     <t xml:space="preserve">condo_location</t>
   </si>
   <si>
-    <t xml:space="preserve">southwest,King Street West,Bowmanville Avenue,interior</t>
+    <t xml:space="preserve">west,Main Street South,Queen Street West,interior</t>
   </si>
   <si>
     <t xml:space="preserve">Rectangular shaped interior lot</t>
@@ -162,9 +162,6 @@
     <t xml:space="preserve">.split(‘,’) </t>
   </si>
   <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
     <t xml:space="preserve">if nuclear station exist: 
 Pickering = 0 / Darlington = 1</t>
   </si>
@@ -175,13 +172,16 @@
     <t xml:space="preserve">adverse_range</t>
   </si>
   <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nearby park/school </t>
   </si>
   <si>
     <t xml:space="preserve">facilities </t>
   </si>
   <si>
-    <t xml:space="preserve">Stockton Park</t>
+    <t xml:space="preserve">Alloa Green Park</t>
   </si>
   <si>
     <t xml:space="preserve">electric underground=0/overhead=1 </t>
@@ -196,7 +196,7 @@
     <t xml:space="preserve">lease</t>
   </si>
   <si>
-    <t xml:space="preserve">y</t>
+    <t xml:space="preserve">n</t>
   </si>
   <si>
     <t xml:space="preserve">year built</t>
@@ -205,13 +205,13 @@
     <t xml:space="preserve">year_built</t>
   </si>
   <si>
-    <t xml:space="preserve">2012</t>
+    <t xml:space="preserve">2017</t>
   </si>
   <si>
     <t xml:space="preserve">sqft</t>
   </si>
   <si>
-    <t xml:space="preserve">2766</t>
+    <t xml:space="preserve">2272</t>
   </si>
   <si>
     <t xml:space="preserve">extra ownership checkbox
@@ -221,9 +221,6 @@
     <t xml:space="preserve">ownership_restriction_checkbox </t>
   </si>
   <si>
-    <t xml:space="preserve">n</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sales History</t>
   </si>
   <si>
@@ -233,7 +230,7 @@
     <t xml:space="preserve">geo_date</t>
   </si>
   <si>
-    <t xml:space="preserve">2012-02-03</t>
+    <t xml:space="preserve">2017-12-15</t>
   </si>
   <si>
     <t xml:space="preserve">geo name</t>
@@ -242,7 +239,7 @@
     <t xml:space="preserve">geo_name</t>
   </si>
   <si>
-    <t xml:space="preserve">BURR, LISA; DAWODU, CHRISTOPHER; </t>
+    <t xml:space="preserve">BHAT, POONAM SUSHIL; BHAT, SUSHILKUMAR PRI; </t>
   </si>
   <si>
     <t xml:space="preserve">geo price</t>
@@ -266,7 +263,7 @@
     <t xml:space="preserve">mls_no</t>
   </si>
   <si>
-    <t xml:space="preserve">E5451123 </t>
+    <t xml:space="preserve">W5444744 </t>
   </si>
   <si>
     <t xml:space="preserve">E5360563 </t>
@@ -290,7 +287,7 @@
     <t xml:space="preserve">mls_date</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-12-08</t>
+    <t xml:space="preserve">2021-11-30</t>
   </si>
   <si>
     <t xml:space="preserve">2021-09-07</t>
@@ -308,7 +305,7 @@
     <t xml:space="preserve">listing_price</t>
   </si>
   <si>
-    <t xml:space="preserve">549000</t>
+    <t xml:space="preserve">1450000</t>
   </si>
   <si>
     <t xml:space="preserve">999888</t>
@@ -326,7 +323,7 @@
     <t xml:space="preserve">sold_price</t>
   </si>
   <si>
-    <t xml:space="preserve">810000</t>
+    <t xml:space="preserve">1640000</t>
   </si>
   <si>
     <t xml:space="preserve">1180000</t>
@@ -344,7 +341,7 @@
     <t xml:space="preserve">dom</t>
   </si>
   <si>
-    <t xml:space="preserve">3</t>
+    <t xml:space="preserve">4</t>
   </si>
   <si>
     <t xml:space="preserve">6</t>
@@ -362,13 +359,16 @@
     <t xml:space="preserve">psa</t>
   </si>
   <si>
+    <t xml:space="preserve">y</t>
+  </si>
+  <si>
     <t xml:space="preserve">PSA date</t>
   </si>
   <si>
     <t xml:space="preserve">psa_date</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-12-10</t>
+    <t xml:space="preserve">2021-12-04</t>
   </si>
   <si>
     <t xml:space="preserve">PSA Buyer</t>
@@ -377,7 +377,7 @@
     <t xml:space="preserve">psa_buyer</t>
   </si>
   <si>
-    <t xml:space="preserve">Samihullah Nouri</t>
+    <t xml:space="preserve">Indramohan Sanmuganathan &amp; Santhiya Indramohan &amp; Suweatha Sanmuganathan</t>
   </si>
   <si>
     <t xml:space="preserve">PSA Seller</t>
@@ -386,7 +386,7 @@
     <t xml:space="preserve">psa_seller</t>
   </si>
   <si>
-    <t xml:space="preserve">Nathan Jordan Haupt &amp; Jennice Thompson</t>
+    <t xml:space="preserve">Sushilkumar Prithvinath Bhat &amp; Poonam Sushil Bhat</t>
   </si>
   <si>
     <t xml:space="preserve">PSA Price</t>
@@ -407,70 +407,79 @@
     <t xml:space="preserve">living/dining/kitchen/rec</t>
   </si>
   <si>
+    <t xml:space="preserve">1,1,1,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">family/den/laundry/storage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,0,0,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bed/full bath/2-piece bath </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,2,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exterior brick=0/stone=1/vinyl=2/concrete=3/stucco=4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exterior_finish </t>
+  </si>
+  <si>
+    <t xml:space="preserve">First Floor: living+dining+kitchen? (0 or 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">family room/den/office/laundry </t>
+  </si>
+  <si>
+    <t xml:space="preserve">storey_rooms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,0,0,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">master bed/ average bed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ensuite/full/partial bathroom </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,0,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flooring hardwood=0/broadloom=1/laminate=2/ceramic=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior1_floor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Second Floor living+dining+kitchen? (0 or 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">loft/den/office/laundry </t>
+  </si>
+  <si>
     <t xml:space="preserve">0,0,0,1</t>
   </si>
   <si>
-    <t xml:space="preserve">family/den/laundry/storage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,0,1,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bed/full bath/2-piece bath </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,1,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exterior brick=0/stone=1/vinyl=2/concrete=3/stucco=4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exterior_finish </t>
-  </si>
-  <si>
-    <t xml:space="preserve">First Floor: living+dining+kitchen? (0 or 1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interior1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">family room/den/office/laundry </t>
-  </si>
-  <si>
-    <t xml:space="preserve">storey_rooms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,0,0,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">master bed/ average bed </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ensuite/full/partial bathroom </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,0,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flooring hardwood=0/broadloom=1/laminate=2/ceramic=3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interior1_floor</t>
-  </si>
-  <si>
     <t xml:space="preserve">1,3</t>
   </si>
   <si>
-    <t xml:space="preserve">Second Floor living+dining+kitchen? (0 or 1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interior2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">loft/den/office/laundry </t>
+    <t xml:space="preserve">2,1,0</t>
   </si>
   <si>
     <t xml:space="preserve">hardwood=0/broadloom=1/laminate=2/ceramic=3</t>
@@ -485,16 +494,10 @@
     <t xml:space="preserve">interior3</t>
   </si>
   <si>
-    <t xml:space="preserve">0,0,0,0</t>
-  </si>
-  <si>
     <t xml:space="preserve">1,1</t>
   </si>
   <si>
     <t xml:space="preserve">1,0,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,3</t>
   </si>
   <si>
     <t xml:space="preserve">Interior upgrades potlight=0/crown mouldings=1 empty = None</t>
@@ -511,7 +514,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -545,11 +548,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -666,7 +664,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -695,15 +693,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -966,8 +960,8 @@
   </sheetPr>
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E51" activeCellId="0" sqref="E51"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D56" activeCellId="0" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1072,7 +1066,7 @@
       <c r="C7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F7" s="0"/>
@@ -1127,7 +1121,7 @@
         <v>34</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1138,7 +1132,7 @@
         <v>36</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1176,11 +1170,8 @@
       <c r="C15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>46</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>32</v>
@@ -1188,16 +1179,16 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1263,204 +1254,204 @@
         <v>63</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="s">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="7" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="s">
+      <c r="B25" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D25" s="1" t="s">
+    </row>
+    <row r="26" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="7" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8" t="s">
+      <c r="B26" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="D26" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="4" t="s">
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="7" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8" t="s">
+      <c r="B27" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="D27" s="8" t="n">
+        <v>625253</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D27" s="9" t="n">
-        <v>546187</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="10" t="s">
+      <c r="B28" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="D28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="1" t="s">
+    </row>
+    <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="9" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="10" t="s">
+      <c r="B29" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="D29" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="E29" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="F29" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="G29" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="H29" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="I29" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I29" s="1" t="s">
+    </row>
+    <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="9" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10" t="s">
+      <c r="B30" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="G30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H30" s="1" t="s">
+      <c r="I30" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="10" t="s">
+      <c r="B31" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="H31" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="10" t="s">
+      <c r="B32" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="H32" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="H32" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="10" t="s">
+      <c r="B33" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G33" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="I33" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="I33" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="11" t="s">
+      <c r="B34" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="35" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="10" t="s">
         <v>111</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -1471,7 +1462,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="10" t="s">
         <v>114</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -1482,7 +1473,7 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="10" t="s">
         <v>117</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -1493,34 +1484,34 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="10" t="s">
         <v>120</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>121</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="11" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="11" t="s">
         <v>123</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>124</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="12" t="s">
         <v>125</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -1531,7 +1522,7 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="12" t="s">
         <v>127</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -1542,7 +1533,7 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="12" t="s">
         <v>129</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -1556,7 +1547,7 @@
       <c r="D45" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="13" t="s">
         <v>131</v>
       </c>
       <c r="B47" s="6" t="s">
@@ -1567,7 +1558,7 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="13" t="s">
         <v>133</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -1578,7 +1569,7 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="14" t="s">
         <v>135</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -1589,7 +1580,7 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="15" t="s">
+      <c r="A50" s="14" t="s">
         <v>138</v>
       </c>
       <c r="D50" s="1" t="s">
@@ -1597,7 +1588,7 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="15" t="s">
+      <c r="A51" s="14" t="s">
         <v>140</v>
       </c>
       <c r="D51" s="1" t="s">
@@ -1605,7 +1596,7 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="13" t="s">
         <v>142</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -1616,7 +1607,7 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="16" t="s">
+      <c r="A53" s="15" t="s">
         <v>145</v>
       </c>
       <c r="B53" s="6" t="s">
@@ -1627,84 +1618,84 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="17" t="s">
+      <c r="A54" s="16" t="s">
         <v>147</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="17" t="s">
+      <c r="A55" s="16" t="s">
         <v>138</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="17" t="s">
+      <c r="A56" s="16" t="s">
         <v>140</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="17" t="s">
-        <v>148</v>
+      <c r="A57" s="16" t="s">
+        <v>151</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="18" t="s">
-        <v>150</v>
+      <c r="A58" s="17" t="s">
+        <v>153</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="19" t="s">
-        <v>148</v>
-      </c>
       <c r="D61" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="20" t="s">
-        <v>156</v>
+      <c r="A62" s="19" t="s">
+        <v>157</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/house_info.xlsx
+++ b/house_info.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="157">
   <si>
     <t xml:space="preserve">QUESTION</t>
   </si>
@@ -224,25 +224,19 @@
     <t xml:space="preserve">Sales History</t>
   </si>
   <si>
-    <t xml:space="preserve">Geowarehouse: geo date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">geo_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-12-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">geo name</t>
+    <t xml:space="preserve">Geowarehouse: geo string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">geo_string </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nov 15, 2017 $0 Transfer BHAT, POONAM SUSHIL; BHAT, SUSHILKUMAR PRI; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">removed</t>
   </si>
   <si>
     <t xml:space="preserve">geo_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BHAT, POONAM SUSHIL; BHAT, SUSHILKUMAR PRI; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">geo price</t>
   </si>
   <si>
     <t xml:space="preserve">geo_price</t>
@@ -960,8 +954,8 @@
   </sheetPr>
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D56" activeCellId="0" sqref="D56"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1262,14 +1256,14 @@
         <v>64</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="4" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1280,231 +1274,227 @@
       <c r="B26" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>70</v>
-      </c>
+      <c r="D26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27" s="8" t="n">
-        <v>625253</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="D27" s="8"/>
     </row>
     <row r="28" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="E29" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="F29" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="G29" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="H29" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="I29" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="G30" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="I30" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="H31" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="H32" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>32</v>
@@ -1512,35 +1502,35 @@
     </row>
     <row r="42" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1548,10 +1538,10 @@
     </row>
     <row r="47" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>12</v>
@@ -1559,10 +1549,10 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>32</v>
@@ -1570,48 +1560,48 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>12</v>
@@ -1619,80 +1609,80 @@
     </row>
     <row r="54" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="18" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>32</v>

--- a/house_info.xlsx
+++ b/house_info.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="151">
   <si>
     <t xml:space="preserve">QUESTION</t>
   </si>
@@ -40,7 +40,7 @@
     <t xml:space="preserve">city</t>
   </si>
   <si>
-    <t xml:space="preserve">Brampton</t>
+    <t xml:space="preserve">Ottawa</t>
   </si>
   <si>
     <t xml:space="preserve">District</t>
@@ -49,7 +49,7 @@
     <t xml:space="preserve">district</t>
   </si>
   <si>
-    <t xml:space="preserve">Northwest Brampton</t>
+    <t xml:space="preserve">St. Claire Gardens</t>
   </si>
   <si>
     <t xml:space="preserve">Free=0/condo=1 </t>
@@ -73,7 +73,7 @@
     <t xml:space="preserve">storey</t>
   </si>
   <si>
-    <t xml:space="preserve">2</t>
+    <t xml:space="preserve">1</t>
   </si>
   <si>
     <t xml:space="preserve">For Freehold: 
@@ -86,9 +86,6 @@
     <t xml:space="preserve">.split(',') </t>
   </si>
   <si>
-    <t xml:space="preserve">rectangular,interior,a ravine</t>
-  </si>
-  <si>
     <t xml:space="preserve">rectangular,interior,other residential lots</t>
   </si>
   <si>
@@ -121,9 +118,6 @@
     <t xml:space="preserve">street_type </t>
   </si>
   <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Owner=0/Tenant=1/Both=2/vacant=3 </t>
   </si>
   <si>
@@ -134,6 +128,9 @@
   </si>
   <si>
     <t xml:space="preserve">parking_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
   </si>
   <si>
     <t xml:space="preserve">number of parking space</t>
@@ -181,7 +178,7 @@
     <t xml:space="preserve">facilities </t>
   </si>
   <si>
-    <t xml:space="preserve">Alloa Green Park</t>
+    <t xml:space="preserve">Algonquin College Ottawa Campus</t>
   </si>
   <si>
     <t xml:space="preserve">electric underground=0/overhead=1 </t>
@@ -196,7 +193,7 @@
     <t xml:space="preserve">lease</t>
   </si>
   <si>
-    <t xml:space="preserve">n</t>
+    <t xml:space="preserve">y</t>
   </si>
   <si>
     <t xml:space="preserve">year built</t>
@@ -205,13 +202,13 @@
     <t xml:space="preserve">year_built</t>
   </si>
   <si>
-    <t xml:space="preserve">2017</t>
+    <t xml:space="preserve">1952</t>
   </si>
   <si>
     <t xml:space="preserve">sqft</t>
   </si>
   <si>
-    <t xml:space="preserve">2272</t>
+    <t xml:space="preserve">1138</t>
   </si>
   <si>
     <t xml:space="preserve">extra ownership checkbox
@@ -221,6 +218,9 @@
     <t xml:space="preserve">ownership_restriction_checkbox </t>
   </si>
   <si>
+    <t xml:space="preserve">n</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sales History</t>
   </si>
   <si>
@@ -230,7 +230,7 @@
     <t xml:space="preserve">geo_string </t>
   </si>
   <si>
-    <t xml:space="preserve">Nov 15, 2017 $0 Transfer BHAT, POONAM SUSHIL; BHAT, SUSHILKUMAR PRI; </t>
+    <t xml:space="preserve">May 21, 2020 $262,500 Transfer ALLAL, SOUKAINA; BENIDIR, HAMZA;</t>
   </si>
   <si>
     <t xml:space="preserve">removed</t>
@@ -248,6 +248,9 @@
     <t xml:space="preserve">mls_count</t>
   </si>
   <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Space for more MLS:</t>
   </si>
   <si>
@@ -257,15 +260,6 @@
     <t xml:space="preserve">mls_no</t>
   </si>
   <si>
-    <t xml:space="preserve">W5444744 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E5360563 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">W4470113 </t>
-  </si>
-  <si>
     <t xml:space="preserve">W4470114 </t>
   </si>
   <si>
@@ -281,10 +275,13 @@
     <t xml:space="preserve">mls_date</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-11-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-09-07</t>
+    <t xml:space="preserve">2022-02-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-24</t>
   </si>
   <si>
     <t xml:space="preserve">2019-05-31</t>
@@ -299,13 +296,10 @@
     <t xml:space="preserve">listing_price</t>
   </si>
   <si>
-    <t xml:space="preserve">1450000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">999888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">749000</t>
+    <t xml:space="preserve">929900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">899900</t>
   </si>
   <si>
     <t xml:space="preserve">799000</t>
@@ -317,28 +311,28 @@
     <t xml:space="preserve">sold_price</t>
   </si>
   <si>
-    <t xml:space="preserve">1640000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1180000</t>
+    <t xml:space="preserve">898000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can</t>
+  </si>
+  <si>
+    <t xml:space="preserve">785000</t>
   </si>
   <si>
     <t xml:space="preserve">ter</t>
   </si>
   <si>
-    <t xml:space="preserve">785000</t>
-  </si>
-  <si>
     <t xml:space="preserve">Days on Market</t>
   </si>
   <si>
     <t xml:space="preserve">dom</t>
   </si>
   <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
+    <t xml:space="preserve">28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
   </si>
   <si>
     <t xml:space="preserve">21</t>
@@ -353,25 +347,19 @@
     <t xml:space="preserve">psa</t>
   </si>
   <si>
-    <t xml:space="preserve">y</t>
-  </si>
-  <si>
     <t xml:space="preserve">PSA date</t>
   </si>
   <si>
     <t xml:space="preserve">psa_date</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-12-04</t>
-  </si>
-  <si>
     <t xml:space="preserve">PSA Buyer</t>
   </si>
   <si>
     <t xml:space="preserve">psa_buyer</t>
   </si>
   <si>
-    <t xml:space="preserve">Indramohan Sanmuganathan &amp; Santhiya Indramohan &amp; Suweatha Sanmuganathan</t>
+    <t xml:space="preserve">Minhua Wang</t>
   </si>
   <si>
     <t xml:space="preserve">PSA Seller</t>
@@ -380,7 +368,7 @@
     <t xml:space="preserve">psa_seller</t>
   </si>
   <si>
-    <t xml:space="preserve">Sushilkumar Prithvinath Bhat &amp; Poonam Sushil Bhat</t>
+    <t xml:space="preserve">Hamza Benidir &amp; Soukaina Allal</t>
   </si>
   <si>
     <t xml:space="preserve">PSA Price</t>
@@ -401,52 +389,52 @@
     <t xml:space="preserve">living/dining/kitchen/rec</t>
   </si>
   <si>
-    <t xml:space="preserve">1,1,1,0</t>
+    <t xml:space="preserve">0,0,0,1</t>
   </si>
   <si>
     <t xml:space="preserve">family/den/laundry/storage</t>
   </si>
   <si>
+    <t xml:space="preserve">0,0,1,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bed/full bath/2-piece bath </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,1,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exterior brick=0/stone=1/vinyl=2/concrete=3/stucco=4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exterior_finish </t>
+  </si>
+  <si>
+    <t xml:space="preserve">First Floor: living+dining+kitchen? (0 or 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">family room/den/office/laundry </t>
+  </si>
+  <si>
+    <t xml:space="preserve">storey_rooms</t>
+  </si>
+  <si>
     <t xml:space="preserve">0,0,0,0</t>
   </si>
   <si>
-    <t xml:space="preserve">bed/full bath/2-piece bath </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,2,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exterior brick=0/stone=1/vinyl=2/concrete=3/stucco=4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exterior_finish </t>
-  </si>
-  <si>
-    <t xml:space="preserve">First Floor: living+dining+kitchen? (0 or 1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interior1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">family room/den/office/laundry </t>
-  </si>
-  <si>
-    <t xml:space="preserve">storey_rooms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,0,0,0</t>
-  </si>
-  <si>
     <t xml:space="preserve">master bed/ average bed </t>
   </si>
   <si>
-    <t xml:space="preserve">0,0</t>
+    <t xml:space="preserve">1,2</t>
   </si>
   <si>
     <t xml:space="preserve">ensuite/full/partial bathroom </t>
   </si>
   <si>
-    <t xml:space="preserve">0,0,1</t>
+    <t xml:space="preserve">0,1,0</t>
   </si>
   <si>
     <t xml:space="preserve">flooring hardwood=0/broadloom=1/laminate=2/ceramic=3</t>
@@ -467,13 +455,7 @@
     <t xml:space="preserve">loft/den/office/laundry </t>
   </si>
   <si>
-    <t xml:space="preserve">0,0,0,1</t>
-  </si>
-  <si>
     <t xml:space="preserve">1,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,1,0</t>
   </si>
   <si>
     <t xml:space="preserve">hardwood=0/broadloom=1/laminate=2/ceramic=3</t>
@@ -508,7 +490,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -545,6 +527,12 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="7"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -658,7 +646,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -696,6 +684,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -954,8 +946,8 @@
   </sheetPr>
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1065,76 +1057,76 @@
       </c>
       <c r="F7" s="0"/>
       <c r="G7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="D9" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>31</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>17</v>
@@ -1142,13 +1134,13 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>12</v>
@@ -1156,99 +1148,102 @@
     </row>
     <row r="15" customFormat="false" ht="35.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="F15" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="D17" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="D18" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="D22" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1256,14 +1251,14 @@
         <v>64</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="s">
         <v>65</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="8" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1293,399 +1288,396 @@
         <v>72</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D29" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="D29" s="10" t="n">
+        <v>1276474</v>
+      </c>
+      <c r="E29" s="10" t="n">
+        <v>1273867</v>
+      </c>
+      <c r="F29" s="10" t="n">
+        <v>1273363</v>
+      </c>
+      <c r="G29" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="H29" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="I29" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="H30" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="I30" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="H31" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="F32" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="H32" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="I32" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="H33" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="I33" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="10" t="s">
+    </row>
+    <row r="42" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="11" t="s">
+      <c r="D42" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="11" t="s">
+    <row r="43" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B43" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="12" t="s">
+    </row>
+    <row r="44" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D42" s="1" t="s">
+      <c r="B44" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D45" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B49" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="13" t="s">
+      <c r="D49" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B48" s="6" t="s">
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="14" t="s">
+      <c r="D50" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B49" s="1" t="s">
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="14" t="s">
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="14" t="s">
+      <c r="D52" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D51" s="1" t="s">
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="16" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="13" t="s">
+      <c r="B53" s="6" t="s">
         <v>140</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>144</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="16" t="s">
+      <c r="A54" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="55" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D55" s="1" t="s">
+      <c r="D58" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="16" t="s">
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="16" t="s">
+    </row>
+    <row r="62" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B62" s="6" t="s">
         <v>150</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/house_info.xlsx
+++ b/house_info.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="157">
   <si>
     <t xml:space="preserve">QUESTION</t>
   </si>
@@ -49,7 +49,7 @@
     <t xml:space="preserve">district</t>
   </si>
   <si>
-    <t xml:space="preserve">St. Claire Gardens</t>
+    <t xml:space="preserve">Queensway Terrace South</t>
   </si>
   <si>
     <t xml:space="preserve">Free=0/condo=1 </t>
@@ -73,7 +73,7 @@
     <t xml:space="preserve">storey</t>
   </si>
   <si>
-    <t xml:space="preserve">1</t>
+    <t xml:space="preserve">2</t>
   </si>
   <si>
     <t xml:space="preserve">For Freehold: 
@@ -86,6 +86,9 @@
     <t xml:space="preserve">.split(',') </t>
   </si>
   <si>
+    <t xml:space="preserve">rectangular,interior,a school</t>
+  </si>
+  <si>
     <t xml:space="preserve">rectangular,interior,other residential lots</t>
   </si>
   <si>
@@ -118,6 +121,9 @@
     <t xml:space="preserve">street_type </t>
   </si>
   <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Owner=0/Tenant=1/Both=2/vacant=3 </t>
   </si>
   <si>
@@ -128,9 +134,6 @@
   </si>
   <si>
     <t xml:space="preserve">parking_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
   </si>
   <si>
     <t xml:space="preserve">number of parking space</t>
@@ -178,7 +181,7 @@
     <t xml:space="preserve">facilities </t>
   </si>
   <si>
-    <t xml:space="preserve">Algonquin College Ottawa Campus</t>
+    <t xml:space="preserve">Lisa Park, Pinecrest Public School</t>
   </si>
   <si>
     <t xml:space="preserve">electric underground=0/overhead=1 </t>
@@ -202,13 +205,13 @@
     <t xml:space="preserve">year_built</t>
   </si>
   <si>
-    <t xml:space="preserve">1952</t>
+    <t xml:space="preserve">1961</t>
   </si>
   <si>
     <t xml:space="preserve">sqft</t>
   </si>
   <si>
-    <t xml:space="preserve">1138</t>
+    <t xml:space="preserve">1284</t>
   </si>
   <si>
     <t xml:space="preserve">extra ownership checkbox
@@ -218,9 +221,6 @@
     <t xml:space="preserve">ownership_restriction_checkbox </t>
   </si>
   <si>
-    <t xml:space="preserve">n</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sales History</t>
   </si>
   <si>
@@ -230,7 +230,7 @@
     <t xml:space="preserve">geo_string </t>
   </si>
   <si>
-    <t xml:space="preserve">May 21, 2020 $262,500 Transfer ALLAL, SOUKAINA; BENIDIR, HAMZA;</t>
+    <t xml:space="preserve">Oct 07, 1988 $136,900 Transfer MARTIN, HEIDI DEBORAH PETERS; MARTIN, RONALD LEE; </t>
   </si>
   <si>
     <t xml:space="preserve">removed</t>
@@ -248,9 +248,6 @@
     <t xml:space="preserve">mls_count</t>
   </si>
   <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
     <t xml:space="preserve">Space for more MLS:</t>
   </si>
   <si>
@@ -275,7 +272,7 @@
     <t xml:space="preserve">mls_date</t>
   </si>
   <si>
-    <t xml:space="preserve">2022-02-04</t>
+    <t xml:space="preserve">2021-11-18</t>
   </si>
   <si>
     <t xml:space="preserve">2022-01-31</t>
@@ -296,6 +293,9 @@
     <t xml:space="preserve">listing_price</t>
   </si>
   <si>
+    <t xml:space="preserve">729000</t>
+  </si>
+  <si>
     <t xml:space="preserve">929900</t>
   </si>
   <si>
@@ -311,7 +311,7 @@
     <t xml:space="preserve">sold_price</t>
   </si>
   <si>
-    <t xml:space="preserve">898000</t>
+    <t xml:space="preserve">714000</t>
   </si>
   <si>
     <t xml:space="preserve">can</t>
@@ -329,6 +329,9 @@
     <t xml:space="preserve">dom</t>
   </si>
   <si>
+    <t xml:space="preserve">57</t>
+  </si>
+  <si>
     <t xml:space="preserve">28</t>
   </si>
   <si>
@@ -353,13 +356,16 @@
     <t xml:space="preserve">psa_date</t>
   </si>
   <si>
+    <t xml:space="preserve">2022-01-08</t>
+  </si>
+  <si>
     <t xml:space="preserve">PSA Buyer</t>
   </si>
   <si>
     <t xml:space="preserve">psa_buyer</t>
   </si>
   <si>
-    <t xml:space="preserve">Minhua Wang</t>
+    <t xml:space="preserve">Gholamabbas Hassanlee &amp; Ramy Abaalkayel</t>
   </si>
   <si>
     <t xml:space="preserve">PSA Seller</t>
@@ -368,7 +374,7 @@
     <t xml:space="preserve">psa_seller</t>
   </si>
   <si>
-    <t xml:space="preserve">Hamza Benidir &amp; Soukaina Allal</t>
+    <t xml:space="preserve">Ronald Lee Martin &amp; Heidi Deborah Peters Martin</t>
   </si>
   <si>
     <t xml:space="preserve">PSA Price</t>
@@ -377,6 +383,9 @@
     <t xml:space="preserve">psa_price</t>
   </si>
   <si>
+    <t xml:space="preserve">719000</t>
+  </si>
+  <si>
     <t xml:space="preserve">Interior layout</t>
   </si>
   <si>
@@ -410,6 +419,9 @@
     <t xml:space="preserve">exterior_finish </t>
   </si>
   <si>
+    <t xml:space="preserve">2,4</t>
+  </si>
+  <si>
     <t xml:space="preserve">First Floor: living+dining+kitchen? (0 or 1)</t>
   </si>
   <si>
@@ -422,40 +434,46 @@
     <t xml:space="preserve">storey_rooms</t>
   </si>
   <si>
+    <t xml:space="preserve">0,1,0,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">master bed/ average bed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ensuite/full/partial bathroom </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,0,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flooring hardwood=0/broadloom=1/laminate=2/ceramic=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior1_floor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Second Floor living+dining+kitchen? (0 or 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">loft/den/office/laundry </t>
+  </si>
+  <si>
     <t xml:space="preserve">0,0,0,0</t>
   </si>
   <si>
-    <t xml:space="preserve">master bed/ average bed </t>
-  </si>
-  <si>
     <t xml:space="preserve">1,2</t>
   </si>
   <si>
-    <t xml:space="preserve">ensuite/full/partial bathroom </t>
-  </si>
-  <si>
     <t xml:space="preserve">0,1,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flooring hardwood=0/broadloom=1/laminate=2/ceramic=3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interior1_floor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Second Floor living+dining+kitchen? (0 or 1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interior2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">loft/den/office/laundry </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,3</t>
   </si>
   <si>
     <t xml:space="preserve">hardwood=0/broadloom=1/laminate=2/ceramic=3</t>
@@ -663,20 +681,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -946,8 +964,8 @@
   </sheetPr>
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E47" activeCellId="0" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -998,19 +1016,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1021,7 +1039,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1043,13 +1061,13 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="25.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1057,222 +1075,219 @@
       </c>
       <c r="F7" s="0"/>
       <c r="G7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
-        <v>22</v>
+      <c r="A8" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="6" t="s">
         <v>27</v>
       </c>
+      <c r="B9" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="D9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="B10" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="D10" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
-        <v>31</v>
+      <c r="A11" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
-        <v>33</v>
+      <c r="A12" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
     <row r="15" customFormat="false" ht="35.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
-        <v>41</v>
+      <c r="A15" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="6" t="s">
         <v>44</v>
       </c>
+      <c r="E15" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="F15" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="6" t="s">
+      <c r="A17" s="4" t="s">
         <v>49</v>
       </c>
+      <c r="B17" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="D17" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="s">
-        <v>51</v>
+      <c r="A18" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" s="6" t="s">
+      <c r="A22" s="4" t="s">
         <v>62</v>
       </c>
+      <c r="B22" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="D22" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7" t="s">
+    <row r="25" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="7" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="6" t="s">
         <v>68</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D26" s="4"/>
+      <c r="D26" s="7"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="6" t="s">
         <v>68</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1288,21 +1303,21 @@
         <v>72</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="D29" s="10" t="n">
-        <v>1276474</v>
+        <v>1270975</v>
       </c>
       <c r="E29" s="10" t="n">
         <v>1273867</v>
@@ -1310,51 +1325,51 @@
       <c r="F29" s="10" t="n">
         <v>1273363</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G29" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H29" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="I29" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="H30" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="I30" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>89</v>
@@ -1369,7 +1384,7 @@
         <v>91</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1395,7 +1410,7 @@
         <v>97</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1406,90 +1421,90 @@
         <v>99</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="11" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="11" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="12" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="12" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>12</v>
@@ -1497,35 +1512,35 @@
     </row>
     <row r="42" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="13" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="D43" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="13" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1533,70 +1548,70 @@
     </row>
     <row r="47" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>126</v>
+        <v>128</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>35</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>128</v>
+        <v>131</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>132</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="15" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="15" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="15" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="14" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>140</v>
+        <v>143</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>12</v>
@@ -1604,80 +1619,80 @@
     </row>
     <row r="54" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="17" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="17" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="17" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="17" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="18" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="19" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="19" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="19" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>150</v>
+        <v>155</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/house_info.xlsx
+++ b/house_info.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="155">
   <si>
     <t xml:space="preserve">QUESTION</t>
   </si>
@@ -40,7 +40,7 @@
     <t xml:space="preserve">city</t>
   </si>
   <si>
-    <t xml:space="preserve">Ottawa</t>
+    <t xml:space="preserve">Brampton</t>
   </si>
   <si>
     <t xml:space="preserve">District</t>
@@ -49,7 +49,7 @@
     <t xml:space="preserve">district</t>
   </si>
   <si>
-    <t xml:space="preserve">Queensway Terrace South</t>
+    <t xml:space="preserve">Snelgrove Peel</t>
   </si>
   <si>
     <t xml:space="preserve">Free=0/condo=1 </t>
@@ -73,7 +73,7 @@
     <t xml:space="preserve">storey</t>
   </si>
   <si>
-    <t xml:space="preserve">2</t>
+    <t xml:space="preserve">1</t>
   </si>
   <si>
     <t xml:space="preserve">For Freehold: 
@@ -86,7 +86,7 @@
     <t xml:space="preserve">.split(',') </t>
   </si>
   <si>
-    <t xml:space="preserve">rectangular,interior,a school</t>
+    <t xml:space="preserve">irregular,interior,a park</t>
   </si>
   <si>
     <t xml:space="preserve">rectangular,interior,other residential lots</t>
@@ -99,10 +99,13 @@
     <t xml:space="preserve">condo_location</t>
   </si>
   <si>
-    <t xml:space="preserve">west,Main Street South,Queen Street West,interior</t>
+    <t xml:space="preserve">northeast,Sheppard Avenue East,Victoria Park Avenue,corner</t>
   </si>
   <si>
     <t xml:space="preserve">Rectangular shaped interior lot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Irregular shaped interior lot</t>
   </si>
   <si>
     <t xml:space="preserve">Townhouse location end/interior</t>
@@ -121,9 +124,6 @@
     <t xml:space="preserve">street_type </t>
   </si>
   <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Owner=0/Tenant=1/Both=2/vacant=3 </t>
   </si>
   <si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t xml:space="preserve">parking_no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
   </si>
   <si>
     <t xml:space="preserve">basement finished=0/ partly=1/ unfin=2/ none=3</t>
@@ -172,7 +175,7 @@
     <t xml:space="preserve">adverse_range</t>
   </si>
   <si>
-    <t xml:space="preserve">5</t>
+    <t xml:space="preserve">200</t>
   </si>
   <si>
     <t xml:space="preserve">Nearby park/school </t>
@@ -181,7 +184,7 @@
     <t xml:space="preserve">facilities </t>
   </si>
   <si>
-    <t xml:space="preserve">Lisa Park, Pinecrest Public School</t>
+    <t xml:space="preserve">Ken Park</t>
   </si>
   <si>
     <t xml:space="preserve">electric underground=0/overhead=1 </t>
@@ -196,7 +199,7 @@
     <t xml:space="preserve">lease</t>
   </si>
   <si>
-    <t xml:space="preserve">y</t>
+    <t xml:space="preserve">n</t>
   </si>
   <si>
     <t xml:space="preserve">year built</t>
@@ -205,13 +208,13 @@
     <t xml:space="preserve">year_built</t>
   </si>
   <si>
-    <t xml:space="preserve">1961</t>
+    <t xml:space="preserve">1965</t>
   </si>
   <si>
     <t xml:space="preserve">sqft</t>
   </si>
   <si>
-    <t xml:space="preserve">1284</t>
+    <t xml:space="preserve">3150</t>
   </si>
   <si>
     <t xml:space="preserve">extra ownership checkbox
@@ -230,7 +233,7 @@
     <t xml:space="preserve">geo_string </t>
   </si>
   <si>
-    <t xml:space="preserve">Oct 07, 1988 $136,900 Transfer MARTIN, HEIDI DEBORAH PETERS; MARTIN, RONALD LEE; </t>
+    <t xml:space="preserve">May 17, 2007 $640,000 Transfer CLARKE, CHRISTOPHER; BLOCKA, BONNIE; </t>
   </si>
   <si>
     <t xml:space="preserve">removed</t>
@@ -257,6 +260,12 @@
     <t xml:space="preserve">mls_no</t>
   </si>
   <si>
+    <t xml:space="preserve">E5327066 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E5304117 </t>
+  </si>
+  <si>
     <t xml:space="preserve">W4470114 </t>
   </si>
   <si>
@@ -272,100 +281,91 @@
     <t xml:space="preserve">mls_date</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-11-18</t>
+    <t xml:space="preserve">2014-01-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-08-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-07-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-05-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-05-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Listing Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">listing_price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">567000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">799000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sold price/ter/can/sus/cond/exp/act</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sold_price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">785000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Days on Market</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSA? y/n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSA date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psa_date</t>
   </si>
   <si>
     <t xml:space="preserve">2022-01-31</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-12-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-05-31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-05-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Listing Price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">listing_price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">729000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">929900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">899900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">799000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sold price/ter/can/sus/cond/exp/act</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sold_price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">714000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">can</t>
-  </si>
-  <si>
-    <t xml:space="preserve">785000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Days on Market</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSA? y/n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">psa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSA date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">psa_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-08</t>
-  </si>
-  <si>
     <t xml:space="preserve">PSA Buyer</t>
   </si>
   <si>
     <t xml:space="preserve">psa_buyer</t>
   </si>
   <si>
-    <t xml:space="preserve">Gholamabbas Hassanlee &amp; Ramy Abaalkayel</t>
+    <t xml:space="preserve">Dawit W. Azmach</t>
   </si>
   <si>
     <t xml:space="preserve">PSA Seller</t>
@@ -374,7 +374,7 @@
     <t xml:space="preserve">psa_seller</t>
   </si>
   <si>
-    <t xml:space="preserve">Ronald Lee Martin &amp; Heidi Deborah Peters Martin</t>
+    <t xml:space="preserve">2809665 Ontario Limited</t>
   </si>
   <si>
     <t xml:space="preserve">PSA Price</t>
@@ -383,7 +383,7 @@
     <t xml:space="preserve">psa_price</t>
   </si>
   <si>
-    <t xml:space="preserve">719000</t>
+    <t xml:space="preserve">700000</t>
   </si>
   <si>
     <t xml:space="preserve">Interior layout</t>
@@ -404,82 +404,76 @@
     <t xml:space="preserve">family/den/laundry/storage</t>
   </si>
   <si>
-    <t xml:space="preserve">0,0,1,0</t>
+    <t xml:space="preserve">0,0,0,0</t>
   </si>
   <si>
     <t xml:space="preserve">bed/full bath/2-piece bath </t>
   </si>
   <si>
+    <t xml:space="preserve">0,1,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exterior brick=0/stone=1/vinyl=2/concrete=3/stucco=4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exterior_finish </t>
+  </si>
+  <si>
+    <t xml:space="preserve">First Floor: living+dining+kitchen? (0 or 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">family room/den/office/laundry </t>
+  </si>
+  <si>
+    <t xml:space="preserve">storey_rooms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,0,1,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">master bed/ average bed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ensuite/full/partial bathroom </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,1,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flooring hardwood=0/broadloom=1/laminate=2/ceramic=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior1_floor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,1,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Second Floor living+dining+kitchen? (0 or 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">loft/den/office/laundry </t>
+  </si>
+  <si>
     <t xml:space="preserve">2,1,0</t>
   </si>
   <si>
-    <t xml:space="preserve">Exterior brick=0/stone=1/vinyl=2/concrete=3/stucco=4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exterior_finish </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First Floor: living+dining+kitchen? (0 or 1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interior1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">family room/den/office/laundry </t>
-  </si>
-  <si>
-    <t xml:space="preserve">storey_rooms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,1,0,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">master bed/ average bed </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ensuite/full/partial bathroom </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,0,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flooring hardwood=0/broadloom=1/laminate=2/ceramic=3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interior1_floor</t>
+    <t xml:space="preserve">hardwood=0/broadloom=1/laminate=2/ceramic=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior2_floor</t>
   </si>
   <si>
     <t xml:space="preserve">0,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Second Floor living+dining+kitchen? (0 or 1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interior2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">loft/den/office/laundry </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,0,0,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,1,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hardwood=0/broadloom=1/laminate=2/ceramic=3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interior2_floor</t>
   </si>
   <si>
     <t xml:space="preserve">Third Floor loft/den/office/laundry</t>
@@ -508,7 +502,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -550,7 +544,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="7"/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="6"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -664,7 +665,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -681,6 +682,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -693,10 +698,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -706,6 +707,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -964,8 +969,8 @@
   </sheetPr>
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E47" activeCellId="0" sqref="E47"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1016,19 +1021,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1039,7 +1044,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1061,13 +1066,13 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="25.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1079,13 +1084,13 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -1094,31 +1099,34 @@
       <c r="G8" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="H8" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="5" t="s">
         <v>28</v>
       </c>
+      <c r="B9" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="D9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="5" t="s">
+      <c r="A10" s="5" t="s">
         <v>31</v>
       </c>
+      <c r="B10" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="D10" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1129,14 +1137,14 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1147,311 +1155,311 @@
         <v>38</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
-        <v>39</v>
+      <c r="A14" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="35.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
-        <v>42</v>
+      <c r="A15" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="5" t="s">
         <v>45</v>
       </c>
+      <c r="E15" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="F15" s="1" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="5" t="s">
+    </row>
+    <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="s">
         <v>50</v>
       </c>
+      <c r="B17" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="D17" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
-        <v>52</v>
+      <c r="A18" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B22" s="5" t="s">
+      <c r="A22" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="B22" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="D22" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="s">
+      <c r="A24" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="7" t="s">
+    </row>
+    <row r="25" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="B25" s="4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="s">
+      <c r="D25" s="4" t="s">
         <v>68</v>
       </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="B26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D26" s="7"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="s">
-        <v>68</v>
-      </c>
       <c r="B27" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D27" s="8"/>
     </row>
     <row r="28" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D29" s="10" t="n">
-        <v>1270975</v>
-      </c>
-      <c r="E29" s="10" t="n">
-        <v>1273867</v>
-      </c>
-      <c r="F29" s="10" t="n">
-        <v>1273363</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H29" s="7" t="s">
+        <v>895216</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>77</v>
       </c>
+      <c r="F29" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="I29" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
+      </c>
+      <c r="D31" s="11" t="n">
+        <v>229500</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>97</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G33" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="I33" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="12" t="s">
         <v>105</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>106</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="12" t="s">
         <v>107</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -1462,7 +1470,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="12" t="s">
         <v>110</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -1473,7 +1481,7 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="12" t="s">
         <v>113</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -1484,7 +1492,7 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="12" t="s">
         <v>116</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -1495,12 +1503,12 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="13" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="13" t="s">
         <v>120</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -1511,7 +1519,7 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="14" t="s">
         <v>122</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -1522,7 +1530,7 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="14" t="s">
         <v>124</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -1533,7 +1541,7 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="14" t="s">
         <v>126</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -1547,152 +1555,155 @@
       <c r="D45" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="6" t="s">
         <v>129</v>
       </c>
       <c r="D47" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="15" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="14" t="s">
+      <c r="B48" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="D48" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="15" t="s">
+      <c r="B49" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D49" s="1" t="s">
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="16" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="15" t="s">
+      <c r="D50" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D50" s="1" t="s">
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="16" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="15" t="s">
+      <c r="D51" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D51" s="1" t="s">
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="15" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="14" t="s">
+      <c r="B52" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D52" s="1" t="s">
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="17" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="16" t="s">
+      <c r="B53" s="6" t="s">
         <v>143</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>144</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="17" t="s">
+      <c r="A54" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D54" s="1" t="s">
+    </row>
+    <row r="57" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="18" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="55" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="D55" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="56" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="D56" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="17" t="s">
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="18" t="s">
+      <c r="D58" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B58" s="1" t="s">
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D58" s="1" t="s">
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="20" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="D59" s="1" t="s">
+      <c r="D61" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="21" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="D60" s="1" t="s">
+      <c r="B62" s="6" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>156</v>
+      <c r="D62" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1726,12 +1737,12 @@
       <formula>OR(house_info!$D$4&lt;&gt;"0",house_info!$D$5&lt;&gt;"2")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:G33 D28">
+  <conditionalFormatting sqref="D32:G33 D28 E31:G31">
     <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>house_info!$D$28="0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28 D30:G33">
+  <conditionalFormatting sqref="D28 E30:G33 D30 D32:D33">
     <cfRule type="expression" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>house_info!$D$28 = "0"</formula>
     </cfRule>
